--- a/EmployeeInformation.xlsx
+++ b/EmployeeInformation.xlsx
@@ -5,14 +5,15 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diazr\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\diazr\Documents\GitHub\EmployeeInformation\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4635"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Info Tab" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -628,7 +629,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
@@ -674,6 +675,159 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -693,9 +847,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -725,158 +876,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1565,6 +1569,850 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>22414</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>56025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>37</xdr:col>
+      <xdr:colOff>123267</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>109873</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Oval 1"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5759826" y="2342025"/>
+          <a:ext cx="997323" cy="1028760"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100"/>
+            <a:t>LogTime</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100" baseline="0"/>
+            <a:t> System</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-PH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>17931</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>118780</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>44911</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Oval 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1990166" y="118780"/>
+          <a:ext cx="1248334" cy="1259631"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100"/>
+            <a:t>Employee</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100" baseline="0"/>
+            <a:t> Information</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100" baseline="0"/>
+            <a:t>(HRIS)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="en-PH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>56028</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>89646</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="Rectangle 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1725706" y="1961028"/>
+          <a:ext cx="1815353" cy="414618"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100"/>
+            <a:t>Register</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100" baseline="0"/>
+            <a:t> Employee</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>104215</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>44911</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>56028</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="4"/>
+          <a:endCxn id="4" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2614333" y="1378411"/>
+          <a:ext cx="19050" cy="582617"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>112059</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>123266</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="Rectangle 10"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1725706" y="2958354"/>
+          <a:ext cx="1815353" cy="425824"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100"/>
+            <a:t>Employees</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-PH" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>89646</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>123265</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Straight Arrow Connector 11"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="4" idx="2"/>
+          <a:endCxn id="11" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2633383" y="2375646"/>
+          <a:ext cx="0" cy="582708"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>107577</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>174810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>129989</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>17928</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="Rectangle 12"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1721224" y="4556310"/>
+          <a:ext cx="1815353" cy="414618"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100"/>
+            <a:t>Logtime</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-PH" sz="1100" baseline="0"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>129989</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>109874</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>162488</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>1120</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="29" name="Straight Arrow Connector 28"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="4"/>
+          <a:endCxn id="13" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="5400000">
+          <a:off x="4189910" y="2695041"/>
+          <a:ext cx="1415246" cy="2721911"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector2">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>156882</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>56029</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="Round Diagonal Corner Rectangle 35"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4269441" y="3014382"/>
+          <a:ext cx="829235" cy="280147"/>
+        </a:xfrm>
+        <a:prstGeom prst="round2DiagRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100"/>
+            <a:t>PRINT ID</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>106456</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>106457</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="39" name="Straight Arrow Connector 38"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="11" idx="3"/>
+          <a:endCxn id="36" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="3541059" y="3154456"/>
+          <a:ext cx="728382" cy="1"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>78441</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>178199</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>32</xdr:col>
+      <xdr:colOff>22414</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>106456</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="Straight Arrow Connector 40"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="36" idx="0"/>
+          <a:endCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="5098676" y="2845199"/>
+          <a:ext cx="661150" cy="309257"/>
+        </a:xfrm>
+        <a:prstGeom prst="bentConnector3">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 50000"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>117661</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>17928</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>118783</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>139275</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="Straight Arrow Connector 45"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="13" idx="2"/>
+          <a:endCxn id="47" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2594161" y="4970928"/>
+          <a:ext cx="1122" cy="692847"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>156882</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>139275</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>78440</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>2623</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="47" name="Oval 46"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2102703" y="5663775"/>
+          <a:ext cx="982916" cy="1006348"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100"/>
+            <a:t>Payroll</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>67097</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>159946</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>164885</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="51" name="Round Diagonal Corner Rectangle 50"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1836026" y="7320642"/>
+          <a:ext cx="1507991" cy="273743"/>
+        </a:xfrm>
+        <a:prstGeom prst="round2DiagRect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100"/>
+            <a:t>Print Payroll</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-PH" sz="1100" baseline="0"/>
+            <a:t> Slip</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-PH" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>113522</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>2623</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>117661</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>81642</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="53" name="Straight Arrow Connector 52"/>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="47" idx="4"/>
+          <a:endCxn id="51" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2590022" y="6670123"/>
+          <a:ext cx="4139" cy="650519"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="63500">
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1830,7 +2678,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="E2:CX85"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="U48" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="B45" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="BI60" sqref="BI60:BQ60"/>
     </sheetView>
   </sheetViews>
@@ -1864,66 +2712,66 @@
       <c r="AB3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="AH3" s="82" t="s">
+      <c r="AH3" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="AI3" s="83"/>
-      <c r="AJ3" s="83"/>
-      <c r="AK3" s="83"/>
-      <c r="AL3" s="83"/>
-      <c r="AM3" s="83"/>
-      <c r="AN3" s="83"/>
-      <c r="AO3" s="83"/>
-      <c r="AP3" s="83"/>
-      <c r="AQ3" s="83"/>
-      <c r="AR3" s="83"/>
-      <c r="AS3" s="83"/>
-      <c r="AT3" s="83"/>
-      <c r="AU3" s="83"/>
-      <c r="AV3" s="83"/>
-      <c r="AW3" s="83"/>
-      <c r="AX3" s="83"/>
-      <c r="AY3" s="83"/>
-      <c r="AZ3" s="83"/>
-      <c r="BA3" s="83"/>
-      <c r="BB3" s="83"/>
-      <c r="BC3" s="83"/>
-      <c r="BD3" s="83"/>
-      <c r="BE3" s="83"/>
-      <c r="BF3" s="83"/>
-      <c r="BG3" s="83"/>
-      <c r="BH3" s="83"/>
-      <c r="BI3" s="83"/>
-      <c r="BJ3" s="83"/>
-      <c r="BK3" s="83"/>
-      <c r="BL3" s="83"/>
-      <c r="BM3" s="83"/>
-      <c r="BN3" s="83"/>
-      <c r="BO3" s="83"/>
-      <c r="BP3" s="83"/>
-      <c r="BQ3" s="83"/>
-      <c r="BR3" s="83"/>
-      <c r="BS3" s="83"/>
-      <c r="BT3" s="83"/>
-      <c r="BU3" s="83"/>
-      <c r="BV3" s="83"/>
-      <c r="BW3" s="83"/>
-      <c r="BX3" s="83"/>
-      <c r="BY3" s="83"/>
-      <c r="BZ3" s="83"/>
-      <c r="CA3" s="83"/>
-      <c r="CB3" s="83"/>
-      <c r="CC3" s="83"/>
-      <c r="CD3" s="83"/>
-      <c r="CE3" s="83"/>
-      <c r="CF3" s="83"/>
-      <c r="CG3" s="83"/>
-      <c r="CH3" s="83"/>
-      <c r="CI3" s="83"/>
-      <c r="CJ3" s="83"/>
-      <c r="CK3" s="83"/>
-      <c r="CL3" s="83"/>
-      <c r="CM3" s="84"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="54"/>
+      <c r="AO3" s="54"/>
+      <c r="AP3" s="54"/>
+      <c r="AQ3" s="54"/>
+      <c r="AR3" s="54"/>
+      <c r="AS3" s="54"/>
+      <c r="AT3" s="54"/>
+      <c r="AU3" s="54"/>
+      <c r="AV3" s="54"/>
+      <c r="AW3" s="54"/>
+      <c r="AX3" s="54"/>
+      <c r="AY3" s="54"/>
+      <c r="AZ3" s="54"/>
+      <c r="BA3" s="54"/>
+      <c r="BB3" s="54"/>
+      <c r="BC3" s="54"/>
+      <c r="BD3" s="54"/>
+      <c r="BE3" s="54"/>
+      <c r="BF3" s="54"/>
+      <c r="BG3" s="54"/>
+      <c r="BH3" s="54"/>
+      <c r="BI3" s="54"/>
+      <c r="BJ3" s="54"/>
+      <c r="BK3" s="54"/>
+      <c r="BL3" s="54"/>
+      <c r="BM3" s="54"/>
+      <c r="BN3" s="54"/>
+      <c r="BO3" s="54"/>
+      <c r="BP3" s="54"/>
+      <c r="BQ3" s="54"/>
+      <c r="BR3" s="54"/>
+      <c r="BS3" s="54"/>
+      <c r="BT3" s="54"/>
+      <c r="BU3" s="54"/>
+      <c r="BV3" s="54"/>
+      <c r="BW3" s="54"/>
+      <c r="BX3" s="54"/>
+      <c r="BY3" s="54"/>
+      <c r="BZ3" s="54"/>
+      <c r="CA3" s="54"/>
+      <c r="CB3" s="54"/>
+      <c r="CC3" s="54"/>
+      <c r="CD3" s="54"/>
+      <c r="CE3" s="54"/>
+      <c r="CF3" s="54"/>
+      <c r="CG3" s="54"/>
+      <c r="CH3" s="54"/>
+      <c r="CI3" s="54"/>
+      <c r="CJ3" s="54"/>
+      <c r="CK3" s="54"/>
+      <c r="CL3" s="54"/>
+      <c r="CM3" s="55"/>
       <c r="CN3" s="10" t="s">
         <v>5</v>
       </c>
@@ -1953,35 +2801,35 @@
       <c r="Z4" s="5"/>
       <c r="AA4" s="5"/>
       <c r="AB4" s="6"/>
-      <c r="AH4" s="86" t="s">
+      <c r="AH4" s="78" t="s">
         <v>7</v>
       </c>
-      <c r="AI4" s="87"/>
-      <c r="AJ4" s="87"/>
-      <c r="AK4" s="87"/>
-      <c r="AL4" s="87"/>
-      <c r="AM4" s="87"/>
-      <c r="AN4" s="88"/>
-      <c r="AO4" s="50" t="s">
+      <c r="AI4" s="79"/>
+      <c r="AJ4" s="79"/>
+      <c r="AK4" s="79"/>
+      <c r="AL4" s="79"/>
+      <c r="AM4" s="79"/>
+      <c r="AN4" s="80"/>
+      <c r="AO4" s="86" t="s">
         <v>11</v>
       </c>
-      <c r="AP4" s="50"/>
-      <c r="AQ4" s="50"/>
-      <c r="AR4" s="50"/>
-      <c r="AS4" s="95"/>
-      <c r="AT4" s="95"/>
-      <c r="AU4" s="95"/>
-      <c r="AV4" s="96"/>
-      <c r="AW4" s="97" t="s">
+      <c r="AP4" s="86"/>
+      <c r="AQ4" s="86"/>
+      <c r="AR4" s="86"/>
+      <c r="AS4" s="45"/>
+      <c r="AT4" s="45"/>
+      <c r="AU4" s="45"/>
+      <c r="AV4" s="46"/>
+      <c r="AW4" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="AX4" s="95"/>
-      <c r="AY4" s="95"/>
-      <c r="AZ4" s="95"/>
-      <c r="BA4" s="95"/>
-      <c r="BB4" s="95"/>
-      <c r="BC4" s="95"/>
-      <c r="BD4" s="96"/>
+      <c r="AX4" s="45"/>
+      <c r="AY4" s="45"/>
+      <c r="AZ4" s="45"/>
+      <c r="BA4" s="45"/>
+      <c r="BB4" s="45"/>
+      <c r="BC4" s="45"/>
+      <c r="BD4" s="46"/>
       <c r="BE4" s="5"/>
       <c r="BF4" s="5"/>
       <c r="BG4" s="5"/>
@@ -2028,39 +2876,39 @@
       <c r="J5" s="5"/>
       <c r="K5" s="5"/>
       <c r="L5" s="5"/>
-      <c r="M5" s="60" t="s">
+      <c r="M5" s="67" t="s">
         <v>2</v>
       </c>
-      <c r="N5" s="60"/>
-      <c r="O5" s="60"/>
-      <c r="P5" s="60"/>
-      <c r="Q5" s="60"/>
-      <c r="R5" s="60"/>
-      <c r="S5" s="60"/>
-      <c r="T5" s="60"/>
-      <c r="U5" s="60"/>
-      <c r="V5" s="85" t="s">
+      <c r="N5" s="67"/>
+      <c r="O5" s="67"/>
+      <c r="P5" s="67"/>
+      <c r="Q5" s="67"/>
+      <c r="R5" s="67"/>
+      <c r="S5" s="67"/>
+      <c r="T5" s="67"/>
+      <c r="U5" s="67"/>
+      <c r="V5" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="W5" s="85"/>
-      <c r="X5" s="85"/>
-      <c r="Y5" s="85"/>
-      <c r="Z5" s="85"/>
-      <c r="AA5" s="85"/>
+      <c r="W5" s="68"/>
+      <c r="X5" s="68"/>
+      <c r="Y5" s="68"/>
+      <c r="Z5" s="68"/>
+      <c r="AA5" s="68"/>
       <c r="AB5" s="6"/>
       <c r="AH5" s="4"/>
       <c r="AI5" s="12"/>
-      <c r="AJ5" s="92" t="s">
+      <c r="AJ5" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="AK5" s="93"/>
-      <c r="AL5" s="93"/>
-      <c r="AM5" s="93"/>
-      <c r="AN5" s="93"/>
-      <c r="AO5" s="93"/>
-      <c r="AP5" s="93"/>
-      <c r="AQ5" s="93"/>
-      <c r="AR5" s="94"/>
+      <c r="AK5" s="84"/>
+      <c r="AL5" s="84"/>
+      <c r="AM5" s="84"/>
+      <c r="AN5" s="84"/>
+      <c r="AO5" s="84"/>
+      <c r="AP5" s="84"/>
+      <c r="AQ5" s="84"/>
+      <c r="AR5" s="85"/>
       <c r="AS5" s="5"/>
       <c r="AT5" s="5"/>
       <c r="AU5" s="5"/>
@@ -2112,44 +2960,44 @@
     </row>
     <row r="6" spans="5:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E6" s="4"/>
-      <c r="F6" s="71" t="s">
+      <c r="F6" s="69" t="s">
         <v>4</v>
       </c>
-      <c r="G6" s="72"/>
-      <c r="H6" s="72"/>
-      <c r="I6" s="72"/>
-      <c r="J6" s="72"/>
-      <c r="K6" s="72"/>
-      <c r="L6" s="72"/>
-      <c r="M6" s="72"/>
-      <c r="N6" s="72"/>
-      <c r="O6" s="72"/>
-      <c r="P6" s="72"/>
-      <c r="Q6" s="72"/>
-      <c r="R6" s="72"/>
-      <c r="S6" s="72"/>
-      <c r="T6" s="72"/>
-      <c r="U6" s="72"/>
-      <c r="V6" s="72"/>
-      <c r="W6" s="72"/>
-      <c r="X6" s="72"/>
-      <c r="Y6" s="72"/>
-      <c r="Z6" s="72"/>
-      <c r="AA6" s="73"/>
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="70"/>
+      <c r="N6" s="70"/>
+      <c r="O6" s="70"/>
+      <c r="P6" s="70"/>
+      <c r="Q6" s="70"/>
+      <c r="R6" s="70"/>
+      <c r="S6" s="70"/>
+      <c r="T6" s="70"/>
+      <c r="U6" s="70"/>
+      <c r="V6" s="70"/>
+      <c r="W6" s="70"/>
+      <c r="X6" s="70"/>
+      <c r="Y6" s="70"/>
+      <c r="Z6" s="70"/>
+      <c r="AA6" s="71"/>
       <c r="AB6" s="6"/>
       <c r="AH6" s="4"/>
       <c r="AI6" s="7"/>
-      <c r="AJ6" s="89" t="s">
+      <c r="AJ6" s="81" t="s">
         <v>8</v>
       </c>
-      <c r="AK6" s="90"/>
-      <c r="AL6" s="90"/>
-      <c r="AM6" s="90"/>
-      <c r="AN6" s="90"/>
-      <c r="AO6" s="90"/>
-      <c r="AP6" s="90"/>
-      <c r="AQ6" s="90"/>
-      <c r="AR6" s="91"/>
+      <c r="AK6" s="43"/>
+      <c r="AL6" s="43"/>
+      <c r="AM6" s="43"/>
+      <c r="AN6" s="43"/>
+      <c r="AO6" s="43"/>
+      <c r="AP6" s="43"/>
+      <c r="AQ6" s="43"/>
+      <c r="AR6" s="82"/>
       <c r="AS6" s="5"/>
       <c r="AT6" s="5"/>
       <c r="AU6" s="5"/>
@@ -2201,42 +3049,42 @@
     </row>
     <row r="7" spans="5:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E7" s="4"/>
-      <c r="F7" s="74"/>
-      <c r="G7" s="64"/>
-      <c r="H7" s="64"/>
-      <c r="I7" s="64"/>
-      <c r="J7" s="64"/>
-      <c r="K7" s="64"/>
-      <c r="L7" s="64"/>
-      <c r="M7" s="64"/>
-      <c r="N7" s="64"/>
-      <c r="O7" s="64"/>
-      <c r="P7" s="64"/>
-      <c r="Q7" s="64"/>
-      <c r="R7" s="64"/>
-      <c r="S7" s="64"/>
-      <c r="T7" s="64"/>
-      <c r="U7" s="64"/>
-      <c r="V7" s="64"/>
-      <c r="W7" s="64"/>
-      <c r="X7" s="64"/>
-      <c r="Y7" s="64"/>
-      <c r="Z7" s="64"/>
-      <c r="AA7" s="75"/>
+      <c r="F7" s="72"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="73"/>
+      <c r="I7" s="73"/>
+      <c r="J7" s="73"/>
+      <c r="K7" s="73"/>
+      <c r="L7" s="73"/>
+      <c r="M7" s="73"/>
+      <c r="N7" s="73"/>
+      <c r="O7" s="73"/>
+      <c r="P7" s="73"/>
+      <c r="Q7" s="73"/>
+      <c r="R7" s="73"/>
+      <c r="S7" s="73"/>
+      <c r="T7" s="73"/>
+      <c r="U7" s="73"/>
+      <c r="V7" s="73"/>
+      <c r="W7" s="73"/>
+      <c r="X7" s="73"/>
+      <c r="Y7" s="73"/>
+      <c r="Z7" s="73"/>
+      <c r="AA7" s="74"/>
       <c r="AB7" s="6"/>
       <c r="AH7" s="4"/>
       <c r="AI7" s="7"/>
-      <c r="AJ7" s="92" t="s">
+      <c r="AJ7" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="AK7" s="93"/>
-      <c r="AL7" s="93"/>
-      <c r="AM7" s="93"/>
-      <c r="AN7" s="93"/>
-      <c r="AO7" s="93"/>
-      <c r="AP7" s="93"/>
-      <c r="AQ7" s="93"/>
-      <c r="AR7" s="94"/>
+      <c r="AK7" s="84"/>
+      <c r="AL7" s="84"/>
+      <c r="AM7" s="84"/>
+      <c r="AN7" s="84"/>
+      <c r="AO7" s="84"/>
+      <c r="AP7" s="84"/>
+      <c r="AQ7" s="84"/>
+      <c r="AR7" s="85"/>
       <c r="AS7" s="5"/>
       <c r="AT7" s="5"/>
       <c r="AU7" s="5"/>
@@ -2288,42 +3136,42 @@
     </row>
     <row r="8" spans="5:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E8" s="4"/>
-      <c r="F8" s="74"/>
-      <c r="G8" s="64"/>
-      <c r="H8" s="64"/>
-      <c r="I8" s="64"/>
-      <c r="J8" s="64"/>
-      <c r="K8" s="64"/>
-      <c r="L8" s="64"/>
-      <c r="M8" s="64"/>
-      <c r="N8" s="64"/>
-      <c r="O8" s="64"/>
-      <c r="P8" s="64"/>
-      <c r="Q8" s="64"/>
-      <c r="R8" s="64"/>
-      <c r="S8" s="64"/>
-      <c r="T8" s="64"/>
-      <c r="U8" s="64"/>
-      <c r="V8" s="64"/>
-      <c r="W8" s="64"/>
-      <c r="X8" s="64"/>
-      <c r="Y8" s="64"/>
-      <c r="Z8" s="64"/>
-      <c r="AA8" s="75"/>
+      <c r="F8" s="72"/>
+      <c r="G8" s="73"/>
+      <c r="H8" s="73"/>
+      <c r="I8" s="73"/>
+      <c r="J8" s="73"/>
+      <c r="K8" s="73"/>
+      <c r="L8" s="73"/>
+      <c r="M8" s="73"/>
+      <c r="N8" s="73"/>
+      <c r="O8" s="73"/>
+      <c r="P8" s="73"/>
+      <c r="Q8" s="73"/>
+      <c r="R8" s="73"/>
+      <c r="S8" s="73"/>
+      <c r="T8" s="73"/>
+      <c r="U8" s="73"/>
+      <c r="V8" s="73"/>
+      <c r="W8" s="73"/>
+      <c r="X8" s="73"/>
+      <c r="Y8" s="73"/>
+      <c r="Z8" s="73"/>
+      <c r="AA8" s="74"/>
       <c r="AB8" s="6"/>
       <c r="AH8" s="4"/>
       <c r="AI8" s="7"/>
-      <c r="AJ8" s="92" t="s">
+      <c r="AJ8" s="83" t="s">
         <v>42</v>
       </c>
-      <c r="AK8" s="93"/>
-      <c r="AL8" s="93"/>
-      <c r="AM8" s="93"/>
-      <c r="AN8" s="93"/>
-      <c r="AO8" s="93"/>
-      <c r="AP8" s="93"/>
-      <c r="AQ8" s="93"/>
-      <c r="AR8" s="94"/>
+      <c r="AK8" s="84"/>
+      <c r="AL8" s="84"/>
+      <c r="AM8" s="84"/>
+      <c r="AN8" s="84"/>
+      <c r="AO8" s="84"/>
+      <c r="AP8" s="84"/>
+      <c r="AQ8" s="84"/>
+      <c r="AR8" s="85"/>
       <c r="AS8" s="5"/>
       <c r="AT8" s="5"/>
       <c r="AU8" s="5"/>
@@ -2375,28 +3223,28 @@
     </row>
     <row r="9" spans="5:93" x14ac:dyDescent="0.25">
       <c r="E9" s="4"/>
-      <c r="F9" s="74"/>
-      <c r="G9" s="64"/>
-      <c r="H9" s="64"/>
-      <c r="I9" s="64"/>
-      <c r="J9" s="64"/>
-      <c r="K9" s="64"/>
-      <c r="L9" s="64"/>
-      <c r="M9" s="64"/>
-      <c r="N9" s="64"/>
-      <c r="O9" s="64"/>
-      <c r="P9" s="64"/>
-      <c r="Q9" s="64"/>
-      <c r="R9" s="64"/>
-      <c r="S9" s="64"/>
-      <c r="T9" s="64"/>
-      <c r="U9" s="64"/>
-      <c r="V9" s="64"/>
-      <c r="W9" s="64"/>
-      <c r="X9" s="64"/>
-      <c r="Y9" s="64"/>
-      <c r="Z9" s="64"/>
-      <c r="AA9" s="75"/>
+      <c r="F9" s="72"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="73"/>
+      <c r="I9" s="73"/>
+      <c r="J9" s="73"/>
+      <c r="K9" s="73"/>
+      <c r="L9" s="73"/>
+      <c r="M9" s="73"/>
+      <c r="N9" s="73"/>
+      <c r="O9" s="73"/>
+      <c r="P9" s="73"/>
+      <c r="Q9" s="73"/>
+      <c r="R9" s="73"/>
+      <c r="S9" s="73"/>
+      <c r="T9" s="73"/>
+      <c r="U9" s="73"/>
+      <c r="V9" s="73"/>
+      <c r="W9" s="73"/>
+      <c r="X9" s="73"/>
+      <c r="Y9" s="73"/>
+      <c r="Z9" s="73"/>
+      <c r="AA9" s="74"/>
       <c r="AB9" s="6"/>
       <c r="AH9" s="4"/>
       <c r="AI9" s="5"/>
@@ -2460,28 +3308,28 @@
     </row>
     <row r="10" spans="5:93" x14ac:dyDescent="0.25">
       <c r="E10" s="4"/>
-      <c r="F10" s="74"/>
-      <c r="G10" s="64"/>
-      <c r="H10" s="64"/>
-      <c r="I10" s="64"/>
-      <c r="J10" s="64"/>
-      <c r="K10" s="64"/>
-      <c r="L10" s="64"/>
-      <c r="M10" s="64"/>
-      <c r="N10" s="64"/>
-      <c r="O10" s="64"/>
-      <c r="P10" s="64"/>
-      <c r="Q10" s="64"/>
-      <c r="R10" s="64"/>
-      <c r="S10" s="64"/>
-      <c r="T10" s="64"/>
-      <c r="U10" s="64"/>
-      <c r="V10" s="64"/>
-      <c r="W10" s="64"/>
-      <c r="X10" s="64"/>
-      <c r="Y10" s="64"/>
-      <c r="Z10" s="64"/>
-      <c r="AA10" s="75"/>
+      <c r="F10" s="72"/>
+      <c r="G10" s="73"/>
+      <c r="H10" s="73"/>
+      <c r="I10" s="73"/>
+      <c r="J10" s="73"/>
+      <c r="K10" s="73"/>
+      <c r="L10" s="73"/>
+      <c r="M10" s="73"/>
+      <c r="N10" s="73"/>
+      <c r="O10" s="73"/>
+      <c r="P10" s="73"/>
+      <c r="Q10" s="73"/>
+      <c r="R10" s="73"/>
+      <c r="S10" s="73"/>
+      <c r="T10" s="73"/>
+      <c r="U10" s="73"/>
+      <c r="V10" s="73"/>
+      <c r="W10" s="73"/>
+      <c r="X10" s="73"/>
+      <c r="Y10" s="73"/>
+      <c r="Z10" s="73"/>
+      <c r="AA10" s="74"/>
       <c r="AB10" s="6"/>
       <c r="AH10" s="4"/>
       <c r="AI10" s="5"/>
@@ -2545,28 +3393,28 @@
     </row>
     <row r="11" spans="5:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E11" s="4"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="77"/>
-      <c r="H11" s="77"/>
-      <c r="I11" s="77"/>
-      <c r="J11" s="77"/>
-      <c r="K11" s="77"/>
-      <c r="L11" s="77"/>
-      <c r="M11" s="77"/>
-      <c r="N11" s="77"/>
-      <c r="O11" s="77"/>
-      <c r="P11" s="77"/>
-      <c r="Q11" s="77"/>
-      <c r="R11" s="77"/>
-      <c r="S11" s="77"/>
-      <c r="T11" s="77"/>
-      <c r="U11" s="77"/>
-      <c r="V11" s="77"/>
-      <c r="W11" s="77"/>
-      <c r="X11" s="77"/>
-      <c r="Y11" s="77"/>
-      <c r="Z11" s="77"/>
-      <c r="AA11" s="78"/>
+      <c r="F11" s="75"/>
+      <c r="G11" s="76"/>
+      <c r="H11" s="76"/>
+      <c r="I11" s="76"/>
+      <c r="J11" s="76"/>
+      <c r="K11" s="76"/>
+      <c r="L11" s="76"/>
+      <c r="M11" s="76"/>
+      <c r="N11" s="76"/>
+      <c r="O11" s="76"/>
+      <c r="P11" s="76"/>
+      <c r="Q11" s="76"/>
+      <c r="R11" s="76"/>
+      <c r="S11" s="76"/>
+      <c r="T11" s="76"/>
+      <c r="U11" s="76"/>
+      <c r="V11" s="76"/>
+      <c r="W11" s="76"/>
+      <c r="X11" s="76"/>
+      <c r="Y11" s="76"/>
+      <c r="Z11" s="76"/>
+      <c r="AA11" s="77"/>
       <c r="AB11" s="6"/>
       <c r="AF11" s="5"/>
       <c r="AG11" s="5"/>
@@ -2658,66 +3506,66 @@
       <c r="AB12" s="6"/>
       <c r="AF12" s="5"/>
       <c r="AG12" s="5"/>
-      <c r="AH12" s="82" t="s">
+      <c r="AH12" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="AI12" s="83"/>
-      <c r="AJ12" s="83"/>
-      <c r="AK12" s="83"/>
-      <c r="AL12" s="83"/>
-      <c r="AM12" s="83"/>
-      <c r="AN12" s="83"/>
-      <c r="AO12" s="83"/>
-      <c r="AP12" s="83"/>
-      <c r="AQ12" s="83"/>
-      <c r="AR12" s="83"/>
-      <c r="AS12" s="83"/>
-      <c r="AT12" s="83"/>
-      <c r="AU12" s="83"/>
-      <c r="AV12" s="83"/>
-      <c r="AW12" s="83"/>
-      <c r="AX12" s="83"/>
-      <c r="AY12" s="83"/>
-      <c r="AZ12" s="83"/>
-      <c r="BA12" s="83"/>
-      <c r="BB12" s="83"/>
-      <c r="BC12" s="83"/>
-      <c r="BD12" s="83"/>
-      <c r="BE12" s="83"/>
-      <c r="BF12" s="83"/>
-      <c r="BG12" s="83"/>
-      <c r="BH12" s="83"/>
-      <c r="BI12" s="83"/>
-      <c r="BJ12" s="83"/>
-      <c r="BK12" s="83"/>
-      <c r="BL12" s="83"/>
-      <c r="BM12" s="83"/>
-      <c r="BN12" s="83"/>
-      <c r="BO12" s="83"/>
-      <c r="BP12" s="83"/>
-      <c r="BQ12" s="83"/>
-      <c r="BR12" s="83"/>
-      <c r="BS12" s="83"/>
-      <c r="BT12" s="83"/>
-      <c r="BU12" s="83"/>
-      <c r="BV12" s="83"/>
-      <c r="BW12" s="83"/>
-      <c r="BX12" s="83"/>
-      <c r="BY12" s="83"/>
-      <c r="BZ12" s="83"/>
-      <c r="CA12" s="83"/>
-      <c r="CB12" s="83"/>
-      <c r="CC12" s="83"/>
-      <c r="CD12" s="83"/>
-      <c r="CE12" s="83"/>
-      <c r="CF12" s="83"/>
-      <c r="CG12" s="83"/>
-      <c r="CH12" s="83"/>
-      <c r="CI12" s="83"/>
-      <c r="CJ12" s="83"/>
-      <c r="CK12" s="83"/>
-      <c r="CL12" s="83"/>
-      <c r="CM12" s="84"/>
+      <c r="AI12" s="54"/>
+      <c r="AJ12" s="54"/>
+      <c r="AK12" s="54"/>
+      <c r="AL12" s="54"/>
+      <c r="AM12" s="54"/>
+      <c r="AN12" s="54"/>
+      <c r="AO12" s="54"/>
+      <c r="AP12" s="54"/>
+      <c r="AQ12" s="54"/>
+      <c r="AR12" s="54"/>
+      <c r="AS12" s="54"/>
+      <c r="AT12" s="54"/>
+      <c r="AU12" s="54"/>
+      <c r="AV12" s="54"/>
+      <c r="AW12" s="54"/>
+      <c r="AX12" s="54"/>
+      <c r="AY12" s="54"/>
+      <c r="AZ12" s="54"/>
+      <c r="BA12" s="54"/>
+      <c r="BB12" s="54"/>
+      <c r="BC12" s="54"/>
+      <c r="BD12" s="54"/>
+      <c r="BE12" s="54"/>
+      <c r="BF12" s="54"/>
+      <c r="BG12" s="54"/>
+      <c r="BH12" s="54"/>
+      <c r="BI12" s="54"/>
+      <c r="BJ12" s="54"/>
+      <c r="BK12" s="54"/>
+      <c r="BL12" s="54"/>
+      <c r="BM12" s="54"/>
+      <c r="BN12" s="54"/>
+      <c r="BO12" s="54"/>
+      <c r="BP12" s="54"/>
+      <c r="BQ12" s="54"/>
+      <c r="BR12" s="54"/>
+      <c r="BS12" s="54"/>
+      <c r="BT12" s="54"/>
+      <c r="BU12" s="54"/>
+      <c r="BV12" s="54"/>
+      <c r="BW12" s="54"/>
+      <c r="BX12" s="54"/>
+      <c r="BY12" s="54"/>
+      <c r="BZ12" s="54"/>
+      <c r="CA12" s="54"/>
+      <c r="CB12" s="54"/>
+      <c r="CC12" s="54"/>
+      <c r="CD12" s="54"/>
+      <c r="CE12" s="54"/>
+      <c r="CF12" s="54"/>
+      <c r="CG12" s="54"/>
+      <c r="CH12" s="54"/>
+      <c r="CI12" s="54"/>
+      <c r="CJ12" s="54"/>
+      <c r="CK12" s="54"/>
+      <c r="CL12" s="54"/>
+      <c r="CM12" s="55"/>
       <c r="CN12" s="11" t="s">
         <v>5</v>
       </c>
@@ -2725,62 +3573,62 @@
     </row>
     <row r="13" spans="5:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E13" s="4"/>
-      <c r="F13" s="60" t="s">
+      <c r="F13" s="67" t="s">
         <v>0</v>
       </c>
-      <c r="G13" s="60"/>
-      <c r="H13" s="60"/>
-      <c r="I13" s="60"/>
-      <c r="J13" s="60"/>
-      <c r="K13" s="60"/>
-      <c r="L13" s="68"/>
-      <c r="M13" s="69"/>
-      <c r="N13" s="69"/>
-      <c r="O13" s="69"/>
-      <c r="P13" s="69"/>
-      <c r="Q13" s="69"/>
-      <c r="R13" s="69"/>
-      <c r="S13" s="69"/>
-      <c r="T13" s="69"/>
-      <c r="U13" s="69"/>
-      <c r="V13" s="69"/>
-      <c r="W13" s="69"/>
-      <c r="X13" s="69"/>
-      <c r="Y13" s="69"/>
-      <c r="Z13" s="70"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="91"/>
+      <c r="M13" s="92"/>
+      <c r="N13" s="92"/>
+      <c r="O13" s="92"/>
+      <c r="P13" s="92"/>
+      <c r="Q13" s="92"/>
+      <c r="R13" s="92"/>
+      <c r="S13" s="92"/>
+      <c r="T13" s="92"/>
+      <c r="U13" s="92"/>
+      <c r="V13" s="92"/>
+      <c r="W13" s="92"/>
+      <c r="X13" s="92"/>
+      <c r="Y13" s="92"/>
+      <c r="Z13" s="93"/>
       <c r="AA13" s="5"/>
       <c r="AB13" s="6"/>
       <c r="AF13" s="5"/>
       <c r="AG13" s="5"/>
-      <c r="AH13" s="98" t="s">
+      <c r="AH13" s="87" t="s">
         <v>7</v>
       </c>
-      <c r="AI13" s="95"/>
-      <c r="AJ13" s="95"/>
-      <c r="AK13" s="95"/>
-      <c r="AL13" s="95"/>
-      <c r="AM13" s="95"/>
-      <c r="AN13" s="95"/>
-      <c r="AO13" s="82" t="s">
+      <c r="AI13" s="45"/>
+      <c r="AJ13" s="45"/>
+      <c r="AK13" s="45"/>
+      <c r="AL13" s="45"/>
+      <c r="AM13" s="45"/>
+      <c r="AN13" s="45"/>
+      <c r="AO13" s="53" t="s">
         <v>11</v>
       </c>
-      <c r="AP13" s="83"/>
-      <c r="AQ13" s="83"/>
-      <c r="AR13" s="83"/>
-      <c r="AS13" s="83"/>
-      <c r="AT13" s="83"/>
-      <c r="AU13" s="83"/>
-      <c r="AV13" s="84"/>
-      <c r="AW13" s="97" t="s">
+      <c r="AP13" s="54"/>
+      <c r="AQ13" s="54"/>
+      <c r="AR13" s="54"/>
+      <c r="AS13" s="54"/>
+      <c r="AT13" s="54"/>
+      <c r="AU13" s="54"/>
+      <c r="AV13" s="55"/>
+      <c r="AW13" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="AX13" s="95"/>
-      <c r="AY13" s="95"/>
-      <c r="AZ13" s="95"/>
-      <c r="BA13" s="95"/>
-      <c r="BB13" s="95"/>
-      <c r="BC13" s="95"/>
-      <c r="BD13" s="96"/>
+      <c r="AX13" s="45"/>
+      <c r="AY13" s="45"/>
+      <c r="AZ13" s="45"/>
+      <c r="BA13" s="45"/>
+      <c r="BB13" s="45"/>
+      <c r="BC13" s="45"/>
+      <c r="BD13" s="46"/>
       <c r="BE13" s="5"/>
       <c r="BF13" s="5"/>
       <c r="BG13" s="5"/>
@@ -2855,17 +3703,17 @@
       <c r="AN14" s="5"/>
       <c r="AO14" s="5"/>
       <c r="AP14" s="12"/>
-      <c r="AQ14" s="92" t="s">
+      <c r="AQ14" s="83" t="s">
         <v>13</v>
       </c>
-      <c r="AR14" s="93"/>
-      <c r="AS14" s="93"/>
-      <c r="AT14" s="93"/>
-      <c r="AU14" s="93"/>
-      <c r="AV14" s="93"/>
-      <c r="AW14" s="93"/>
-      <c r="AX14" s="93"/>
-      <c r="AY14" s="94"/>
+      <c r="AR14" s="84"/>
+      <c r="AS14" s="84"/>
+      <c r="AT14" s="84"/>
+      <c r="AU14" s="84"/>
+      <c r="AV14" s="84"/>
+      <c r="AW14" s="84"/>
+      <c r="AX14" s="84"/>
+      <c r="AY14" s="85"/>
       <c r="AZ14" s="5"/>
       <c r="BA14" s="5"/>
       <c r="BB14" s="5"/>
@@ -2911,29 +3759,29 @@
     </row>
     <row r="15" spans="5:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E15" s="4"/>
-      <c r="F15" s="60" t="s">
+      <c r="F15" s="67" t="s">
         <v>16</v>
       </c>
-      <c r="G15" s="60"/>
-      <c r="H15" s="60"/>
-      <c r="I15" s="60"/>
-      <c r="J15" s="60"/>
-      <c r="K15" s="60"/>
-      <c r="L15" s="68"/>
-      <c r="M15" s="69"/>
-      <c r="N15" s="69"/>
-      <c r="O15" s="69"/>
-      <c r="P15" s="69"/>
-      <c r="Q15" s="69"/>
-      <c r="R15" s="69"/>
-      <c r="S15" s="69"/>
-      <c r="T15" s="69"/>
-      <c r="U15" s="69"/>
-      <c r="V15" s="69"/>
-      <c r="W15" s="69"/>
-      <c r="X15" s="69"/>
-      <c r="Y15" s="69"/>
-      <c r="Z15" s="70"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="91"/>
+      <c r="M15" s="92"/>
+      <c r="N15" s="92"/>
+      <c r="O15" s="92"/>
+      <c r="P15" s="92"/>
+      <c r="Q15" s="92"/>
+      <c r="R15" s="92"/>
+      <c r="S15" s="92"/>
+      <c r="T15" s="92"/>
+      <c r="U15" s="92"/>
+      <c r="V15" s="92"/>
+      <c r="W15" s="92"/>
+      <c r="X15" s="92"/>
+      <c r="Y15" s="92"/>
+      <c r="Z15" s="93"/>
       <c r="AA15" s="5"/>
       <c r="AB15" s="6"/>
       <c r="AF15" s="5"/>
@@ -2947,17 +3795,17 @@
       <c r="AN15" s="5"/>
       <c r="AO15" s="5"/>
       <c r="AP15" s="7"/>
-      <c r="AQ15" s="89" t="s">
+      <c r="AQ15" s="81" t="s">
         <v>14</v>
       </c>
-      <c r="AR15" s="90"/>
-      <c r="AS15" s="90"/>
-      <c r="AT15" s="90"/>
-      <c r="AU15" s="90"/>
-      <c r="AV15" s="90"/>
-      <c r="AW15" s="90"/>
-      <c r="AX15" s="90"/>
-      <c r="AY15" s="91"/>
+      <c r="AR15" s="43"/>
+      <c r="AS15" s="43"/>
+      <c r="AT15" s="43"/>
+      <c r="AU15" s="43"/>
+      <c r="AV15" s="43"/>
+      <c r="AW15" s="43"/>
+      <c r="AX15" s="43"/>
+      <c r="AY15" s="82"/>
       <c r="AZ15" s="5"/>
       <c r="BA15" s="5"/>
       <c r="BB15" s="5"/>
@@ -3016,17 +3864,17 @@
       <c r="AN16" s="5"/>
       <c r="AO16" s="5"/>
       <c r="AP16" s="7"/>
-      <c r="AQ16" s="92" t="s">
+      <c r="AQ16" s="83" t="s">
         <v>15</v>
       </c>
-      <c r="AR16" s="93"/>
-      <c r="AS16" s="93"/>
-      <c r="AT16" s="93"/>
-      <c r="AU16" s="93"/>
-      <c r="AV16" s="93"/>
-      <c r="AW16" s="93"/>
-      <c r="AX16" s="93"/>
-      <c r="AY16" s="94"/>
+      <c r="AR16" s="84"/>
+      <c r="AS16" s="84"/>
+      <c r="AT16" s="84"/>
+      <c r="AU16" s="84"/>
+      <c r="AV16" s="84"/>
+      <c r="AW16" s="84"/>
+      <c r="AX16" s="84"/>
+      <c r="AY16" s="85"/>
       <c r="AZ16" s="5"/>
       <c r="BA16" s="5"/>
       <c r="BB16" s="5"/>
@@ -3078,23 +3926,23 @@
       <c r="I17" s="5"/>
       <c r="J17" s="5"/>
       <c r="K17" s="5"/>
-      <c r="L17" s="79" t="s">
+      <c r="L17" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="M17" s="80"/>
-      <c r="N17" s="80"/>
-      <c r="O17" s="80"/>
-      <c r="P17" s="80"/>
-      <c r="Q17" s="80"/>
-      <c r="R17" s="80"/>
-      <c r="S17" s="80"/>
-      <c r="T17" s="80"/>
-      <c r="U17" s="80"/>
-      <c r="V17" s="80"/>
-      <c r="W17" s="80"/>
-      <c r="X17" s="80"/>
-      <c r="Y17" s="80"/>
-      <c r="Z17" s="81"/>
+      <c r="M17" s="89"/>
+      <c r="N17" s="89"/>
+      <c r="O17" s="89"/>
+      <c r="P17" s="89"/>
+      <c r="Q17" s="89"/>
+      <c r="R17" s="89"/>
+      <c r="S17" s="89"/>
+      <c r="T17" s="89"/>
+      <c r="U17" s="89"/>
+      <c r="V17" s="89"/>
+      <c r="W17" s="89"/>
+      <c r="X17" s="89"/>
+      <c r="Y17" s="89"/>
+      <c r="Z17" s="90"/>
       <c r="AA17" s="5"/>
       <c r="AB17" s="6"/>
       <c r="AF17" s="5"/>
@@ -3752,26 +4600,26 @@
     </row>
     <row r="26" spans="5:94" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J26" s="4"/>
-      <c r="K26" s="71" t="s">
+      <c r="K26" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="L26" s="73"/>
-      <c r="M26" s="71" t="s">
+      <c r="L26" s="71"/>
+      <c r="M26" s="69" t="s">
         <v>18</v>
       </c>
-      <c r="N26" s="72"/>
-      <c r="O26" s="71">
+      <c r="N26" s="70"/>
+      <c r="O26" s="69">
         <v>1</v>
       </c>
-      <c r="P26" s="73"/>
-      <c r="Q26" s="72" t="s">
+      <c r="P26" s="71"/>
+      <c r="Q26" s="70" t="s">
         <v>19</v>
       </c>
-      <c r="R26" s="73"/>
-      <c r="S26" s="71" t="s">
+      <c r="R26" s="71"/>
+      <c r="S26" s="69" t="s">
         <v>20</v>
       </c>
-      <c r="T26" s="73"/>
+      <c r="T26" s="71"/>
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
       <c r="W26" s="5"/>
@@ -3787,27 +4635,27 @@
       <c r="AG26" s="5"/>
       <c r="AH26" s="5"/>
       <c r="AI26" s="5"/>
-      <c r="AJ26" s="68"/>
-      <c r="AK26" s="69"/>
-      <c r="AL26" s="69"/>
-      <c r="AM26" s="69"/>
-      <c r="AN26" s="69"/>
-      <c r="AO26" s="69"/>
-      <c r="AP26" s="69"/>
-      <c r="AQ26" s="69"/>
-      <c r="AR26" s="69"/>
-      <c r="AS26" s="69"/>
-      <c r="AT26" s="69"/>
-      <c r="AU26" s="69"/>
-      <c r="AV26" s="70"/>
-      <c r="AW26" s="82" t="s">
+      <c r="AJ26" s="91"/>
+      <c r="AK26" s="92"/>
+      <c r="AL26" s="92"/>
+      <c r="AM26" s="92"/>
+      <c r="AN26" s="92"/>
+      <c r="AO26" s="92"/>
+      <c r="AP26" s="92"/>
+      <c r="AQ26" s="92"/>
+      <c r="AR26" s="92"/>
+      <c r="AS26" s="92"/>
+      <c r="AT26" s="92"/>
+      <c r="AU26" s="92"/>
+      <c r="AV26" s="93"/>
+      <c r="AW26" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="AX26" s="83"/>
-      <c r="AY26" s="83"/>
-      <c r="AZ26" s="83"/>
-      <c r="BA26" s="83"/>
-      <c r="BB26" s="84"/>
+      <c r="AX26" s="54"/>
+      <c r="AY26" s="54"/>
+      <c r="AZ26" s="54"/>
+      <c r="BA26" s="54"/>
+      <c r="BB26" s="55"/>
       <c r="BC26" s="6"/>
       <c r="BD26" s="5"/>
       <c r="BE26" s="5"/>
@@ -3830,16 +4678,16 @@
     </row>
     <row r="27" spans="5:94" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J27" s="4"/>
-      <c r="K27" s="74"/>
-      <c r="L27" s="75"/>
-      <c r="M27" s="74"/>
-      <c r="N27" s="64"/>
-      <c r="O27" s="76"/>
-      <c r="P27" s="78"/>
-      <c r="Q27" s="64"/>
-      <c r="R27" s="75"/>
-      <c r="S27" s="74"/>
-      <c r="T27" s="75"/>
+      <c r="K27" s="72"/>
+      <c r="L27" s="74"/>
+      <c r="M27" s="72"/>
+      <c r="N27" s="73"/>
+      <c r="O27" s="75"/>
+      <c r="P27" s="77"/>
+      <c r="Q27" s="73"/>
+      <c r="R27" s="74"/>
+      <c r="S27" s="72"/>
+      <c r="T27" s="74"/>
       <c r="U27" s="5"/>
       <c r="V27" s="5"/>
       <c r="W27" s="5"/>
@@ -3891,17 +4739,17 @@
       <c r="BQ27" s="5"/>
       <c r="BR27" s="6"/>
       <c r="BS27" s="5"/>
-      <c r="BT27" s="60" t="s">
+      <c r="BT27" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="BU27" s="60"/>
-      <c r="BV27" s="60"/>
-      <c r="BW27" s="60"/>
-      <c r="BX27" s="60"/>
-      <c r="BY27" s="60"/>
-      <c r="BZ27" s="60"/>
-      <c r="CA27" s="60"/>
-      <c r="CB27" s="60"/>
+      <c r="BU27" s="67"/>
+      <c r="BV27" s="67"/>
+      <c r="BW27" s="67"/>
+      <c r="BX27" s="67"/>
+      <c r="BY27" s="67"/>
+      <c r="BZ27" s="67"/>
+      <c r="CA27" s="67"/>
+      <c r="CB27" s="67"/>
       <c r="CC27" s="25"/>
       <c r="CD27" s="26"/>
       <c r="CE27" s="26"/>
@@ -3917,57 +4765,57 @@
     </row>
     <row r="28" spans="5:94" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J28" s="4"/>
-      <c r="K28" s="100" t="s">
+      <c r="K28" s="58" t="s">
         <v>21</v>
       </c>
-      <c r="L28" s="101"/>
-      <c r="M28" s="101"/>
-      <c r="N28" s="101"/>
-      <c r="O28" s="101"/>
-      <c r="P28" s="101"/>
-      <c r="Q28" s="102"/>
-      <c r="R28" s="100" t="s">
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="60"/>
+      <c r="R28" s="58" t="s">
         <v>22</v>
       </c>
-      <c r="S28" s="101"/>
-      <c r="T28" s="101"/>
-      <c r="U28" s="101"/>
-      <c r="V28" s="101"/>
-      <c r="W28" s="101"/>
-      <c r="X28" s="101"/>
-      <c r="Y28" s="101"/>
-      <c r="Z28" s="101"/>
-      <c r="AA28" s="101"/>
-      <c r="AB28" s="101"/>
-      <c r="AC28" s="101"/>
-      <c r="AD28" s="101"/>
-      <c r="AE28" s="101"/>
-      <c r="AF28" s="101"/>
-      <c r="AG28" s="102"/>
-      <c r="AH28" s="100" t="s">
+      <c r="S28" s="59"/>
+      <c r="T28" s="59"/>
+      <c r="U28" s="59"/>
+      <c r="V28" s="59"/>
+      <c r="W28" s="59"/>
+      <c r="X28" s="59"/>
+      <c r="Y28" s="59"/>
+      <c r="Z28" s="59"/>
+      <c r="AA28" s="59"/>
+      <c r="AB28" s="59"/>
+      <c r="AC28" s="59"/>
+      <c r="AD28" s="59"/>
+      <c r="AE28" s="59"/>
+      <c r="AF28" s="59"/>
+      <c r="AG28" s="60"/>
+      <c r="AH28" s="58" t="s">
         <v>23</v>
       </c>
-      <c r="AI28" s="101"/>
-      <c r="AJ28" s="101"/>
-      <c r="AK28" s="101"/>
-      <c r="AL28" s="101"/>
-      <c r="AM28" s="101"/>
-      <c r="AN28" s="101"/>
-      <c r="AO28" s="102"/>
-      <c r="AP28" s="100" t="s">
+      <c r="AI28" s="59"/>
+      <c r="AJ28" s="59"/>
+      <c r="AK28" s="59"/>
+      <c r="AL28" s="59"/>
+      <c r="AM28" s="59"/>
+      <c r="AN28" s="59"/>
+      <c r="AO28" s="60"/>
+      <c r="AP28" s="58" t="s">
         <v>24</v>
       </c>
-      <c r="AQ28" s="101"/>
-      <c r="AR28" s="101"/>
-      <c r="AS28" s="101"/>
-      <c r="AT28" s="101"/>
-      <c r="AU28" s="101"/>
-      <c r="AV28" s="101"/>
-      <c r="AW28" s="101"/>
-      <c r="AX28" s="102"/>
-      <c r="AY28" s="82"/>
-      <c r="AZ28" s="83"/>
-      <c r="BA28" s="84"/>
+      <c r="AQ28" s="59"/>
+      <c r="AR28" s="59"/>
+      <c r="AS28" s="59"/>
+      <c r="AT28" s="59"/>
+      <c r="AU28" s="59"/>
+      <c r="AV28" s="59"/>
+      <c r="AW28" s="59"/>
+      <c r="AX28" s="60"/>
+      <c r="AY28" s="53"/>
+      <c r="AZ28" s="54"/>
+      <c r="BA28" s="55"/>
       <c r="BB28" s="20"/>
       <c r="BC28" s="6"/>
       <c r="BD28" s="5"/>
@@ -3976,16 +4824,16 @@
       <c r="BG28" s="4"/>
       <c r="BH28" s="5"/>
       <c r="BI28" s="4"/>
-      <c r="BJ28" s="64" t="s">
+      <c r="BJ28" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="BK28" s="64"/>
-      <c r="BL28" s="64"/>
-      <c r="BM28" s="64"/>
-      <c r="BN28" s="64"/>
-      <c r="BO28" s="64"/>
-      <c r="BP28" s="64"/>
-      <c r="BQ28" s="64"/>
+      <c r="BK28" s="73"/>
+      <c r="BL28" s="73"/>
+      <c r="BM28" s="73"/>
+      <c r="BN28" s="73"/>
+      <c r="BO28" s="73"/>
+      <c r="BP28" s="73"/>
+      <c r="BQ28" s="73"/>
       <c r="BR28" s="6"/>
       <c r="BS28" s="5"/>
       <c r="BT28" s="16"/>
@@ -4012,59 +4860,59 @@
     </row>
     <row r="29" spans="5:94" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J29" s="4"/>
-      <c r="K29" s="103">
+      <c r="K29" s="110">
         <v>34980</v>
       </c>
-      <c r="L29" s="104"/>
-      <c r="M29" s="104"/>
-      <c r="N29" s="104"/>
-      <c r="O29" s="104"/>
-      <c r="P29" s="104"/>
-      <c r="Q29" s="105"/>
-      <c r="R29" s="106" t="s">
+      <c r="L29" s="65"/>
+      <c r="M29" s="65"/>
+      <c r="N29" s="65"/>
+      <c r="O29" s="65"/>
+      <c r="P29" s="65"/>
+      <c r="Q29" s="66"/>
+      <c r="R29" s="64" t="s">
         <v>26</v>
       </c>
-      <c r="S29" s="104"/>
-      <c r="T29" s="104"/>
-      <c r="U29" s="104"/>
-      <c r="V29" s="104"/>
-      <c r="W29" s="104"/>
-      <c r="X29" s="104"/>
-      <c r="Y29" s="104"/>
-      <c r="Z29" s="104"/>
-      <c r="AA29" s="104"/>
-      <c r="AB29" s="104"/>
-      <c r="AC29" s="104"/>
-      <c r="AD29" s="104"/>
-      <c r="AE29" s="104"/>
-      <c r="AF29" s="104"/>
-      <c r="AG29" s="105"/>
-      <c r="AH29" s="97" t="s">
+      <c r="S29" s="65"/>
+      <c r="T29" s="65"/>
+      <c r="U29" s="65"/>
+      <c r="V29" s="65"/>
+      <c r="W29" s="65"/>
+      <c r="X29" s="65"/>
+      <c r="Y29" s="65"/>
+      <c r="Z29" s="65"/>
+      <c r="AA29" s="65"/>
+      <c r="AB29" s="65"/>
+      <c r="AC29" s="65"/>
+      <c r="AD29" s="65"/>
+      <c r="AE29" s="65"/>
+      <c r="AF29" s="65"/>
+      <c r="AG29" s="66"/>
+      <c r="AH29" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="AI29" s="95"/>
-      <c r="AJ29" s="95"/>
-      <c r="AK29" s="95"/>
-      <c r="AL29" s="95"/>
-      <c r="AM29" s="95"/>
-      <c r="AN29" s="95"/>
-      <c r="AO29" s="96"/>
-      <c r="AP29" s="97" t="s">
+      <c r="AI29" s="45"/>
+      <c r="AJ29" s="45"/>
+      <c r="AK29" s="45"/>
+      <c r="AL29" s="45"/>
+      <c r="AM29" s="45"/>
+      <c r="AN29" s="45"/>
+      <c r="AO29" s="46"/>
+      <c r="AP29" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="AQ29" s="95"/>
-      <c r="AR29" s="95"/>
-      <c r="AS29" s="95"/>
-      <c r="AT29" s="95"/>
-      <c r="AU29" s="95"/>
-      <c r="AV29" s="95"/>
-      <c r="AW29" s="95"/>
-      <c r="AX29" s="95"/>
-      <c r="AY29" s="65" t="s">
+      <c r="AQ29" s="45"/>
+      <c r="AR29" s="45"/>
+      <c r="AS29" s="45"/>
+      <c r="AT29" s="45"/>
+      <c r="AU29" s="45"/>
+      <c r="AV29" s="45"/>
+      <c r="AW29" s="45"/>
+      <c r="AX29" s="45"/>
+      <c r="AY29" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="AZ29" s="66"/>
-      <c r="BA29" s="67"/>
+      <c r="AZ29" s="62"/>
+      <c r="BA29" s="63"/>
       <c r="BB29" s="21"/>
       <c r="BC29" s="6"/>
       <c r="BD29" s="5"/>
@@ -4073,27 +4921,27 @@
       <c r="BG29" s="4"/>
       <c r="BH29" s="5"/>
       <c r="BI29" s="4"/>
-      <c r="BJ29" s="64"/>
-      <c r="BK29" s="64"/>
-      <c r="BL29" s="64"/>
-      <c r="BM29" s="64"/>
-      <c r="BN29" s="64"/>
-      <c r="BO29" s="64"/>
-      <c r="BP29" s="64"/>
-      <c r="BQ29" s="64"/>
+      <c r="BJ29" s="73"/>
+      <c r="BK29" s="73"/>
+      <c r="BL29" s="73"/>
+      <c r="BM29" s="73"/>
+      <c r="BN29" s="73"/>
+      <c r="BO29" s="73"/>
+      <c r="BP29" s="73"/>
+      <c r="BQ29" s="73"/>
       <c r="BR29" s="6"/>
       <c r="BS29" s="5"/>
-      <c r="BT29" s="60" t="s">
+      <c r="BT29" s="67" t="s">
         <v>34</v>
       </c>
-      <c r="BU29" s="60"/>
-      <c r="BV29" s="60"/>
-      <c r="BW29" s="60"/>
-      <c r="BX29" s="60"/>
-      <c r="BY29" s="60"/>
-      <c r="BZ29" s="60"/>
-      <c r="CA29" s="60"/>
-      <c r="CB29" s="60"/>
+      <c r="BU29" s="67"/>
+      <c r="BV29" s="67"/>
+      <c r="BW29" s="67"/>
+      <c r="BX29" s="67"/>
+      <c r="BY29" s="67"/>
+      <c r="BZ29" s="67"/>
+      <c r="CA29" s="67"/>
+      <c r="CB29" s="67"/>
       <c r="CC29" s="25"/>
       <c r="CD29" s="26"/>
       <c r="CE29" s="26"/>
@@ -4109,59 +4957,59 @@
     </row>
     <row r="30" spans="5:94" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J30" s="4"/>
-      <c r="K30" s="99">
+      <c r="K30" s="57">
         <v>36591</v>
       </c>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="63"/>
-      <c r="R30" s="61" t="s">
+      <c r="L30" s="48"/>
+      <c r="M30" s="48"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="48"/>
+      <c r="Q30" s="49"/>
+      <c r="R30" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="S30" s="62"/>
-      <c r="T30" s="62"/>
-      <c r="U30" s="62"/>
-      <c r="V30" s="62"/>
-      <c r="W30" s="62"/>
-      <c r="X30" s="62"/>
-      <c r="Y30" s="62"/>
-      <c r="Z30" s="62"/>
-      <c r="AA30" s="62"/>
-      <c r="AB30" s="62"/>
-      <c r="AC30" s="62"/>
-      <c r="AD30" s="62"/>
-      <c r="AE30" s="62"/>
-      <c r="AF30" s="62"/>
-      <c r="AG30" s="63"/>
-      <c r="AH30" s="61" t="s">
+      <c r="S30" s="48"/>
+      <c r="T30" s="48"/>
+      <c r="U30" s="48"/>
+      <c r="V30" s="48"/>
+      <c r="W30" s="48"/>
+      <c r="X30" s="48"/>
+      <c r="Y30" s="48"/>
+      <c r="Z30" s="48"/>
+      <c r="AA30" s="48"/>
+      <c r="AB30" s="48"/>
+      <c r="AC30" s="48"/>
+      <c r="AD30" s="48"/>
+      <c r="AE30" s="48"/>
+      <c r="AF30" s="48"/>
+      <c r="AG30" s="49"/>
+      <c r="AH30" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="AI30" s="62"/>
-      <c r="AJ30" s="62"/>
-      <c r="AK30" s="62"/>
-      <c r="AL30" s="62"/>
-      <c r="AM30" s="62"/>
-      <c r="AN30" s="62"/>
-      <c r="AO30" s="63"/>
-      <c r="AP30" s="61" t="s">
+      <c r="AI30" s="48"/>
+      <c r="AJ30" s="48"/>
+      <c r="AK30" s="48"/>
+      <c r="AL30" s="48"/>
+      <c r="AM30" s="48"/>
+      <c r="AN30" s="48"/>
+      <c r="AO30" s="49"/>
+      <c r="AP30" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="AQ30" s="62"/>
-      <c r="AR30" s="62"/>
-      <c r="AS30" s="62"/>
-      <c r="AT30" s="62"/>
-      <c r="AU30" s="62"/>
-      <c r="AV30" s="62"/>
-      <c r="AW30" s="62"/>
-      <c r="AX30" s="62"/>
-      <c r="AY30" s="65" t="s">
+      <c r="AQ30" s="48"/>
+      <c r="AR30" s="48"/>
+      <c r="AS30" s="48"/>
+      <c r="AT30" s="48"/>
+      <c r="AU30" s="48"/>
+      <c r="AV30" s="48"/>
+      <c r="AW30" s="48"/>
+      <c r="AX30" s="48"/>
+      <c r="AY30" s="61" t="s">
         <v>20</v>
       </c>
-      <c r="AZ30" s="66"/>
-      <c r="BA30" s="67"/>
+      <c r="AZ30" s="62"/>
+      <c r="BA30" s="63"/>
       <c r="BB30" s="21"/>
       <c r="BC30" s="6"/>
       <c r="BD30" s="5"/>
@@ -4170,14 +5018,14 @@
       <c r="BG30" s="4"/>
       <c r="BH30" s="5"/>
       <c r="BI30" s="4"/>
-      <c r="BJ30" s="64"/>
-      <c r="BK30" s="64"/>
-      <c r="BL30" s="64"/>
-      <c r="BM30" s="64"/>
-      <c r="BN30" s="64"/>
-      <c r="BO30" s="64"/>
-      <c r="BP30" s="64"/>
-      <c r="BQ30" s="64"/>
+      <c r="BJ30" s="73"/>
+      <c r="BK30" s="73"/>
+      <c r="BL30" s="73"/>
+      <c r="BM30" s="73"/>
+      <c r="BN30" s="73"/>
+      <c r="BO30" s="73"/>
+      <c r="BP30" s="73"/>
+      <c r="BQ30" s="73"/>
       <c r="BR30" s="6"/>
       <c r="BS30" s="5"/>
       <c r="BT30" s="16"/>
@@ -4204,49 +5052,49 @@
     </row>
     <row r="31" spans="5:94" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J31" s="4"/>
-      <c r="K31" s="99"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="62"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="63"/>
-      <c r="R31" s="61"/>
-      <c r="S31" s="62"/>
-      <c r="T31" s="62"/>
-      <c r="U31" s="62"/>
-      <c r="V31" s="62"/>
-      <c r="W31" s="62"/>
-      <c r="X31" s="62"/>
-      <c r="Y31" s="62"/>
-      <c r="Z31" s="62"/>
-      <c r="AA31" s="62"/>
-      <c r="AB31" s="62"/>
-      <c r="AC31" s="62"/>
-      <c r="AD31" s="62"/>
-      <c r="AE31" s="62"/>
-      <c r="AF31" s="62"/>
-      <c r="AG31" s="63"/>
-      <c r="AH31" s="61"/>
-      <c r="AI31" s="62"/>
-      <c r="AJ31" s="62"/>
-      <c r="AK31" s="62"/>
-      <c r="AL31" s="62"/>
-      <c r="AM31" s="62"/>
-      <c r="AN31" s="62"/>
-      <c r="AO31" s="63"/>
-      <c r="AP31" s="61"/>
-      <c r="AQ31" s="62"/>
-      <c r="AR31" s="62"/>
-      <c r="AS31" s="62"/>
-      <c r="AT31" s="62"/>
-      <c r="AU31" s="62"/>
-      <c r="AV31" s="62"/>
-      <c r="AW31" s="62"/>
-      <c r="AX31" s="63"/>
-      <c r="AY31" s="82"/>
-      <c r="AZ31" s="83"/>
-      <c r="BA31" s="84"/>
+      <c r="K31" s="57"/>
+      <c r="L31" s="48"/>
+      <c r="M31" s="48"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="48"/>
+      <c r="P31" s="48"/>
+      <c r="Q31" s="49"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="48"/>
+      <c r="T31" s="48"/>
+      <c r="U31" s="48"/>
+      <c r="V31" s="48"/>
+      <c r="W31" s="48"/>
+      <c r="X31" s="48"/>
+      <c r="Y31" s="48"/>
+      <c r="Z31" s="48"/>
+      <c r="AA31" s="48"/>
+      <c r="AB31" s="48"/>
+      <c r="AC31" s="48"/>
+      <c r="AD31" s="48"/>
+      <c r="AE31" s="48"/>
+      <c r="AF31" s="48"/>
+      <c r="AG31" s="49"/>
+      <c r="AH31" s="47"/>
+      <c r="AI31" s="48"/>
+      <c r="AJ31" s="48"/>
+      <c r="AK31" s="48"/>
+      <c r="AL31" s="48"/>
+      <c r="AM31" s="48"/>
+      <c r="AN31" s="48"/>
+      <c r="AO31" s="49"/>
+      <c r="AP31" s="47"/>
+      <c r="AQ31" s="48"/>
+      <c r="AR31" s="48"/>
+      <c r="AS31" s="48"/>
+      <c r="AT31" s="48"/>
+      <c r="AU31" s="48"/>
+      <c r="AV31" s="48"/>
+      <c r="AW31" s="48"/>
+      <c r="AX31" s="49"/>
+      <c r="AY31" s="53"/>
+      <c r="AZ31" s="54"/>
+      <c r="BA31" s="55"/>
       <c r="BB31" s="21"/>
       <c r="BC31" s="6"/>
       <c r="BD31" s="5"/>
@@ -4255,27 +5103,27 @@
       <c r="BG31" s="4"/>
       <c r="BH31" s="5"/>
       <c r="BI31" s="4"/>
-      <c r="BJ31" s="64"/>
-      <c r="BK31" s="64"/>
-      <c r="BL31" s="64"/>
-      <c r="BM31" s="64"/>
-      <c r="BN31" s="64"/>
-      <c r="BO31" s="64"/>
-      <c r="BP31" s="64"/>
-      <c r="BQ31" s="64"/>
+      <c r="BJ31" s="73"/>
+      <c r="BK31" s="73"/>
+      <c r="BL31" s="73"/>
+      <c r="BM31" s="73"/>
+      <c r="BN31" s="73"/>
+      <c r="BO31" s="73"/>
+      <c r="BP31" s="73"/>
+      <c r="BQ31" s="73"/>
       <c r="BR31" s="6"/>
       <c r="BS31" s="5"/>
-      <c r="BT31" s="60" t="s">
+      <c r="BT31" s="67" t="s">
         <v>35</v>
       </c>
-      <c r="BU31" s="60"/>
-      <c r="BV31" s="60"/>
-      <c r="BW31" s="60"/>
-      <c r="BX31" s="60"/>
-      <c r="BY31" s="60"/>
-      <c r="BZ31" s="60"/>
-      <c r="CA31" s="60"/>
-      <c r="CB31" s="60"/>
+      <c r="BU31" s="67"/>
+      <c r="BV31" s="67"/>
+      <c r="BW31" s="67"/>
+      <c r="BX31" s="67"/>
+      <c r="BY31" s="67"/>
+      <c r="BZ31" s="67"/>
+      <c r="CA31" s="67"/>
+      <c r="CB31" s="67"/>
       <c r="CC31" s="25"/>
       <c r="CD31" s="26"/>
       <c r="CE31" s="26"/>
@@ -4291,49 +5139,49 @@
     </row>
     <row r="32" spans="5:94" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J32" s="4"/>
-      <c r="K32" s="99"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="62"/>
-      <c r="Q32" s="63"/>
-      <c r="R32" s="61"/>
-      <c r="S32" s="62"/>
-      <c r="T32" s="62"/>
-      <c r="U32" s="62"/>
-      <c r="V32" s="62"/>
-      <c r="W32" s="62"/>
-      <c r="X32" s="62"/>
-      <c r="Y32" s="62"/>
-      <c r="Z32" s="62"/>
-      <c r="AA32" s="62"/>
-      <c r="AB32" s="62"/>
-      <c r="AC32" s="62"/>
-      <c r="AD32" s="62"/>
-      <c r="AE32" s="62"/>
-      <c r="AF32" s="62"/>
-      <c r="AG32" s="63"/>
-      <c r="AH32" s="61"/>
-      <c r="AI32" s="62"/>
-      <c r="AJ32" s="62"/>
-      <c r="AK32" s="62"/>
-      <c r="AL32" s="62"/>
-      <c r="AM32" s="62"/>
-      <c r="AN32" s="62"/>
-      <c r="AO32" s="63"/>
-      <c r="AP32" s="61"/>
-      <c r="AQ32" s="62"/>
-      <c r="AR32" s="62"/>
-      <c r="AS32" s="62"/>
-      <c r="AT32" s="62"/>
-      <c r="AU32" s="62"/>
-      <c r="AV32" s="62"/>
-      <c r="AW32" s="62"/>
-      <c r="AX32" s="63"/>
-      <c r="AY32" s="82"/>
-      <c r="AZ32" s="83"/>
-      <c r="BA32" s="84"/>
+      <c r="K32" s="57"/>
+      <c r="L32" s="48"/>
+      <c r="M32" s="48"/>
+      <c r="N32" s="48"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="48"/>
+      <c r="Q32" s="49"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="48"/>
+      <c r="T32" s="48"/>
+      <c r="U32" s="48"/>
+      <c r="V32" s="48"/>
+      <c r="W32" s="48"/>
+      <c r="X32" s="48"/>
+      <c r="Y32" s="48"/>
+      <c r="Z32" s="48"/>
+      <c r="AA32" s="48"/>
+      <c r="AB32" s="48"/>
+      <c r="AC32" s="48"/>
+      <c r="AD32" s="48"/>
+      <c r="AE32" s="48"/>
+      <c r="AF32" s="48"/>
+      <c r="AG32" s="49"/>
+      <c r="AH32" s="47"/>
+      <c r="AI32" s="48"/>
+      <c r="AJ32" s="48"/>
+      <c r="AK32" s="48"/>
+      <c r="AL32" s="48"/>
+      <c r="AM32" s="48"/>
+      <c r="AN32" s="48"/>
+      <c r="AO32" s="49"/>
+      <c r="AP32" s="47"/>
+      <c r="AQ32" s="48"/>
+      <c r="AR32" s="48"/>
+      <c r="AS32" s="48"/>
+      <c r="AT32" s="48"/>
+      <c r="AU32" s="48"/>
+      <c r="AV32" s="48"/>
+      <c r="AW32" s="48"/>
+      <c r="AX32" s="49"/>
+      <c r="AY32" s="53"/>
+      <c r="AZ32" s="54"/>
+      <c r="BA32" s="55"/>
       <c r="BB32" s="21"/>
       <c r="BC32" s="6"/>
       <c r="BD32" s="5"/>
@@ -4342,14 +5190,14 @@
       <c r="BG32" s="4"/>
       <c r="BH32" s="5"/>
       <c r="BI32" s="4"/>
-      <c r="BJ32" s="64"/>
-      <c r="BK32" s="64"/>
-      <c r="BL32" s="64"/>
-      <c r="BM32" s="64"/>
-      <c r="BN32" s="64"/>
-      <c r="BO32" s="64"/>
-      <c r="BP32" s="64"/>
-      <c r="BQ32" s="64"/>
+      <c r="BJ32" s="73"/>
+      <c r="BK32" s="73"/>
+      <c r="BL32" s="73"/>
+      <c r="BM32" s="73"/>
+      <c r="BN32" s="73"/>
+      <c r="BO32" s="73"/>
+      <c r="BP32" s="73"/>
+      <c r="BQ32" s="73"/>
       <c r="BR32" s="6"/>
       <c r="BS32" s="5"/>
       <c r="BT32" s="16"/>
@@ -4376,49 +5224,49 @@
     </row>
     <row r="33" spans="10:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J33" s="4"/>
-      <c r="K33" s="99"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="62"/>
-      <c r="Q33" s="63"/>
-      <c r="R33" s="61"/>
-      <c r="S33" s="62"/>
-      <c r="T33" s="62"/>
-      <c r="U33" s="62"/>
-      <c r="V33" s="62"/>
-      <c r="W33" s="62"/>
-      <c r="X33" s="62"/>
-      <c r="Y33" s="62"/>
-      <c r="Z33" s="62"/>
-      <c r="AA33" s="62"/>
-      <c r="AB33" s="62"/>
-      <c r="AC33" s="62"/>
-      <c r="AD33" s="62"/>
-      <c r="AE33" s="62"/>
-      <c r="AF33" s="62"/>
-      <c r="AG33" s="63"/>
-      <c r="AH33" s="61"/>
-      <c r="AI33" s="62"/>
-      <c r="AJ33" s="62"/>
-      <c r="AK33" s="62"/>
-      <c r="AL33" s="62"/>
-      <c r="AM33" s="62"/>
-      <c r="AN33" s="62"/>
-      <c r="AO33" s="63"/>
-      <c r="AP33" s="61"/>
-      <c r="AQ33" s="62"/>
-      <c r="AR33" s="62"/>
-      <c r="AS33" s="62"/>
-      <c r="AT33" s="62"/>
-      <c r="AU33" s="62"/>
-      <c r="AV33" s="62"/>
-      <c r="AW33" s="62"/>
-      <c r="AX33" s="63"/>
-      <c r="AY33" s="82"/>
-      <c r="AZ33" s="83"/>
-      <c r="BA33" s="84"/>
+      <c r="K33" s="57"/>
+      <c r="L33" s="48"/>
+      <c r="M33" s="48"/>
+      <c r="N33" s="48"/>
+      <c r="O33" s="48"/>
+      <c r="P33" s="48"/>
+      <c r="Q33" s="49"/>
+      <c r="R33" s="47"/>
+      <c r="S33" s="48"/>
+      <c r="T33" s="48"/>
+      <c r="U33" s="48"/>
+      <c r="V33" s="48"/>
+      <c r="W33" s="48"/>
+      <c r="X33" s="48"/>
+      <c r="Y33" s="48"/>
+      <c r="Z33" s="48"/>
+      <c r="AA33" s="48"/>
+      <c r="AB33" s="48"/>
+      <c r="AC33" s="48"/>
+      <c r="AD33" s="48"/>
+      <c r="AE33" s="48"/>
+      <c r="AF33" s="48"/>
+      <c r="AG33" s="49"/>
+      <c r="AH33" s="47"/>
+      <c r="AI33" s="48"/>
+      <c r="AJ33" s="48"/>
+      <c r="AK33" s="48"/>
+      <c r="AL33" s="48"/>
+      <c r="AM33" s="48"/>
+      <c r="AN33" s="48"/>
+      <c r="AO33" s="49"/>
+      <c r="AP33" s="47"/>
+      <c r="AQ33" s="48"/>
+      <c r="AR33" s="48"/>
+      <c r="AS33" s="48"/>
+      <c r="AT33" s="48"/>
+      <c r="AU33" s="48"/>
+      <c r="AV33" s="48"/>
+      <c r="AW33" s="48"/>
+      <c r="AX33" s="49"/>
+      <c r="AY33" s="53"/>
+      <c r="AZ33" s="54"/>
+      <c r="BA33" s="55"/>
       <c r="BB33" s="21"/>
       <c r="BC33" s="6"/>
       <c r="BD33" s="5"/>
@@ -4437,17 +5285,17 @@
       <c r="BQ33" s="5"/>
       <c r="BR33" s="6"/>
       <c r="BS33" s="5"/>
-      <c r="BT33" s="60" t="s">
+      <c r="BT33" s="67" t="s">
         <v>37</v>
       </c>
-      <c r="BU33" s="60"/>
-      <c r="BV33" s="60"/>
-      <c r="BW33" s="60"/>
-      <c r="BX33" s="60"/>
-      <c r="BY33" s="60"/>
-      <c r="BZ33" s="60"/>
-      <c r="CA33" s="60"/>
-      <c r="CB33" s="60"/>
+      <c r="BU33" s="67"/>
+      <c r="BV33" s="67"/>
+      <c r="BW33" s="67"/>
+      <c r="BX33" s="67"/>
+      <c r="BY33" s="67"/>
+      <c r="BZ33" s="67"/>
+      <c r="CA33" s="67"/>
+      <c r="CB33" s="67"/>
       <c r="CC33" s="25"/>
       <c r="CD33" s="26"/>
       <c r="CE33" s="26"/>
@@ -4463,49 +5311,49 @@
     </row>
     <row r="34" spans="10:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J34" s="4"/>
-      <c r="K34" s="99"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="62"/>
-      <c r="P34" s="62"/>
-      <c r="Q34" s="63"/>
-      <c r="R34" s="61"/>
-      <c r="S34" s="62"/>
-      <c r="T34" s="62"/>
-      <c r="U34" s="62"/>
-      <c r="V34" s="62"/>
-      <c r="W34" s="62"/>
-      <c r="X34" s="62"/>
-      <c r="Y34" s="62"/>
-      <c r="Z34" s="62"/>
-      <c r="AA34" s="62"/>
-      <c r="AB34" s="62"/>
-      <c r="AC34" s="62"/>
-      <c r="AD34" s="62"/>
-      <c r="AE34" s="62"/>
-      <c r="AF34" s="62"/>
-      <c r="AG34" s="63"/>
-      <c r="AH34" s="61"/>
-      <c r="AI34" s="62"/>
-      <c r="AJ34" s="62"/>
-      <c r="AK34" s="62"/>
-      <c r="AL34" s="62"/>
-      <c r="AM34" s="62"/>
-      <c r="AN34" s="62"/>
-      <c r="AO34" s="63"/>
-      <c r="AP34" s="61"/>
-      <c r="AQ34" s="62"/>
-      <c r="AR34" s="62"/>
-      <c r="AS34" s="62"/>
-      <c r="AT34" s="62"/>
-      <c r="AU34" s="62"/>
-      <c r="AV34" s="62"/>
-      <c r="AW34" s="62"/>
-      <c r="AX34" s="63"/>
-      <c r="AY34" s="82"/>
-      <c r="AZ34" s="83"/>
-      <c r="BA34" s="84"/>
+      <c r="K34" s="57"/>
+      <c r="L34" s="48"/>
+      <c r="M34" s="48"/>
+      <c r="N34" s="48"/>
+      <c r="O34" s="48"/>
+      <c r="P34" s="48"/>
+      <c r="Q34" s="49"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="48"/>
+      <c r="T34" s="48"/>
+      <c r="U34" s="48"/>
+      <c r="V34" s="48"/>
+      <c r="W34" s="48"/>
+      <c r="X34" s="48"/>
+      <c r="Y34" s="48"/>
+      <c r="Z34" s="48"/>
+      <c r="AA34" s="48"/>
+      <c r="AB34" s="48"/>
+      <c r="AC34" s="48"/>
+      <c r="AD34" s="48"/>
+      <c r="AE34" s="48"/>
+      <c r="AF34" s="48"/>
+      <c r="AG34" s="49"/>
+      <c r="AH34" s="47"/>
+      <c r="AI34" s="48"/>
+      <c r="AJ34" s="48"/>
+      <c r="AK34" s="48"/>
+      <c r="AL34" s="48"/>
+      <c r="AM34" s="48"/>
+      <c r="AN34" s="48"/>
+      <c r="AO34" s="49"/>
+      <c r="AP34" s="47"/>
+      <c r="AQ34" s="48"/>
+      <c r="AR34" s="48"/>
+      <c r="AS34" s="48"/>
+      <c r="AT34" s="48"/>
+      <c r="AU34" s="48"/>
+      <c r="AV34" s="48"/>
+      <c r="AW34" s="48"/>
+      <c r="AX34" s="49"/>
+      <c r="AY34" s="53"/>
+      <c r="AZ34" s="54"/>
+      <c r="BA34" s="55"/>
       <c r="BB34" s="21"/>
       <c r="BC34" s="6"/>
       <c r="BD34" s="5"/>
@@ -4548,49 +5396,49 @@
     </row>
     <row r="35" spans="10:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J35" s="4"/>
-      <c r="K35" s="99"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
-      <c r="N35" s="62"/>
-      <c r="O35" s="62"/>
-      <c r="P35" s="62"/>
-      <c r="Q35" s="63"/>
-      <c r="R35" s="61"/>
-      <c r="S35" s="62"/>
-      <c r="T35" s="62"/>
-      <c r="U35" s="62"/>
-      <c r="V35" s="62"/>
-      <c r="W35" s="62"/>
-      <c r="X35" s="62"/>
-      <c r="Y35" s="62"/>
-      <c r="Z35" s="62"/>
-      <c r="AA35" s="62"/>
-      <c r="AB35" s="62"/>
-      <c r="AC35" s="62"/>
-      <c r="AD35" s="62"/>
-      <c r="AE35" s="62"/>
-      <c r="AF35" s="62"/>
-      <c r="AG35" s="63"/>
-      <c r="AH35" s="61"/>
-      <c r="AI35" s="62"/>
-      <c r="AJ35" s="62"/>
-      <c r="AK35" s="62"/>
-      <c r="AL35" s="62"/>
-      <c r="AM35" s="62"/>
-      <c r="AN35" s="62"/>
-      <c r="AO35" s="63"/>
-      <c r="AP35" s="61"/>
-      <c r="AQ35" s="62"/>
-      <c r="AR35" s="62"/>
-      <c r="AS35" s="62"/>
-      <c r="AT35" s="62"/>
-      <c r="AU35" s="62"/>
-      <c r="AV35" s="62"/>
-      <c r="AW35" s="62"/>
-      <c r="AX35" s="63"/>
-      <c r="AY35" s="82"/>
-      <c r="AZ35" s="83"/>
-      <c r="BA35" s="84"/>
+      <c r="K35" s="57"/>
+      <c r="L35" s="48"/>
+      <c r="M35" s="48"/>
+      <c r="N35" s="48"/>
+      <c r="O35" s="48"/>
+      <c r="P35" s="48"/>
+      <c r="Q35" s="49"/>
+      <c r="R35" s="47"/>
+      <c r="S35" s="48"/>
+      <c r="T35" s="48"/>
+      <c r="U35" s="48"/>
+      <c r="V35" s="48"/>
+      <c r="W35" s="48"/>
+      <c r="X35" s="48"/>
+      <c r="Y35" s="48"/>
+      <c r="Z35" s="48"/>
+      <c r="AA35" s="48"/>
+      <c r="AB35" s="48"/>
+      <c r="AC35" s="48"/>
+      <c r="AD35" s="48"/>
+      <c r="AE35" s="48"/>
+      <c r="AF35" s="48"/>
+      <c r="AG35" s="49"/>
+      <c r="AH35" s="47"/>
+      <c r="AI35" s="48"/>
+      <c r="AJ35" s="48"/>
+      <c r="AK35" s="48"/>
+      <c r="AL35" s="48"/>
+      <c r="AM35" s="48"/>
+      <c r="AN35" s="48"/>
+      <c r="AO35" s="49"/>
+      <c r="AP35" s="47"/>
+      <c r="AQ35" s="48"/>
+      <c r="AR35" s="48"/>
+      <c r="AS35" s="48"/>
+      <c r="AT35" s="48"/>
+      <c r="AU35" s="48"/>
+      <c r="AV35" s="48"/>
+      <c r="AW35" s="48"/>
+      <c r="AX35" s="49"/>
+      <c r="AY35" s="53"/>
+      <c r="AZ35" s="54"/>
+      <c r="BA35" s="55"/>
       <c r="BB35" s="21"/>
       <c r="BC35" s="6"/>
       <c r="BD35" s="5"/>
@@ -4609,17 +5457,17 @@
       <c r="BQ35" s="5"/>
       <c r="BR35" s="5"/>
       <c r="BS35" s="5"/>
-      <c r="BT35" s="60" t="s">
+      <c r="BT35" s="67" t="s">
         <v>40</v>
       </c>
-      <c r="BU35" s="60"/>
-      <c r="BV35" s="60"/>
-      <c r="BW35" s="60"/>
-      <c r="BX35" s="60"/>
-      <c r="BY35" s="60"/>
-      <c r="BZ35" s="60"/>
-      <c r="CA35" s="60"/>
-      <c r="CB35" s="60"/>
+      <c r="BU35" s="67"/>
+      <c r="BV35" s="67"/>
+      <c r="BW35" s="67"/>
+      <c r="BX35" s="67"/>
+      <c r="BY35" s="67"/>
+      <c r="BZ35" s="67"/>
+      <c r="CA35" s="67"/>
+      <c r="CB35" s="67"/>
       <c r="CC35" s="25"/>
       <c r="CD35" s="26"/>
       <c r="CE35" s="26"/>
@@ -4635,49 +5483,49 @@
     </row>
     <row r="36" spans="10:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J36" s="4"/>
-      <c r="K36" s="99"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="62"/>
-      <c r="N36" s="62"/>
-      <c r="O36" s="62"/>
-      <c r="P36" s="62"/>
-      <c r="Q36" s="63"/>
-      <c r="R36" s="61"/>
-      <c r="S36" s="62"/>
-      <c r="T36" s="62"/>
-      <c r="U36" s="62"/>
-      <c r="V36" s="62"/>
-      <c r="W36" s="62"/>
-      <c r="X36" s="62"/>
-      <c r="Y36" s="62"/>
-      <c r="Z36" s="62"/>
-      <c r="AA36" s="62"/>
-      <c r="AB36" s="62"/>
-      <c r="AC36" s="62"/>
-      <c r="AD36" s="62"/>
-      <c r="AE36" s="62"/>
-      <c r="AF36" s="62"/>
-      <c r="AG36" s="63"/>
-      <c r="AH36" s="61"/>
-      <c r="AI36" s="62"/>
-      <c r="AJ36" s="62"/>
-      <c r="AK36" s="62"/>
-      <c r="AL36" s="62"/>
-      <c r="AM36" s="62"/>
-      <c r="AN36" s="62"/>
-      <c r="AO36" s="63"/>
-      <c r="AP36" s="61"/>
-      <c r="AQ36" s="62"/>
-      <c r="AR36" s="62"/>
-      <c r="AS36" s="62"/>
-      <c r="AT36" s="62"/>
-      <c r="AU36" s="62"/>
-      <c r="AV36" s="62"/>
-      <c r="AW36" s="62"/>
-      <c r="AX36" s="63"/>
-      <c r="AY36" s="82"/>
-      <c r="AZ36" s="83"/>
-      <c r="BA36" s="84"/>
+      <c r="K36" s="57"/>
+      <c r="L36" s="48"/>
+      <c r="M36" s="48"/>
+      <c r="N36" s="48"/>
+      <c r="O36" s="48"/>
+      <c r="P36" s="48"/>
+      <c r="Q36" s="49"/>
+      <c r="R36" s="47"/>
+      <c r="S36" s="48"/>
+      <c r="T36" s="48"/>
+      <c r="U36" s="48"/>
+      <c r="V36" s="48"/>
+      <c r="W36" s="48"/>
+      <c r="X36" s="48"/>
+      <c r="Y36" s="48"/>
+      <c r="Z36" s="48"/>
+      <c r="AA36" s="48"/>
+      <c r="AB36" s="48"/>
+      <c r="AC36" s="48"/>
+      <c r="AD36" s="48"/>
+      <c r="AE36" s="48"/>
+      <c r="AF36" s="48"/>
+      <c r="AG36" s="49"/>
+      <c r="AH36" s="47"/>
+      <c r="AI36" s="48"/>
+      <c r="AJ36" s="48"/>
+      <c r="AK36" s="48"/>
+      <c r="AL36" s="48"/>
+      <c r="AM36" s="48"/>
+      <c r="AN36" s="48"/>
+      <c r="AO36" s="49"/>
+      <c r="AP36" s="47"/>
+      <c r="AQ36" s="48"/>
+      <c r="AR36" s="48"/>
+      <c r="AS36" s="48"/>
+      <c r="AT36" s="48"/>
+      <c r="AU36" s="48"/>
+      <c r="AV36" s="48"/>
+      <c r="AW36" s="48"/>
+      <c r="AX36" s="49"/>
+      <c r="AY36" s="53"/>
+      <c r="AZ36" s="54"/>
+      <c r="BA36" s="55"/>
       <c r="BB36" s="21"/>
       <c r="BC36" s="6"/>
       <c r="BD36" s="5"/>
@@ -4685,18 +5533,18 @@
       <c r="BF36" s="5"/>
       <c r="BG36" s="4"/>
       <c r="BH36" s="5"/>
-      <c r="BI36" s="65" t="s">
+      <c r="BI36" s="61" t="s">
         <v>46</v>
       </c>
-      <c r="BJ36" s="66"/>
-      <c r="BK36" s="66"/>
-      <c r="BL36" s="66"/>
-      <c r="BM36" s="66"/>
-      <c r="BN36" s="66"/>
-      <c r="BO36" s="66"/>
-      <c r="BP36" s="66"/>
-      <c r="BQ36" s="66"/>
-      <c r="BR36" s="67"/>
+      <c r="BJ36" s="62"/>
+      <c r="BK36" s="62"/>
+      <c r="BL36" s="62"/>
+      <c r="BM36" s="62"/>
+      <c r="BN36" s="62"/>
+      <c r="BO36" s="62"/>
+      <c r="BP36" s="62"/>
+      <c r="BQ36" s="62"/>
+      <c r="BR36" s="63"/>
       <c r="BS36" s="5"/>
       <c r="BT36" s="5"/>
       <c r="BU36" s="5"/>
@@ -4723,49 +5571,49 @@
     </row>
     <row r="37" spans="10:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J37" s="4"/>
-      <c r="K37" s="99"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="62"/>
-      <c r="N37" s="62"/>
-      <c r="O37" s="62"/>
-      <c r="P37" s="62"/>
-      <c r="Q37" s="63"/>
-      <c r="R37" s="61"/>
-      <c r="S37" s="62"/>
-      <c r="T37" s="62"/>
-      <c r="U37" s="62"/>
-      <c r="V37" s="62"/>
-      <c r="W37" s="62"/>
-      <c r="X37" s="62"/>
-      <c r="Y37" s="62"/>
-      <c r="Z37" s="62"/>
-      <c r="AA37" s="62"/>
-      <c r="AB37" s="62"/>
-      <c r="AC37" s="62"/>
-      <c r="AD37" s="62"/>
-      <c r="AE37" s="62"/>
-      <c r="AF37" s="62"/>
-      <c r="AG37" s="63"/>
-      <c r="AH37" s="61"/>
-      <c r="AI37" s="62"/>
-      <c r="AJ37" s="62"/>
-      <c r="AK37" s="62"/>
-      <c r="AL37" s="62"/>
-      <c r="AM37" s="62"/>
-      <c r="AN37" s="62"/>
-      <c r="AO37" s="63"/>
-      <c r="AP37" s="61"/>
-      <c r="AQ37" s="62"/>
-      <c r="AR37" s="62"/>
-      <c r="AS37" s="62"/>
-      <c r="AT37" s="62"/>
-      <c r="AU37" s="62"/>
-      <c r="AV37" s="62"/>
-      <c r="AW37" s="62"/>
-      <c r="AX37" s="63"/>
-      <c r="AY37" s="82"/>
-      <c r="AZ37" s="83"/>
-      <c r="BA37" s="84"/>
+      <c r="K37" s="57"/>
+      <c r="L37" s="48"/>
+      <c r="M37" s="48"/>
+      <c r="N37" s="48"/>
+      <c r="O37" s="48"/>
+      <c r="P37" s="48"/>
+      <c r="Q37" s="49"/>
+      <c r="R37" s="47"/>
+      <c r="S37" s="48"/>
+      <c r="T37" s="48"/>
+      <c r="U37" s="48"/>
+      <c r="V37" s="48"/>
+      <c r="W37" s="48"/>
+      <c r="X37" s="48"/>
+      <c r="Y37" s="48"/>
+      <c r="Z37" s="48"/>
+      <c r="AA37" s="48"/>
+      <c r="AB37" s="48"/>
+      <c r="AC37" s="48"/>
+      <c r="AD37" s="48"/>
+      <c r="AE37" s="48"/>
+      <c r="AF37" s="48"/>
+      <c r="AG37" s="49"/>
+      <c r="AH37" s="47"/>
+      <c r="AI37" s="48"/>
+      <c r="AJ37" s="48"/>
+      <c r="AK37" s="48"/>
+      <c r="AL37" s="48"/>
+      <c r="AM37" s="48"/>
+      <c r="AN37" s="48"/>
+      <c r="AO37" s="49"/>
+      <c r="AP37" s="47"/>
+      <c r="AQ37" s="48"/>
+      <c r="AR37" s="48"/>
+      <c r="AS37" s="48"/>
+      <c r="AT37" s="48"/>
+      <c r="AU37" s="48"/>
+      <c r="AV37" s="48"/>
+      <c r="AW37" s="48"/>
+      <c r="AX37" s="49"/>
+      <c r="AY37" s="53"/>
+      <c r="AZ37" s="54"/>
+      <c r="BA37" s="55"/>
       <c r="BB37" s="21"/>
       <c r="BC37" s="6"/>
       <c r="BD37" s="5"/>
@@ -4809,63 +5657,63 @@
     </row>
     <row r="38" spans="10:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J38" s="4"/>
-      <c r="K38" s="99"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="62"/>
-      <c r="N38" s="62"/>
-      <c r="O38" s="62"/>
-      <c r="P38" s="62"/>
-      <c r="Q38" s="63"/>
-      <c r="R38" s="61"/>
-      <c r="S38" s="62"/>
-      <c r="T38" s="62"/>
-      <c r="U38" s="62"/>
-      <c r="V38" s="62"/>
-      <c r="W38" s="62"/>
-      <c r="X38" s="62"/>
-      <c r="Y38" s="62"/>
-      <c r="Z38" s="62"/>
-      <c r="AA38" s="62"/>
-      <c r="AB38" s="62"/>
-      <c r="AC38" s="62"/>
-      <c r="AD38" s="62"/>
-      <c r="AE38" s="62"/>
-      <c r="AF38" s="62"/>
-      <c r="AG38" s="63"/>
-      <c r="AH38" s="61"/>
-      <c r="AI38" s="62"/>
-      <c r="AJ38" s="62"/>
-      <c r="AK38" s="62"/>
-      <c r="AL38" s="62"/>
-      <c r="AM38" s="62"/>
-      <c r="AN38" s="62"/>
-      <c r="AO38" s="63"/>
-      <c r="AP38" s="61"/>
-      <c r="AQ38" s="62"/>
-      <c r="AR38" s="62"/>
-      <c r="AS38" s="62"/>
-      <c r="AT38" s="62"/>
-      <c r="AU38" s="62"/>
-      <c r="AV38" s="62"/>
-      <c r="AW38" s="62"/>
-      <c r="AX38" s="63"/>
-      <c r="AY38" s="82"/>
-      <c r="AZ38" s="83"/>
-      <c r="BA38" s="84"/>
+      <c r="K38" s="57"/>
+      <c r="L38" s="48"/>
+      <c r="M38" s="48"/>
+      <c r="N38" s="48"/>
+      <c r="O38" s="48"/>
+      <c r="P38" s="48"/>
+      <c r="Q38" s="49"/>
+      <c r="R38" s="47"/>
+      <c r="S38" s="48"/>
+      <c r="T38" s="48"/>
+      <c r="U38" s="48"/>
+      <c r="V38" s="48"/>
+      <c r="W38" s="48"/>
+      <c r="X38" s="48"/>
+      <c r="Y38" s="48"/>
+      <c r="Z38" s="48"/>
+      <c r="AA38" s="48"/>
+      <c r="AB38" s="48"/>
+      <c r="AC38" s="48"/>
+      <c r="AD38" s="48"/>
+      <c r="AE38" s="48"/>
+      <c r="AF38" s="48"/>
+      <c r="AG38" s="49"/>
+      <c r="AH38" s="47"/>
+      <c r="AI38" s="48"/>
+      <c r="AJ38" s="48"/>
+      <c r="AK38" s="48"/>
+      <c r="AL38" s="48"/>
+      <c r="AM38" s="48"/>
+      <c r="AN38" s="48"/>
+      <c r="AO38" s="49"/>
+      <c r="AP38" s="47"/>
+      <c r="AQ38" s="48"/>
+      <c r="AR38" s="48"/>
+      <c r="AS38" s="48"/>
+      <c r="AT38" s="48"/>
+      <c r="AU38" s="48"/>
+      <c r="AV38" s="48"/>
+      <c r="AW38" s="48"/>
+      <c r="AX38" s="49"/>
+      <c r="AY38" s="53"/>
+      <c r="AZ38" s="54"/>
+      <c r="BA38" s="55"/>
       <c r="BB38" s="21"/>
       <c r="BC38" s="6"/>
       <c r="BD38" s="5"/>
       <c r="BE38" s="5"/>
       <c r="BF38" s="5"/>
       <c r="BG38" s="4"/>
-      <c r="BH38" s="60" t="s">
+      <c r="BH38" s="67" t="s">
         <v>41</v>
       </c>
-      <c r="BI38" s="60"/>
-      <c r="BJ38" s="60"/>
-      <c r="BK38" s="60"/>
-      <c r="BL38" s="60"/>
-      <c r="BM38" s="60"/>
+      <c r="BI38" s="67"/>
+      <c r="BJ38" s="67"/>
+      <c r="BK38" s="67"/>
+      <c r="BL38" s="67"/>
+      <c r="BM38" s="67"/>
       <c r="BN38" s="31"/>
       <c r="BO38" s="32"/>
       <c r="BP38" s="32"/>
@@ -4897,49 +5745,49 @@
     </row>
     <row r="39" spans="10:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J39" s="4"/>
-      <c r="K39" s="99"/>
-      <c r="L39" s="62"/>
-      <c r="M39" s="62"/>
-      <c r="N39" s="62"/>
-      <c r="O39" s="62"/>
-      <c r="P39" s="62"/>
-      <c r="Q39" s="63"/>
-      <c r="R39" s="61"/>
-      <c r="S39" s="62"/>
-      <c r="T39" s="62"/>
-      <c r="U39" s="62"/>
-      <c r="V39" s="62"/>
-      <c r="W39" s="62"/>
-      <c r="X39" s="62"/>
-      <c r="Y39" s="62"/>
-      <c r="Z39" s="62"/>
-      <c r="AA39" s="62"/>
-      <c r="AB39" s="62"/>
-      <c r="AC39" s="62"/>
-      <c r="AD39" s="62"/>
-      <c r="AE39" s="62"/>
-      <c r="AF39" s="62"/>
-      <c r="AG39" s="63"/>
-      <c r="AH39" s="61"/>
-      <c r="AI39" s="62"/>
-      <c r="AJ39" s="62"/>
-      <c r="AK39" s="62"/>
-      <c r="AL39" s="62"/>
-      <c r="AM39" s="62"/>
-      <c r="AN39" s="62"/>
-      <c r="AO39" s="63"/>
-      <c r="AP39" s="61"/>
-      <c r="AQ39" s="62"/>
-      <c r="AR39" s="62"/>
-      <c r="AS39" s="62"/>
-      <c r="AT39" s="62"/>
-      <c r="AU39" s="62"/>
-      <c r="AV39" s="62"/>
-      <c r="AW39" s="62"/>
-      <c r="AX39" s="63"/>
-      <c r="AY39" s="82"/>
-      <c r="AZ39" s="83"/>
-      <c r="BA39" s="84"/>
+      <c r="K39" s="57"/>
+      <c r="L39" s="48"/>
+      <c r="M39" s="48"/>
+      <c r="N39" s="48"/>
+      <c r="O39" s="48"/>
+      <c r="P39" s="48"/>
+      <c r="Q39" s="49"/>
+      <c r="R39" s="47"/>
+      <c r="S39" s="48"/>
+      <c r="T39" s="48"/>
+      <c r="U39" s="48"/>
+      <c r="V39" s="48"/>
+      <c r="W39" s="48"/>
+      <c r="X39" s="48"/>
+      <c r="Y39" s="48"/>
+      <c r="Z39" s="48"/>
+      <c r="AA39" s="48"/>
+      <c r="AB39" s="48"/>
+      <c r="AC39" s="48"/>
+      <c r="AD39" s="48"/>
+      <c r="AE39" s="48"/>
+      <c r="AF39" s="48"/>
+      <c r="AG39" s="49"/>
+      <c r="AH39" s="47"/>
+      <c r="AI39" s="48"/>
+      <c r="AJ39" s="48"/>
+      <c r="AK39" s="48"/>
+      <c r="AL39" s="48"/>
+      <c r="AM39" s="48"/>
+      <c r="AN39" s="48"/>
+      <c r="AO39" s="49"/>
+      <c r="AP39" s="47"/>
+      <c r="AQ39" s="48"/>
+      <c r="AR39" s="48"/>
+      <c r="AS39" s="48"/>
+      <c r="AT39" s="48"/>
+      <c r="AU39" s="48"/>
+      <c r="AV39" s="48"/>
+      <c r="AW39" s="48"/>
+      <c r="AX39" s="49"/>
+      <c r="AY39" s="53"/>
+      <c r="AZ39" s="54"/>
+      <c r="BA39" s="55"/>
       <c r="BB39" s="21"/>
       <c r="BC39" s="6"/>
       <c r="BG39" s="4"/>
@@ -4979,49 +5827,49 @@
     </row>
     <row r="40" spans="10:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J40" s="4"/>
-      <c r="K40" s="99"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="62"/>
-      <c r="N40" s="62"/>
-      <c r="O40" s="62"/>
-      <c r="P40" s="62"/>
-      <c r="Q40" s="63"/>
-      <c r="R40" s="61"/>
-      <c r="S40" s="62"/>
-      <c r="T40" s="62"/>
-      <c r="U40" s="62"/>
-      <c r="V40" s="62"/>
-      <c r="W40" s="62"/>
-      <c r="X40" s="62"/>
-      <c r="Y40" s="62"/>
-      <c r="Z40" s="62"/>
-      <c r="AA40" s="62"/>
-      <c r="AB40" s="62"/>
-      <c r="AC40" s="62"/>
-      <c r="AD40" s="62"/>
-      <c r="AE40" s="62"/>
-      <c r="AF40" s="62"/>
-      <c r="AG40" s="63"/>
-      <c r="AH40" s="61"/>
-      <c r="AI40" s="62"/>
-      <c r="AJ40" s="62"/>
-      <c r="AK40" s="62"/>
-      <c r="AL40" s="62"/>
-      <c r="AM40" s="62"/>
-      <c r="AN40" s="62"/>
-      <c r="AO40" s="63"/>
-      <c r="AP40" s="61"/>
-      <c r="AQ40" s="62"/>
-      <c r="AR40" s="62"/>
-      <c r="AS40" s="62"/>
-      <c r="AT40" s="62"/>
-      <c r="AU40" s="62"/>
-      <c r="AV40" s="62"/>
-      <c r="AW40" s="62"/>
-      <c r="AX40" s="63"/>
-      <c r="AY40" s="82"/>
-      <c r="AZ40" s="83"/>
-      <c r="BA40" s="84"/>
+      <c r="K40" s="57"/>
+      <c r="L40" s="48"/>
+      <c r="M40" s="48"/>
+      <c r="N40" s="48"/>
+      <c r="O40" s="48"/>
+      <c r="P40" s="48"/>
+      <c r="Q40" s="49"/>
+      <c r="R40" s="47"/>
+      <c r="S40" s="48"/>
+      <c r="T40" s="48"/>
+      <c r="U40" s="48"/>
+      <c r="V40" s="48"/>
+      <c r="W40" s="48"/>
+      <c r="X40" s="48"/>
+      <c r="Y40" s="48"/>
+      <c r="Z40" s="48"/>
+      <c r="AA40" s="48"/>
+      <c r="AB40" s="48"/>
+      <c r="AC40" s="48"/>
+      <c r="AD40" s="48"/>
+      <c r="AE40" s="48"/>
+      <c r="AF40" s="48"/>
+      <c r="AG40" s="49"/>
+      <c r="AH40" s="47"/>
+      <c r="AI40" s="48"/>
+      <c r="AJ40" s="48"/>
+      <c r="AK40" s="48"/>
+      <c r="AL40" s="48"/>
+      <c r="AM40" s="48"/>
+      <c r="AN40" s="48"/>
+      <c r="AO40" s="49"/>
+      <c r="AP40" s="47"/>
+      <c r="AQ40" s="48"/>
+      <c r="AR40" s="48"/>
+      <c r="AS40" s="48"/>
+      <c r="AT40" s="48"/>
+      <c r="AU40" s="48"/>
+      <c r="AV40" s="48"/>
+      <c r="AW40" s="48"/>
+      <c r="AX40" s="49"/>
+      <c r="AY40" s="53"/>
+      <c r="AZ40" s="54"/>
+      <c r="BA40" s="55"/>
       <c r="BB40" s="21"/>
       <c r="BC40" s="6"/>
       <c r="BG40" s="4"/>
@@ -5061,49 +5909,49 @@
     </row>
     <row r="41" spans="10:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J41" s="4"/>
-      <c r="K41" s="99"/>
-      <c r="L41" s="62"/>
-      <c r="M41" s="62"/>
-      <c r="N41" s="62"/>
-      <c r="O41" s="62"/>
-      <c r="P41" s="62"/>
-      <c r="Q41" s="63"/>
-      <c r="R41" s="61"/>
-      <c r="S41" s="62"/>
-      <c r="T41" s="62"/>
-      <c r="U41" s="62"/>
-      <c r="V41" s="62"/>
-      <c r="W41" s="62"/>
-      <c r="X41" s="62"/>
-      <c r="Y41" s="62"/>
-      <c r="Z41" s="62"/>
-      <c r="AA41" s="62"/>
-      <c r="AB41" s="62"/>
-      <c r="AC41" s="62"/>
-      <c r="AD41" s="62"/>
-      <c r="AE41" s="62"/>
-      <c r="AF41" s="62"/>
-      <c r="AG41" s="63"/>
-      <c r="AH41" s="61"/>
-      <c r="AI41" s="62"/>
-      <c r="AJ41" s="62"/>
-      <c r="AK41" s="62"/>
-      <c r="AL41" s="62"/>
-      <c r="AM41" s="62"/>
-      <c r="AN41" s="62"/>
-      <c r="AO41" s="63"/>
-      <c r="AP41" s="61"/>
-      <c r="AQ41" s="62"/>
-      <c r="AR41" s="62"/>
-      <c r="AS41" s="62"/>
-      <c r="AT41" s="62"/>
-      <c r="AU41" s="62"/>
-      <c r="AV41" s="62"/>
-      <c r="AW41" s="62"/>
-      <c r="AX41" s="63"/>
-      <c r="AY41" s="82"/>
-      <c r="AZ41" s="83"/>
-      <c r="BA41" s="84"/>
+      <c r="K41" s="57"/>
+      <c r="L41" s="48"/>
+      <c r="M41" s="48"/>
+      <c r="N41" s="48"/>
+      <c r="O41" s="48"/>
+      <c r="P41" s="48"/>
+      <c r="Q41" s="49"/>
+      <c r="R41" s="47"/>
+      <c r="S41" s="48"/>
+      <c r="T41" s="48"/>
+      <c r="U41" s="48"/>
+      <c r="V41" s="48"/>
+      <c r="W41" s="48"/>
+      <c r="X41" s="48"/>
+      <c r="Y41" s="48"/>
+      <c r="Z41" s="48"/>
+      <c r="AA41" s="48"/>
+      <c r="AB41" s="48"/>
+      <c r="AC41" s="48"/>
+      <c r="AD41" s="48"/>
+      <c r="AE41" s="48"/>
+      <c r="AF41" s="48"/>
+      <c r="AG41" s="49"/>
+      <c r="AH41" s="47"/>
+      <c r="AI41" s="48"/>
+      <c r="AJ41" s="48"/>
+      <c r="AK41" s="48"/>
+      <c r="AL41" s="48"/>
+      <c r="AM41" s="48"/>
+      <c r="AN41" s="48"/>
+      <c r="AO41" s="49"/>
+      <c r="AP41" s="47"/>
+      <c r="AQ41" s="48"/>
+      <c r="AR41" s="48"/>
+      <c r="AS41" s="48"/>
+      <c r="AT41" s="48"/>
+      <c r="AU41" s="48"/>
+      <c r="AV41" s="48"/>
+      <c r="AW41" s="48"/>
+      <c r="AX41" s="49"/>
+      <c r="AY41" s="53"/>
+      <c r="AZ41" s="54"/>
+      <c r="BA41" s="55"/>
       <c r="BB41" s="21"/>
       <c r="BC41" s="6"/>
       <c r="BG41" s="4"/>
@@ -5143,49 +5991,49 @@
     </row>
     <row r="42" spans="10:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J42" s="4"/>
-      <c r="K42" s="99"/>
-      <c r="L42" s="62"/>
-      <c r="M42" s="62"/>
-      <c r="N42" s="62"/>
-      <c r="O42" s="62"/>
-      <c r="P42" s="62"/>
-      <c r="Q42" s="63"/>
-      <c r="R42" s="61"/>
-      <c r="S42" s="62"/>
-      <c r="T42" s="62"/>
-      <c r="U42" s="62"/>
-      <c r="V42" s="62"/>
-      <c r="W42" s="62"/>
-      <c r="X42" s="62"/>
-      <c r="Y42" s="62"/>
-      <c r="Z42" s="62"/>
-      <c r="AA42" s="62"/>
-      <c r="AB42" s="62"/>
-      <c r="AC42" s="62"/>
-      <c r="AD42" s="62"/>
-      <c r="AE42" s="62"/>
-      <c r="AF42" s="62"/>
-      <c r="AG42" s="63"/>
-      <c r="AH42" s="61"/>
-      <c r="AI42" s="62"/>
-      <c r="AJ42" s="62"/>
-      <c r="AK42" s="62"/>
-      <c r="AL42" s="62"/>
-      <c r="AM42" s="62"/>
-      <c r="AN42" s="62"/>
-      <c r="AO42" s="63"/>
-      <c r="AP42" s="61"/>
-      <c r="AQ42" s="62"/>
-      <c r="AR42" s="62"/>
-      <c r="AS42" s="62"/>
-      <c r="AT42" s="62"/>
-      <c r="AU42" s="62"/>
-      <c r="AV42" s="62"/>
-      <c r="AW42" s="62"/>
-      <c r="AX42" s="63"/>
-      <c r="AY42" s="82"/>
-      <c r="AZ42" s="83"/>
-      <c r="BA42" s="84"/>
+      <c r="K42" s="57"/>
+      <c r="L42" s="48"/>
+      <c r="M42" s="48"/>
+      <c r="N42" s="48"/>
+      <c r="O42" s="48"/>
+      <c r="P42" s="48"/>
+      <c r="Q42" s="49"/>
+      <c r="R42" s="47"/>
+      <c r="S42" s="48"/>
+      <c r="T42" s="48"/>
+      <c r="U42" s="48"/>
+      <c r="V42" s="48"/>
+      <c r="W42" s="48"/>
+      <c r="X42" s="48"/>
+      <c r="Y42" s="48"/>
+      <c r="Z42" s="48"/>
+      <c r="AA42" s="48"/>
+      <c r="AB42" s="48"/>
+      <c r="AC42" s="48"/>
+      <c r="AD42" s="48"/>
+      <c r="AE42" s="48"/>
+      <c r="AF42" s="48"/>
+      <c r="AG42" s="49"/>
+      <c r="AH42" s="47"/>
+      <c r="AI42" s="48"/>
+      <c r="AJ42" s="48"/>
+      <c r="AK42" s="48"/>
+      <c r="AL42" s="48"/>
+      <c r="AM42" s="48"/>
+      <c r="AN42" s="48"/>
+      <c r="AO42" s="49"/>
+      <c r="AP42" s="47"/>
+      <c r="AQ42" s="48"/>
+      <c r="AR42" s="48"/>
+      <c r="AS42" s="48"/>
+      <c r="AT42" s="48"/>
+      <c r="AU42" s="48"/>
+      <c r="AV42" s="48"/>
+      <c r="AW42" s="48"/>
+      <c r="AX42" s="49"/>
+      <c r="AY42" s="53"/>
+      <c r="AZ42" s="54"/>
+      <c r="BA42" s="55"/>
       <c r="BB42" s="21"/>
       <c r="BC42" s="6"/>
       <c r="BG42" s="4"/>
@@ -5225,249 +6073,249 @@
     </row>
     <row r="43" spans="10:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J43" s="4"/>
-      <c r="K43" s="99"/>
-      <c r="L43" s="62"/>
-      <c r="M43" s="62"/>
-      <c r="N43" s="62"/>
-      <c r="O43" s="62"/>
-      <c r="P43" s="62"/>
-      <c r="Q43" s="63"/>
-      <c r="R43" s="61"/>
-      <c r="S43" s="62"/>
-      <c r="T43" s="62"/>
-      <c r="U43" s="62"/>
-      <c r="V43" s="62"/>
-      <c r="W43" s="62"/>
-      <c r="X43" s="62"/>
-      <c r="Y43" s="62"/>
-      <c r="Z43" s="62"/>
-      <c r="AA43" s="62"/>
-      <c r="AB43" s="62"/>
-      <c r="AC43" s="62"/>
-      <c r="AD43" s="62"/>
-      <c r="AE43" s="62"/>
-      <c r="AF43" s="62"/>
-      <c r="AG43" s="63"/>
-      <c r="AH43" s="61"/>
-      <c r="AI43" s="62"/>
-      <c r="AJ43" s="62"/>
-      <c r="AK43" s="62"/>
-      <c r="AL43" s="62"/>
-      <c r="AM43" s="62"/>
-      <c r="AN43" s="62"/>
-      <c r="AO43" s="63"/>
-      <c r="AP43" s="61"/>
-      <c r="AQ43" s="62"/>
-      <c r="AR43" s="62"/>
-      <c r="AS43" s="62"/>
-      <c r="AT43" s="62"/>
-      <c r="AU43" s="62"/>
-      <c r="AV43" s="62"/>
-      <c r="AW43" s="62"/>
-      <c r="AX43" s="63"/>
-      <c r="AY43" s="82"/>
-      <c r="AZ43" s="83"/>
-      <c r="BA43" s="84"/>
+      <c r="K43" s="57"/>
+      <c r="L43" s="48"/>
+      <c r="M43" s="48"/>
+      <c r="N43" s="48"/>
+      <c r="O43" s="48"/>
+      <c r="P43" s="48"/>
+      <c r="Q43" s="49"/>
+      <c r="R43" s="47"/>
+      <c r="S43" s="48"/>
+      <c r="T43" s="48"/>
+      <c r="U43" s="48"/>
+      <c r="V43" s="48"/>
+      <c r="W43" s="48"/>
+      <c r="X43" s="48"/>
+      <c r="Y43" s="48"/>
+      <c r="Z43" s="48"/>
+      <c r="AA43" s="48"/>
+      <c r="AB43" s="48"/>
+      <c r="AC43" s="48"/>
+      <c r="AD43" s="48"/>
+      <c r="AE43" s="48"/>
+      <c r="AF43" s="48"/>
+      <c r="AG43" s="49"/>
+      <c r="AH43" s="47"/>
+      <c r="AI43" s="48"/>
+      <c r="AJ43" s="48"/>
+      <c r="AK43" s="48"/>
+      <c r="AL43" s="48"/>
+      <c r="AM43" s="48"/>
+      <c r="AN43" s="48"/>
+      <c r="AO43" s="49"/>
+      <c r="AP43" s="47"/>
+      <c r="AQ43" s="48"/>
+      <c r="AR43" s="48"/>
+      <c r="AS43" s="48"/>
+      <c r="AT43" s="48"/>
+      <c r="AU43" s="48"/>
+      <c r="AV43" s="48"/>
+      <c r="AW43" s="48"/>
+      <c r="AX43" s="49"/>
+      <c r="AY43" s="53"/>
+      <c r="AZ43" s="54"/>
+      <c r="BA43" s="55"/>
       <c r="BB43" s="21"/>
       <c r="BC43" s="6"/>
       <c r="BG43" s="4"/>
       <c r="BH43" s="5"/>
       <c r="BI43" s="5"/>
-      <c r="BJ43" s="71" t="s">
+      <c r="BJ43" s="69" t="s">
         <v>43</v>
       </c>
-      <c r="BK43" s="72"/>
-      <c r="BL43" s="72"/>
-      <c r="BM43" s="72"/>
-      <c r="BN43" s="72"/>
-      <c r="BO43" s="72"/>
-      <c r="BP43" s="72"/>
-      <c r="BQ43" s="72"/>
-      <c r="BR43" s="72"/>
-      <c r="BS43" s="72"/>
-      <c r="BT43" s="72"/>
-      <c r="BU43" s="72"/>
-      <c r="BV43" s="72"/>
-      <c r="BW43" s="72"/>
-      <c r="BX43" s="72"/>
-      <c r="BY43" s="72"/>
-      <c r="BZ43" s="72"/>
-      <c r="CA43" s="72"/>
-      <c r="CB43" s="72"/>
-      <c r="CC43" s="72"/>
-      <c r="CD43" s="72"/>
-      <c r="CE43" s="72"/>
-      <c r="CF43" s="72"/>
-      <c r="CG43" s="72"/>
-      <c r="CH43" s="72"/>
-      <c r="CI43" s="72"/>
-      <c r="CJ43" s="72"/>
-      <c r="CK43" s="72"/>
-      <c r="CL43" s="73"/>
+      <c r="BK43" s="70"/>
+      <c r="BL43" s="70"/>
+      <c r="BM43" s="70"/>
+      <c r="BN43" s="70"/>
+      <c r="BO43" s="70"/>
+      <c r="BP43" s="70"/>
+      <c r="BQ43" s="70"/>
+      <c r="BR43" s="70"/>
+      <c r="BS43" s="70"/>
+      <c r="BT43" s="70"/>
+      <c r="BU43" s="70"/>
+      <c r="BV43" s="70"/>
+      <c r="BW43" s="70"/>
+      <c r="BX43" s="70"/>
+      <c r="BY43" s="70"/>
+      <c r="BZ43" s="70"/>
+      <c r="CA43" s="70"/>
+      <c r="CB43" s="70"/>
+      <c r="CC43" s="70"/>
+      <c r="CD43" s="70"/>
+      <c r="CE43" s="70"/>
+      <c r="CF43" s="70"/>
+      <c r="CG43" s="70"/>
+      <c r="CH43" s="70"/>
+      <c r="CI43" s="70"/>
+      <c r="CJ43" s="70"/>
+      <c r="CK43" s="70"/>
+      <c r="CL43" s="71"/>
       <c r="CM43" s="5"/>
       <c r="CN43" s="6"/>
     </row>
     <row r="44" spans="10:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J44" s="4"/>
-      <c r="K44" s="99"/>
-      <c r="L44" s="62"/>
-      <c r="M44" s="62"/>
-      <c r="N44" s="62"/>
-      <c r="O44" s="62"/>
-      <c r="P44" s="62"/>
-      <c r="Q44" s="63"/>
-      <c r="R44" s="61"/>
-      <c r="S44" s="62"/>
-      <c r="T44" s="62"/>
-      <c r="U44" s="62"/>
-      <c r="V44" s="62"/>
-      <c r="W44" s="62"/>
-      <c r="X44" s="62"/>
-      <c r="Y44" s="62"/>
-      <c r="Z44" s="62"/>
-      <c r="AA44" s="62"/>
-      <c r="AB44" s="62"/>
-      <c r="AC44" s="62"/>
-      <c r="AD44" s="62"/>
-      <c r="AE44" s="62"/>
-      <c r="AF44" s="62"/>
-      <c r="AG44" s="63"/>
-      <c r="AH44" s="61"/>
-      <c r="AI44" s="62"/>
-      <c r="AJ44" s="62"/>
-      <c r="AK44" s="62"/>
-      <c r="AL44" s="62"/>
-      <c r="AM44" s="62"/>
-      <c r="AN44" s="62"/>
-      <c r="AO44" s="63"/>
-      <c r="AP44" s="61"/>
-      <c r="AQ44" s="62"/>
-      <c r="AR44" s="62"/>
-      <c r="AS44" s="62"/>
-      <c r="AT44" s="62"/>
-      <c r="AU44" s="62"/>
-      <c r="AV44" s="62"/>
-      <c r="AW44" s="62"/>
-      <c r="AX44" s="63"/>
-      <c r="AY44" s="82"/>
-      <c r="AZ44" s="83"/>
-      <c r="BA44" s="84"/>
+      <c r="K44" s="57"/>
+      <c r="L44" s="48"/>
+      <c r="M44" s="48"/>
+      <c r="N44" s="48"/>
+      <c r="O44" s="48"/>
+      <c r="P44" s="48"/>
+      <c r="Q44" s="49"/>
+      <c r="R44" s="47"/>
+      <c r="S44" s="48"/>
+      <c r="T44" s="48"/>
+      <c r="U44" s="48"/>
+      <c r="V44" s="48"/>
+      <c r="W44" s="48"/>
+      <c r="X44" s="48"/>
+      <c r="Y44" s="48"/>
+      <c r="Z44" s="48"/>
+      <c r="AA44" s="48"/>
+      <c r="AB44" s="48"/>
+      <c r="AC44" s="48"/>
+      <c r="AD44" s="48"/>
+      <c r="AE44" s="48"/>
+      <c r="AF44" s="48"/>
+      <c r="AG44" s="49"/>
+      <c r="AH44" s="47"/>
+      <c r="AI44" s="48"/>
+      <c r="AJ44" s="48"/>
+      <c r="AK44" s="48"/>
+      <c r="AL44" s="48"/>
+      <c r="AM44" s="48"/>
+      <c r="AN44" s="48"/>
+      <c r="AO44" s="49"/>
+      <c r="AP44" s="47"/>
+      <c r="AQ44" s="48"/>
+      <c r="AR44" s="48"/>
+      <c r="AS44" s="48"/>
+      <c r="AT44" s="48"/>
+      <c r="AU44" s="48"/>
+      <c r="AV44" s="48"/>
+      <c r="AW44" s="48"/>
+      <c r="AX44" s="49"/>
+      <c r="AY44" s="53"/>
+      <c r="AZ44" s="54"/>
+      <c r="BA44" s="55"/>
       <c r="BB44" s="21"/>
       <c r="BC44" s="6"/>
       <c r="BG44" s="4"/>
       <c r="BH44" s="5"/>
       <c r="BI44" s="5"/>
-      <c r="BJ44" s="74"/>
-      <c r="BK44" s="64"/>
-      <c r="BL44" s="64"/>
-      <c r="BM44" s="64"/>
-      <c r="BN44" s="64"/>
-      <c r="BO44" s="64"/>
-      <c r="BP44" s="64"/>
-      <c r="BQ44" s="64"/>
-      <c r="BR44" s="64"/>
-      <c r="BS44" s="64"/>
-      <c r="BT44" s="64"/>
-      <c r="BU44" s="64"/>
-      <c r="BV44" s="64"/>
-      <c r="BW44" s="64"/>
-      <c r="BX44" s="64"/>
-      <c r="BY44" s="64"/>
-      <c r="BZ44" s="64"/>
-      <c r="CA44" s="64"/>
-      <c r="CB44" s="64"/>
-      <c r="CC44" s="64"/>
-      <c r="CD44" s="64"/>
-      <c r="CE44" s="64"/>
-      <c r="CF44" s="64"/>
-      <c r="CG44" s="64"/>
-      <c r="CH44" s="64"/>
-      <c r="CI44" s="64"/>
-      <c r="CJ44" s="64"/>
-      <c r="CK44" s="64"/>
-      <c r="CL44" s="75"/>
+      <c r="BJ44" s="72"/>
+      <c r="BK44" s="73"/>
+      <c r="BL44" s="73"/>
+      <c r="BM44" s="73"/>
+      <c r="BN44" s="73"/>
+      <c r="BO44" s="73"/>
+      <c r="BP44" s="73"/>
+      <c r="BQ44" s="73"/>
+      <c r="BR44" s="73"/>
+      <c r="BS44" s="73"/>
+      <c r="BT44" s="73"/>
+      <c r="BU44" s="73"/>
+      <c r="BV44" s="73"/>
+      <c r="BW44" s="73"/>
+      <c r="BX44" s="73"/>
+      <c r="BY44" s="73"/>
+      <c r="BZ44" s="73"/>
+      <c r="CA44" s="73"/>
+      <c r="CB44" s="73"/>
+      <c r="CC44" s="73"/>
+      <c r="CD44" s="73"/>
+      <c r="CE44" s="73"/>
+      <c r="CF44" s="73"/>
+      <c r="CG44" s="73"/>
+      <c r="CH44" s="73"/>
+      <c r="CI44" s="73"/>
+      <c r="CJ44" s="73"/>
+      <c r="CK44" s="73"/>
+      <c r="CL44" s="74"/>
       <c r="CM44" s="5"/>
       <c r="CN44" s="6"/>
     </row>
     <row r="45" spans="10:93" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="J45" s="4"/>
-      <c r="K45" s="99"/>
-      <c r="L45" s="62"/>
-      <c r="M45" s="62"/>
-      <c r="N45" s="62"/>
-      <c r="O45" s="62"/>
-      <c r="P45" s="62"/>
-      <c r="Q45" s="63"/>
-      <c r="R45" s="61"/>
-      <c r="S45" s="62"/>
-      <c r="T45" s="62"/>
-      <c r="U45" s="62"/>
-      <c r="V45" s="62"/>
-      <c r="W45" s="62"/>
-      <c r="X45" s="62"/>
-      <c r="Y45" s="62"/>
-      <c r="Z45" s="62"/>
-      <c r="AA45" s="62"/>
-      <c r="AB45" s="62"/>
-      <c r="AC45" s="62"/>
-      <c r="AD45" s="62"/>
-      <c r="AE45" s="62"/>
-      <c r="AF45" s="62"/>
-      <c r="AG45" s="63"/>
-      <c r="AH45" s="61"/>
-      <c r="AI45" s="62"/>
-      <c r="AJ45" s="62"/>
-      <c r="AK45" s="62"/>
-      <c r="AL45" s="62"/>
-      <c r="AM45" s="62"/>
-      <c r="AN45" s="62"/>
-      <c r="AO45" s="63"/>
-      <c r="AP45" s="61"/>
-      <c r="AQ45" s="62"/>
-      <c r="AR45" s="62"/>
-      <c r="AS45" s="62"/>
-      <c r="AT45" s="62"/>
-      <c r="AU45" s="62"/>
-      <c r="AV45" s="62"/>
-      <c r="AW45" s="62"/>
-      <c r="AX45" s="63"/>
-      <c r="AY45" s="82"/>
-      <c r="AZ45" s="83"/>
-      <c r="BA45" s="84"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="48"/>
+      <c r="M45" s="48"/>
+      <c r="N45" s="48"/>
+      <c r="O45" s="48"/>
+      <c r="P45" s="48"/>
+      <c r="Q45" s="49"/>
+      <c r="R45" s="47"/>
+      <c r="S45" s="48"/>
+      <c r="T45" s="48"/>
+      <c r="U45" s="48"/>
+      <c r="V45" s="48"/>
+      <c r="W45" s="48"/>
+      <c r="X45" s="48"/>
+      <c r="Y45" s="48"/>
+      <c r="Z45" s="48"/>
+      <c r="AA45" s="48"/>
+      <c r="AB45" s="48"/>
+      <c r="AC45" s="48"/>
+      <c r="AD45" s="48"/>
+      <c r="AE45" s="48"/>
+      <c r="AF45" s="48"/>
+      <c r="AG45" s="49"/>
+      <c r="AH45" s="47"/>
+      <c r="AI45" s="48"/>
+      <c r="AJ45" s="48"/>
+      <c r="AK45" s="48"/>
+      <c r="AL45" s="48"/>
+      <c r="AM45" s="48"/>
+      <c r="AN45" s="48"/>
+      <c r="AO45" s="49"/>
+      <c r="AP45" s="47"/>
+      <c r="AQ45" s="48"/>
+      <c r="AR45" s="48"/>
+      <c r="AS45" s="48"/>
+      <c r="AT45" s="48"/>
+      <c r="AU45" s="48"/>
+      <c r="AV45" s="48"/>
+      <c r="AW45" s="48"/>
+      <c r="AX45" s="49"/>
+      <c r="AY45" s="53"/>
+      <c r="AZ45" s="54"/>
+      <c r="BA45" s="55"/>
       <c r="BB45" s="21"/>
       <c r="BC45" s="6"/>
       <c r="BG45" s="4"/>
       <c r="BH45" s="5"/>
       <c r="BI45" s="5"/>
-      <c r="BJ45" s="74"/>
-      <c r="BK45" s="64"/>
-      <c r="BL45" s="64"/>
-      <c r="BM45" s="64"/>
-      <c r="BN45" s="64"/>
-      <c r="BO45" s="64"/>
-      <c r="BP45" s="64"/>
-      <c r="BQ45" s="64"/>
-      <c r="BR45" s="64"/>
-      <c r="BS45" s="64"/>
-      <c r="BT45" s="64"/>
-      <c r="BU45" s="64"/>
-      <c r="BV45" s="64"/>
-      <c r="BW45" s="64"/>
-      <c r="BX45" s="64"/>
-      <c r="BY45" s="64"/>
-      <c r="BZ45" s="64"/>
-      <c r="CA45" s="64"/>
-      <c r="CB45" s="64"/>
-      <c r="CC45" s="64"/>
-      <c r="CD45" s="64"/>
-      <c r="CE45" s="64"/>
-      <c r="CF45" s="64"/>
-      <c r="CG45" s="64"/>
-      <c r="CH45" s="64"/>
-      <c r="CI45" s="64"/>
-      <c r="CJ45" s="64"/>
-      <c r="CK45" s="64"/>
-      <c r="CL45" s="75"/>
+      <c r="BJ45" s="72"/>
+      <c r="BK45" s="73"/>
+      <c r="BL45" s="73"/>
+      <c r="BM45" s="73"/>
+      <c r="BN45" s="73"/>
+      <c r="BO45" s="73"/>
+      <c r="BP45" s="73"/>
+      <c r="BQ45" s="73"/>
+      <c r="BR45" s="73"/>
+      <c r="BS45" s="73"/>
+      <c r="BT45" s="73"/>
+      <c r="BU45" s="73"/>
+      <c r="BV45" s="73"/>
+      <c r="BW45" s="73"/>
+      <c r="BX45" s="73"/>
+      <c r="BY45" s="73"/>
+      <c r="BZ45" s="73"/>
+      <c r="CA45" s="73"/>
+      <c r="CB45" s="73"/>
+      <c r="CC45" s="73"/>
+      <c r="CD45" s="73"/>
+      <c r="CE45" s="73"/>
+      <c r="CF45" s="73"/>
+      <c r="CG45" s="73"/>
+      <c r="CH45" s="73"/>
+      <c r="CI45" s="73"/>
+      <c r="CJ45" s="73"/>
+      <c r="CK45" s="73"/>
+      <c r="CL45" s="74"/>
       <c r="CM45" s="5"/>
       <c r="CN45" s="6"/>
     </row>
@@ -5521,35 +6369,35 @@
       <c r="BG46" s="4"/>
       <c r="BH46" s="5"/>
       <c r="BI46" s="5"/>
-      <c r="BJ46" s="74"/>
-      <c r="BK46" s="64"/>
-      <c r="BL46" s="64"/>
-      <c r="BM46" s="64"/>
-      <c r="BN46" s="64"/>
-      <c r="BO46" s="64"/>
-      <c r="BP46" s="64"/>
-      <c r="BQ46" s="64"/>
-      <c r="BR46" s="64"/>
-      <c r="BS46" s="64"/>
-      <c r="BT46" s="64"/>
-      <c r="BU46" s="64"/>
-      <c r="BV46" s="64"/>
-      <c r="BW46" s="64"/>
-      <c r="BX46" s="64"/>
-      <c r="BY46" s="64"/>
-      <c r="BZ46" s="64"/>
-      <c r="CA46" s="64"/>
-      <c r="CB46" s="64"/>
-      <c r="CC46" s="64"/>
-      <c r="CD46" s="64"/>
-      <c r="CE46" s="64"/>
-      <c r="CF46" s="64"/>
-      <c r="CG46" s="64"/>
-      <c r="CH46" s="64"/>
-      <c r="CI46" s="64"/>
-      <c r="CJ46" s="64"/>
-      <c r="CK46" s="64"/>
-      <c r="CL46" s="75"/>
+      <c r="BJ46" s="72"/>
+      <c r="BK46" s="73"/>
+      <c r="BL46" s="73"/>
+      <c r="BM46" s="73"/>
+      <c r="BN46" s="73"/>
+      <c r="BO46" s="73"/>
+      <c r="BP46" s="73"/>
+      <c r="BQ46" s="73"/>
+      <c r="BR46" s="73"/>
+      <c r="BS46" s="73"/>
+      <c r="BT46" s="73"/>
+      <c r="BU46" s="73"/>
+      <c r="BV46" s="73"/>
+      <c r="BW46" s="73"/>
+      <c r="BX46" s="73"/>
+      <c r="BY46" s="73"/>
+      <c r="BZ46" s="73"/>
+      <c r="CA46" s="73"/>
+      <c r="CB46" s="73"/>
+      <c r="CC46" s="73"/>
+      <c r="CD46" s="73"/>
+      <c r="CE46" s="73"/>
+      <c r="CF46" s="73"/>
+      <c r="CG46" s="73"/>
+      <c r="CH46" s="73"/>
+      <c r="CI46" s="73"/>
+      <c r="CJ46" s="73"/>
+      <c r="CK46" s="73"/>
+      <c r="CL46" s="74"/>
       <c r="CM46" s="5"/>
       <c r="CN46" s="6"/>
     </row>
@@ -5603,35 +6451,35 @@
       <c r="BG47" s="4"/>
       <c r="BH47" s="5"/>
       <c r="BI47" s="5"/>
-      <c r="BJ47" s="74"/>
-      <c r="BK47" s="64"/>
-      <c r="BL47" s="64"/>
-      <c r="BM47" s="64"/>
-      <c r="BN47" s="64"/>
-      <c r="BO47" s="64"/>
-      <c r="BP47" s="64"/>
-      <c r="BQ47" s="64"/>
-      <c r="BR47" s="64"/>
-      <c r="BS47" s="64"/>
-      <c r="BT47" s="64"/>
-      <c r="BU47" s="64"/>
-      <c r="BV47" s="64"/>
-      <c r="BW47" s="64"/>
-      <c r="BX47" s="64"/>
-      <c r="BY47" s="64"/>
-      <c r="BZ47" s="64"/>
-      <c r="CA47" s="64"/>
-      <c r="CB47" s="64"/>
-      <c r="CC47" s="64"/>
-      <c r="CD47" s="64"/>
-      <c r="CE47" s="64"/>
-      <c r="CF47" s="64"/>
-      <c r="CG47" s="64"/>
-      <c r="CH47" s="64"/>
-      <c r="CI47" s="64"/>
-      <c r="CJ47" s="64"/>
-      <c r="CK47" s="64"/>
-      <c r="CL47" s="75"/>
+      <c r="BJ47" s="72"/>
+      <c r="BK47" s="73"/>
+      <c r="BL47" s="73"/>
+      <c r="BM47" s="73"/>
+      <c r="BN47" s="73"/>
+      <c r="BO47" s="73"/>
+      <c r="BP47" s="73"/>
+      <c r="BQ47" s="73"/>
+      <c r="BR47" s="73"/>
+      <c r="BS47" s="73"/>
+      <c r="BT47" s="73"/>
+      <c r="BU47" s="73"/>
+      <c r="BV47" s="73"/>
+      <c r="BW47" s="73"/>
+      <c r="BX47" s="73"/>
+      <c r="BY47" s="73"/>
+      <c r="BZ47" s="73"/>
+      <c r="CA47" s="73"/>
+      <c r="CB47" s="73"/>
+      <c r="CC47" s="73"/>
+      <c r="CD47" s="73"/>
+      <c r="CE47" s="73"/>
+      <c r="CF47" s="73"/>
+      <c r="CG47" s="73"/>
+      <c r="CH47" s="73"/>
+      <c r="CI47" s="73"/>
+      <c r="CJ47" s="73"/>
+      <c r="CK47" s="73"/>
+      <c r="CL47" s="74"/>
       <c r="CM47" s="5"/>
       <c r="CN47" s="6"/>
     </row>
@@ -5639,35 +6487,35 @@
       <c r="BG48" s="4"/>
       <c r="BH48" s="5"/>
       <c r="BI48" s="5"/>
-      <c r="BJ48" s="74"/>
-      <c r="BK48" s="64"/>
-      <c r="BL48" s="64"/>
-      <c r="BM48" s="64"/>
-      <c r="BN48" s="64"/>
-      <c r="BO48" s="64"/>
-      <c r="BP48" s="64"/>
-      <c r="BQ48" s="64"/>
-      <c r="BR48" s="64"/>
-      <c r="BS48" s="64"/>
-      <c r="BT48" s="64"/>
-      <c r="BU48" s="64"/>
-      <c r="BV48" s="64"/>
-      <c r="BW48" s="64"/>
-      <c r="BX48" s="64"/>
-      <c r="BY48" s="64"/>
-      <c r="BZ48" s="64"/>
-      <c r="CA48" s="64"/>
-      <c r="CB48" s="64"/>
-      <c r="CC48" s="64"/>
-      <c r="CD48" s="64"/>
-      <c r="CE48" s="64"/>
-      <c r="CF48" s="64"/>
-      <c r="CG48" s="64"/>
-      <c r="CH48" s="64"/>
-      <c r="CI48" s="64"/>
-      <c r="CJ48" s="64"/>
-      <c r="CK48" s="64"/>
-      <c r="CL48" s="75"/>
+      <c r="BJ48" s="72"/>
+      <c r="BK48" s="73"/>
+      <c r="BL48" s="73"/>
+      <c r="BM48" s="73"/>
+      <c r="BN48" s="73"/>
+      <c r="BO48" s="73"/>
+      <c r="BP48" s="73"/>
+      <c r="BQ48" s="73"/>
+      <c r="BR48" s="73"/>
+      <c r="BS48" s="73"/>
+      <c r="BT48" s="73"/>
+      <c r="BU48" s="73"/>
+      <c r="BV48" s="73"/>
+      <c r="BW48" s="73"/>
+      <c r="BX48" s="73"/>
+      <c r="BY48" s="73"/>
+      <c r="BZ48" s="73"/>
+      <c r="CA48" s="73"/>
+      <c r="CB48" s="73"/>
+      <c r="CC48" s="73"/>
+      <c r="CD48" s="73"/>
+      <c r="CE48" s="73"/>
+      <c r="CF48" s="73"/>
+      <c r="CG48" s="73"/>
+      <c r="CH48" s="73"/>
+      <c r="CI48" s="73"/>
+      <c r="CJ48" s="73"/>
+      <c r="CK48" s="73"/>
+      <c r="CL48" s="74"/>
       <c r="CM48" s="5"/>
       <c r="CN48" s="6"/>
     </row>
@@ -5675,35 +6523,35 @@
       <c r="BG49" s="4"/>
       <c r="BH49" s="5"/>
       <c r="BI49" s="5"/>
-      <c r="BJ49" s="76"/>
-      <c r="BK49" s="77"/>
-      <c r="BL49" s="77"/>
-      <c r="BM49" s="77"/>
-      <c r="BN49" s="77"/>
-      <c r="BO49" s="77"/>
-      <c r="BP49" s="77"/>
-      <c r="BQ49" s="77"/>
-      <c r="BR49" s="77"/>
-      <c r="BS49" s="77"/>
-      <c r="BT49" s="77"/>
-      <c r="BU49" s="77"/>
-      <c r="BV49" s="77"/>
-      <c r="BW49" s="77"/>
-      <c r="BX49" s="77"/>
-      <c r="BY49" s="77"/>
-      <c r="BZ49" s="77"/>
-      <c r="CA49" s="77"/>
-      <c r="CB49" s="77"/>
-      <c r="CC49" s="77"/>
-      <c r="CD49" s="77"/>
-      <c r="CE49" s="77"/>
-      <c r="CF49" s="77"/>
-      <c r="CG49" s="77"/>
-      <c r="CH49" s="77"/>
-      <c r="CI49" s="77"/>
-      <c r="CJ49" s="77"/>
-      <c r="CK49" s="77"/>
-      <c r="CL49" s="78"/>
+      <c r="BJ49" s="75"/>
+      <c r="BK49" s="76"/>
+      <c r="BL49" s="76"/>
+      <c r="BM49" s="76"/>
+      <c r="BN49" s="76"/>
+      <c r="BO49" s="76"/>
+      <c r="BP49" s="76"/>
+      <c r="BQ49" s="76"/>
+      <c r="BR49" s="76"/>
+      <c r="BS49" s="76"/>
+      <c r="BT49" s="76"/>
+      <c r="BU49" s="76"/>
+      <c r="BV49" s="76"/>
+      <c r="BW49" s="76"/>
+      <c r="BX49" s="76"/>
+      <c r="BY49" s="76"/>
+      <c r="BZ49" s="76"/>
+      <c r="CA49" s="76"/>
+      <c r="CB49" s="76"/>
+      <c r="CC49" s="76"/>
+      <c r="CD49" s="76"/>
+      <c r="CE49" s="76"/>
+      <c r="CF49" s="76"/>
+      <c r="CG49" s="76"/>
+      <c r="CH49" s="76"/>
+      <c r="CI49" s="76"/>
+      <c r="CJ49" s="76"/>
+      <c r="CK49" s="76"/>
+      <c r="CL49" s="77"/>
       <c r="CM49" s="5"/>
       <c r="CN49" s="6"/>
     </row>
@@ -5746,42 +6594,42 @@
     <row r="51" spans="9:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="BG51" s="4"/>
       <c r="BH51" s="5"/>
-      <c r="BI51" s="43" t="s">
+      <c r="BI51" s="94" t="s">
         <v>38</v>
       </c>
-      <c r="BJ51" s="44"/>
-      <c r="BK51" s="44"/>
-      <c r="BL51" s="44"/>
-      <c r="BM51" s="44"/>
-      <c r="BN51" s="44"/>
-      <c r="BO51" s="44"/>
-      <c r="BP51" s="45"/>
+      <c r="BJ51" s="95"/>
+      <c r="BK51" s="95"/>
+      <c r="BL51" s="95"/>
+      <c r="BM51" s="95"/>
+      <c r="BN51" s="95"/>
+      <c r="BO51" s="95"/>
+      <c r="BP51" s="96"/>
       <c r="BQ51" s="5"/>
-      <c r="BR51" s="43" t="s">
+      <c r="BR51" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="BS51" s="44"/>
-      <c r="BT51" s="44"/>
-      <c r="BU51" s="44"/>
-      <c r="BV51" s="44"/>
-      <c r="BW51" s="44"/>
-      <c r="BX51" s="44"/>
-      <c r="BY51" s="45"/>
+      <c r="BS51" s="95"/>
+      <c r="BT51" s="95"/>
+      <c r="BU51" s="95"/>
+      <c r="BV51" s="95"/>
+      <c r="BW51" s="95"/>
+      <c r="BX51" s="95"/>
+      <c r="BY51" s="96"/>
       <c r="BZ51" s="5"/>
       <c r="CA51" s="5"/>
       <c r="CB51" s="5"/>
       <c r="CC51" s="5"/>
       <c r="CD51" s="5"/>
-      <c r="CE51" s="43" t="s">
+      <c r="CE51" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="CF51" s="44"/>
-      <c r="CG51" s="44"/>
-      <c r="CH51" s="44"/>
-      <c r="CI51" s="44"/>
-      <c r="CJ51" s="44"/>
-      <c r="CK51" s="44"/>
-      <c r="CL51" s="45"/>
+      <c r="CF51" s="95"/>
+      <c r="CG51" s="95"/>
+      <c r="CH51" s="95"/>
+      <c r="CI51" s="95"/>
+      <c r="CJ51" s="95"/>
+      <c r="CK51" s="95"/>
+      <c r="CL51" s="96"/>
       <c r="CM51" s="5"/>
       <c r="CN51" s="6"/>
     </row>
@@ -5835,36 +6683,36 @@
       </c>
       <c r="BG52" s="4"/>
       <c r="BH52" s="5"/>
-      <c r="BI52" s="46"/>
-      <c r="BJ52" s="47"/>
-      <c r="BK52" s="47"/>
-      <c r="BL52" s="47"/>
-      <c r="BM52" s="47"/>
-      <c r="BN52" s="47"/>
-      <c r="BO52" s="47"/>
-      <c r="BP52" s="48"/>
+      <c r="BI52" s="97"/>
+      <c r="BJ52" s="98"/>
+      <c r="BK52" s="98"/>
+      <c r="BL52" s="98"/>
+      <c r="BM52" s="98"/>
+      <c r="BN52" s="98"/>
+      <c r="BO52" s="98"/>
+      <c r="BP52" s="99"/>
       <c r="BQ52" s="5"/>
-      <c r="BR52" s="46"/>
-      <c r="BS52" s="47"/>
-      <c r="BT52" s="47"/>
-      <c r="BU52" s="47"/>
-      <c r="BV52" s="47"/>
-      <c r="BW52" s="47"/>
-      <c r="BX52" s="47"/>
-      <c r="BY52" s="48"/>
+      <c r="BR52" s="97"/>
+      <c r="BS52" s="98"/>
+      <c r="BT52" s="98"/>
+      <c r="BU52" s="98"/>
+      <c r="BV52" s="98"/>
+      <c r="BW52" s="98"/>
+      <c r="BX52" s="98"/>
+      <c r="BY52" s="99"/>
       <c r="BZ52" s="5"/>
       <c r="CA52" s="5"/>
       <c r="CB52" s="5"/>
       <c r="CC52" s="5"/>
       <c r="CD52" s="5"/>
-      <c r="CE52" s="46"/>
-      <c r="CF52" s="47"/>
-      <c r="CG52" s="47"/>
-      <c r="CH52" s="47"/>
-      <c r="CI52" s="47"/>
-      <c r="CJ52" s="47"/>
-      <c r="CK52" s="47"/>
-      <c r="CL52" s="48"/>
+      <c r="CE52" s="97"/>
+      <c r="CF52" s="98"/>
+      <c r="CG52" s="98"/>
+      <c r="CH52" s="98"/>
+      <c r="CI52" s="98"/>
+      <c r="CJ52" s="98"/>
+      <c r="CK52" s="98"/>
+      <c r="CL52" s="99"/>
       <c r="CM52" s="5"/>
       <c r="CN52" s="6"/>
     </row>
@@ -5932,29 +6780,29 @@
     </row>
     <row r="54" spans="9:102" x14ac:dyDescent="0.25">
       <c r="I54" s="4"/>
-      <c r="J54" s="60" t="s">
+      <c r="J54" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="K54" s="60"/>
-      <c r="L54" s="60"/>
-      <c r="M54" s="60"/>
-      <c r="N54" s="60"/>
-      <c r="O54" s="60"/>
-      <c r="P54" s="60"/>
-      <c r="Q54" s="60"/>
-      <c r="R54" s="60"/>
-      <c r="S54" s="61" t="s">
+      <c r="K54" s="67"/>
+      <c r="L54" s="67"/>
+      <c r="M54" s="67"/>
+      <c r="N54" s="67"/>
+      <c r="O54" s="67"/>
+      <c r="P54" s="67"/>
+      <c r="Q54" s="67"/>
+      <c r="R54" s="67"/>
+      <c r="S54" s="47" t="s">
         <v>44</v>
       </c>
-      <c r="T54" s="62"/>
-      <c r="U54" s="62"/>
-      <c r="V54" s="62"/>
-      <c r="W54" s="62"/>
-      <c r="X54" s="62"/>
-      <c r="Y54" s="62"/>
-      <c r="Z54" s="62"/>
-      <c r="AA54" s="62"/>
-      <c r="AB54" s="63"/>
+      <c r="T54" s="48"/>
+      <c r="U54" s="48"/>
+      <c r="V54" s="48"/>
+      <c r="W54" s="48"/>
+      <c r="X54" s="48"/>
+      <c r="Y54" s="48"/>
+      <c r="Z54" s="48"/>
+      <c r="AA54" s="48"/>
+      <c r="AB54" s="49"/>
       <c r="AC54" s="5"/>
       <c r="AD54" s="5"/>
       <c r="AE54" s="5"/>
@@ -6040,45 +6888,45 @@
       <c r="I57" s="4"/>
       <c r="J57" s="5"/>
       <c r="K57" s="5"/>
-      <c r="L57" s="68"/>
-      <c r="M57" s="69"/>
-      <c r="N57" s="69"/>
-      <c r="O57" s="69"/>
-      <c r="P57" s="69"/>
-      <c r="Q57" s="69"/>
-      <c r="R57" s="69"/>
-      <c r="S57" s="69"/>
-      <c r="T57" s="69"/>
-      <c r="U57" s="69"/>
-      <c r="V57" s="70"/>
+      <c r="L57" s="91"/>
+      <c r="M57" s="92"/>
+      <c r="N57" s="92"/>
+      <c r="O57" s="92"/>
+      <c r="P57" s="92"/>
+      <c r="Q57" s="92"/>
+      <c r="R57" s="92"/>
+      <c r="S57" s="92"/>
+      <c r="T57" s="92"/>
+      <c r="U57" s="92"/>
+      <c r="V57" s="93"/>
       <c r="W57" s="13"/>
       <c r="X57" s="13"/>
       <c r="Y57" s="13"/>
-      <c r="Z57" s="68"/>
-      <c r="AA57" s="69"/>
-      <c r="AB57" s="69"/>
-      <c r="AC57" s="69"/>
-      <c r="AD57" s="69"/>
-      <c r="AE57" s="69"/>
-      <c r="AF57" s="69"/>
-      <c r="AG57" s="69"/>
-      <c r="AH57" s="69"/>
-      <c r="AI57" s="69"/>
-      <c r="AJ57" s="70"/>
+      <c r="Z57" s="91"/>
+      <c r="AA57" s="92"/>
+      <c r="AB57" s="92"/>
+      <c r="AC57" s="92"/>
+      <c r="AD57" s="92"/>
+      <c r="AE57" s="92"/>
+      <c r="AF57" s="92"/>
+      <c r="AG57" s="92"/>
+      <c r="AH57" s="92"/>
+      <c r="AI57" s="92"/>
+      <c r="AJ57" s="93"/>
       <c r="AK57" s="5"/>
       <c r="AL57" s="5"/>
       <c r="AM57" s="5"/>
-      <c r="AN57" s="68"/>
-      <c r="AO57" s="69"/>
-      <c r="AP57" s="69"/>
-      <c r="AQ57" s="69"/>
-      <c r="AR57" s="69"/>
-      <c r="AS57" s="69"/>
-      <c r="AT57" s="69"/>
-      <c r="AU57" s="69"/>
-      <c r="AV57" s="69"/>
-      <c r="AW57" s="69"/>
-      <c r="AX57" s="70"/>
+      <c r="AN57" s="91"/>
+      <c r="AO57" s="92"/>
+      <c r="AP57" s="92"/>
+      <c r="AQ57" s="92"/>
+      <c r="AR57" s="92"/>
+      <c r="AS57" s="92"/>
+      <c r="AT57" s="92"/>
+      <c r="AU57" s="92"/>
+      <c r="AV57" s="92"/>
+      <c r="AW57" s="92"/>
+      <c r="AX57" s="93"/>
       <c r="AY57" s="5"/>
       <c r="AZ57" s="5"/>
       <c r="BA57" s="6"/>
@@ -6100,49 +6948,49 @@
       <c r="J58" s="5"/>
       <c r="K58" s="5"/>
       <c r="L58" s="5"/>
-      <c r="M58" s="49" t="s">
+      <c r="M58" s="100" t="s">
         <v>33</v>
       </c>
-      <c r="N58" s="49"/>
-      <c r="O58" s="49"/>
-      <c r="P58" s="49"/>
-      <c r="Q58" s="49"/>
-      <c r="R58" s="49"/>
-      <c r="S58" s="49"/>
-      <c r="T58" s="49"/>
-      <c r="U58" s="49"/>
+      <c r="N58" s="100"/>
+      <c r="O58" s="100"/>
+      <c r="P58" s="100"/>
+      <c r="Q58" s="100"/>
+      <c r="R58" s="100"/>
+      <c r="S58" s="100"/>
+      <c r="T58" s="100"/>
+      <c r="U58" s="100"/>
       <c r="V58" s="14"/>
       <c r="W58" s="5"/>
       <c r="X58" s="5"/>
       <c r="Y58" s="5"/>
       <c r="Z58" s="5"/>
-      <c r="AA58" s="49" t="s">
+      <c r="AA58" s="100" t="s">
         <v>47</v>
       </c>
-      <c r="AB58" s="49"/>
-      <c r="AC58" s="49"/>
-      <c r="AD58" s="49"/>
-      <c r="AE58" s="49"/>
-      <c r="AF58" s="49"/>
-      <c r="AG58" s="49"/>
-      <c r="AH58" s="49"/>
-      <c r="AI58" s="49"/>
+      <c r="AB58" s="100"/>
+      <c r="AC58" s="100"/>
+      <c r="AD58" s="100"/>
+      <c r="AE58" s="100"/>
+      <c r="AF58" s="100"/>
+      <c r="AG58" s="100"/>
+      <c r="AH58" s="100"/>
+      <c r="AI58" s="100"/>
       <c r="AJ58" s="14"/>
       <c r="AK58" s="5"/>
       <c r="AL58" s="5"/>
       <c r="AM58" s="5"/>
       <c r="AN58" s="5"/>
-      <c r="AO58" s="49" t="s">
+      <c r="AO58" s="100" t="s">
         <v>36</v>
       </c>
-      <c r="AP58" s="49"/>
-      <c r="AQ58" s="49"/>
-      <c r="AR58" s="49"/>
-      <c r="AS58" s="49"/>
-      <c r="AT58" s="49"/>
-      <c r="AU58" s="49"/>
-      <c r="AV58" s="49"/>
-      <c r="AW58" s="49"/>
+      <c r="AP58" s="100"/>
+      <c r="AQ58" s="100"/>
+      <c r="AR58" s="100"/>
+      <c r="AS58" s="100"/>
+      <c r="AT58" s="100"/>
+      <c r="AU58" s="100"/>
+      <c r="AV58" s="100"/>
+      <c r="AW58" s="100"/>
       <c r="AX58" s="14"/>
       <c r="AY58" s="5"/>
       <c r="AZ58" s="5"/>
@@ -6328,17 +7176,17 @@
       <c r="AZ60" s="5"/>
       <c r="BA60" s="6"/>
       <c r="BH60" s="4"/>
-      <c r="BI60" s="90" t="s">
+      <c r="BI60" s="43" t="s">
         <v>55</v>
       </c>
-      <c r="BJ60" s="90"/>
-      <c r="BK60" s="90"/>
-      <c r="BL60" s="90"/>
-      <c r="BM60" s="90"/>
-      <c r="BN60" s="90"/>
-      <c r="BO60" s="90"/>
-      <c r="BP60" s="90"/>
-      <c r="BQ60" s="90"/>
+      <c r="BJ60" s="43"/>
+      <c r="BK60" s="43"/>
+      <c r="BL60" s="43"/>
+      <c r="BM60" s="43"/>
+      <c r="BN60" s="43"/>
+      <c r="BO60" s="43"/>
+      <c r="BP60" s="43"/>
+      <c r="BQ60" s="43"/>
       <c r="BR60" s="5"/>
       <c r="BS60" s="5"/>
       <c r="BT60" s="5"/>
@@ -6351,17 +7199,17 @@
       <c r="CA60" s="5"/>
       <c r="CB60" s="5"/>
       <c r="CC60" s="5"/>
-      <c r="CD60" s="90" t="s">
+      <c r="CD60" s="43" t="s">
         <v>56</v>
       </c>
-      <c r="CE60" s="90"/>
-      <c r="CF60" s="90"/>
-      <c r="CG60" s="90"/>
-      <c r="CH60" s="90"/>
-      <c r="CI60" s="90"/>
-      <c r="CJ60" s="90"/>
-      <c r="CK60" s="90"/>
-      <c r="CL60" s="90"/>
+      <c r="CE60" s="43"/>
+      <c r="CF60" s="43"/>
+      <c r="CG60" s="43"/>
+      <c r="CH60" s="43"/>
+      <c r="CI60" s="43"/>
+      <c r="CJ60" s="43"/>
+      <c r="CK60" s="43"/>
+      <c r="CL60" s="43"/>
       <c r="CM60" s="5"/>
       <c r="CN60" s="5"/>
       <c r="CO60" s="5"/>
@@ -6422,63 +7270,63 @@
       <c r="AZ61" s="5"/>
       <c r="BA61" s="6"/>
       <c r="BH61" s="4"/>
-      <c r="BI61" s="82" t="s">
+      <c r="BI61" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="BJ61" s="83"/>
-      <c r="BK61" s="83"/>
-      <c r="BL61" s="83"/>
-      <c r="BM61" s="84"/>
-      <c r="BN61" s="82" t="s">
+      <c r="BJ61" s="54"/>
+      <c r="BK61" s="54"/>
+      <c r="BL61" s="54"/>
+      <c r="BM61" s="55"/>
+      <c r="BN61" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="BO61" s="83"/>
-      <c r="BP61" s="83"/>
-      <c r="BQ61" s="83"/>
-      <c r="BR61" s="84"/>
-      <c r="BS61" s="82" t="s">
+      <c r="BO61" s="54"/>
+      <c r="BP61" s="54"/>
+      <c r="BQ61" s="54"/>
+      <c r="BR61" s="55"/>
+      <c r="BS61" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="BT61" s="83"/>
-      <c r="BU61" s="83"/>
-      <c r="BV61" s="83"/>
-      <c r="BW61" s="84"/>
-      <c r="BX61" s="82" t="s">
+      <c r="BT61" s="54"/>
+      <c r="BU61" s="54"/>
+      <c r="BV61" s="54"/>
+      <c r="BW61" s="55"/>
+      <c r="BX61" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="BY61" s="83"/>
-      <c r="BZ61" s="83"/>
-      <c r="CA61" s="83"/>
-      <c r="CB61" s="84"/>
+      <c r="BY61" s="54"/>
+      <c r="BZ61" s="54"/>
+      <c r="CA61" s="54"/>
+      <c r="CB61" s="55"/>
       <c r="CC61" s="5"/>
-      <c r="CD61" s="82" t="s">
+      <c r="CD61" s="53" t="s">
         <v>51</v>
       </c>
-      <c r="CE61" s="83"/>
-      <c r="CF61" s="83"/>
-      <c r="CG61" s="83"/>
-      <c r="CH61" s="84"/>
-      <c r="CI61" s="82" t="s">
+      <c r="CE61" s="54"/>
+      <c r="CF61" s="54"/>
+      <c r="CG61" s="54"/>
+      <c r="CH61" s="55"/>
+      <c r="CI61" s="53" t="s">
         <v>52</v>
       </c>
-      <c r="CJ61" s="83"/>
-      <c r="CK61" s="83"/>
-      <c r="CL61" s="83"/>
-      <c r="CM61" s="83"/>
-      <c r="CN61" s="82" t="s">
+      <c r="CJ61" s="54"/>
+      <c r="CK61" s="54"/>
+      <c r="CL61" s="54"/>
+      <c r="CM61" s="54"/>
+      <c r="CN61" s="53" t="s">
         <v>53</v>
       </c>
-      <c r="CO61" s="83"/>
-      <c r="CP61" s="83"/>
-      <c r="CQ61" s="83"/>
-      <c r="CR61" s="83"/>
-      <c r="CS61" s="82" t="s">
+      <c r="CO61" s="54"/>
+      <c r="CP61" s="54"/>
+      <c r="CQ61" s="54"/>
+      <c r="CR61" s="54"/>
+      <c r="CS61" s="53" t="s">
         <v>54</v>
       </c>
-      <c r="CT61" s="83"/>
-      <c r="CU61" s="83"/>
-      <c r="CV61" s="83"/>
-      <c r="CW61" s="84"/>
+      <c r="CT61" s="54"/>
+      <c r="CU61" s="54"/>
+      <c r="CV61" s="54"/>
+      <c r="CW61" s="55"/>
       <c r="CX61" s="6"/>
     </row>
     <row r="62" spans="9:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6507,82 +7355,82 @@
       <c r="AA62" s="5"/>
       <c r="AB62" s="5"/>
       <c r="AC62" s="5"/>
-      <c r="AD62" s="51"/>
-      <c r="AE62" s="52"/>
-      <c r="AF62" s="52"/>
-      <c r="AG62" s="52"/>
-      <c r="AH62" s="52"/>
-      <c r="AI62" s="52"/>
-      <c r="AJ62" s="52"/>
-      <c r="AK62" s="52"/>
-      <c r="AL62" s="52"/>
-      <c r="AM62" s="52"/>
-      <c r="AN62" s="52"/>
-      <c r="AO62" s="52"/>
-      <c r="AP62" s="52"/>
-      <c r="AQ62" s="52"/>
-      <c r="AR62" s="52"/>
-      <c r="AS62" s="52"/>
-      <c r="AT62" s="52"/>
-      <c r="AU62" s="52"/>
-      <c r="AV62" s="52"/>
-      <c r="AW62" s="52"/>
-      <c r="AX62" s="52"/>
-      <c r="AY62" s="53"/>
+      <c r="AD62" s="101"/>
+      <c r="AE62" s="102"/>
+      <c r="AF62" s="102"/>
+      <c r="AG62" s="102"/>
+      <c r="AH62" s="102"/>
+      <c r="AI62" s="102"/>
+      <c r="AJ62" s="102"/>
+      <c r="AK62" s="102"/>
+      <c r="AL62" s="102"/>
+      <c r="AM62" s="102"/>
+      <c r="AN62" s="102"/>
+      <c r="AO62" s="102"/>
+      <c r="AP62" s="102"/>
+      <c r="AQ62" s="102"/>
+      <c r="AR62" s="102"/>
+      <c r="AS62" s="102"/>
+      <c r="AT62" s="102"/>
+      <c r="AU62" s="102"/>
+      <c r="AV62" s="102"/>
+      <c r="AW62" s="102"/>
+      <c r="AX62" s="102"/>
+      <c r="AY62" s="103"/>
       <c r="AZ62" s="5"/>
       <c r="BA62" s="6"/>
       <c r="BH62" s="4"/>
-      <c r="BI62" s="109">
+      <c r="BI62" s="44">
         <v>44141</v>
       </c>
-      <c r="BJ62" s="95"/>
-      <c r="BK62" s="95"/>
-      <c r="BL62" s="95"/>
-      <c r="BM62" s="96"/>
-      <c r="BN62" s="110">
+      <c r="BJ62" s="45"/>
+      <c r="BK62" s="45"/>
+      <c r="BL62" s="45"/>
+      <c r="BM62" s="46"/>
+      <c r="BN62" s="56">
         <v>0.27083333333333331</v>
       </c>
-      <c r="BO62" s="95"/>
-      <c r="BP62" s="95"/>
-      <c r="BQ62" s="95"/>
-      <c r="BR62" s="96"/>
-      <c r="BS62" s="110">
+      <c r="BO62" s="45"/>
+      <c r="BP62" s="45"/>
+      <c r="BQ62" s="45"/>
+      <c r="BR62" s="46"/>
+      <c r="BS62" s="56">
         <v>0.14930555555555555</v>
       </c>
-      <c r="BT62" s="95"/>
-      <c r="BU62" s="95"/>
-      <c r="BV62" s="95"/>
-      <c r="BW62" s="96"/>
-      <c r="BX62" s="97">
+      <c r="BT62" s="45"/>
+      <c r="BU62" s="45"/>
+      <c r="BV62" s="45"/>
+      <c r="BW62" s="46"/>
+      <c r="BX62" s="51">
         <v>8</v>
       </c>
-      <c r="BY62" s="95"/>
-      <c r="BZ62" s="95"/>
-      <c r="CA62" s="95"/>
-      <c r="CB62" s="108"/>
+      <c r="BY62" s="45"/>
+      <c r="BZ62" s="45"/>
+      <c r="CA62" s="45"/>
+      <c r="CB62" s="52"/>
       <c r="CC62" s="5"/>
-      <c r="CD62" s="109">
+      <c r="CD62" s="44">
         <v>44156</v>
       </c>
-      <c r="CE62" s="95"/>
-      <c r="CF62" s="95"/>
-      <c r="CG62" s="95"/>
-      <c r="CH62" s="96"/>
-      <c r="CI62" s="97"/>
-      <c r="CJ62" s="95"/>
-      <c r="CK62" s="95"/>
-      <c r="CL62" s="95"/>
-      <c r="CM62" s="96"/>
-      <c r="CN62" s="97"/>
-      <c r="CO62" s="95"/>
-      <c r="CP62" s="95"/>
-      <c r="CQ62" s="95"/>
-      <c r="CR62" s="96"/>
-      <c r="CS62" s="97"/>
-      <c r="CT62" s="95"/>
-      <c r="CU62" s="95"/>
-      <c r="CV62" s="95"/>
-      <c r="CW62" s="108"/>
+      <c r="CE62" s="45"/>
+      <c r="CF62" s="45"/>
+      <c r="CG62" s="45"/>
+      <c r="CH62" s="46"/>
+      <c r="CI62" s="51"/>
+      <c r="CJ62" s="45"/>
+      <c r="CK62" s="45"/>
+      <c r="CL62" s="45"/>
+      <c r="CM62" s="46"/>
+      <c r="CN62" s="51"/>
+      <c r="CO62" s="45"/>
+      <c r="CP62" s="45"/>
+      <c r="CQ62" s="45"/>
+      <c r="CR62" s="46"/>
+      <c r="CS62" s="51"/>
+      <c r="CT62" s="45"/>
+      <c r="CU62" s="45"/>
+      <c r="CV62" s="45"/>
+      <c r="CW62" s="52"/>
       <c r="CX62" s="6"/>
     </row>
     <row r="63" spans="9:102" x14ac:dyDescent="0.25">
@@ -6590,17 +7438,17 @@
       <c r="J63" s="5"/>
       <c r="K63" s="5"/>
       <c r="L63" s="5"/>
-      <c r="M63" s="49" t="s">
+      <c r="M63" s="100" t="s">
         <v>49</v>
       </c>
-      <c r="N63" s="49"/>
-      <c r="O63" s="49"/>
-      <c r="P63" s="49"/>
-      <c r="Q63" s="49"/>
-      <c r="R63" s="49"/>
-      <c r="S63" s="49"/>
-      <c r="T63" s="49"/>
-      <c r="U63" s="49"/>
+      <c r="N63" s="100"/>
+      <c r="O63" s="100"/>
+      <c r="P63" s="100"/>
+      <c r="Q63" s="100"/>
+      <c r="R63" s="100"/>
+      <c r="S63" s="100"/>
+      <c r="T63" s="100"/>
+      <c r="U63" s="100"/>
       <c r="V63" s="5"/>
       <c r="W63" s="5"/>
       <c r="X63" s="5"/>
@@ -6609,76 +7457,76 @@
       <c r="AA63" s="5"/>
       <c r="AB63" s="5"/>
       <c r="AC63" s="5"/>
-      <c r="AD63" s="54"/>
-      <c r="AE63" s="55"/>
-      <c r="AF63" s="55"/>
-      <c r="AG63" s="55"/>
-      <c r="AH63" s="55"/>
-      <c r="AI63" s="55"/>
-      <c r="AJ63" s="55"/>
-      <c r="AK63" s="55"/>
-      <c r="AL63" s="55"/>
-      <c r="AM63" s="55"/>
-      <c r="AN63" s="55"/>
-      <c r="AO63" s="55"/>
-      <c r="AP63" s="55"/>
-      <c r="AQ63" s="55"/>
-      <c r="AR63" s="55"/>
-      <c r="AS63" s="55"/>
-      <c r="AT63" s="55"/>
-      <c r="AU63" s="55"/>
-      <c r="AV63" s="55"/>
-      <c r="AW63" s="55"/>
-      <c r="AX63" s="55"/>
-      <c r="AY63" s="56"/>
+      <c r="AD63" s="104"/>
+      <c r="AE63" s="105"/>
+      <c r="AF63" s="105"/>
+      <c r="AG63" s="105"/>
+      <c r="AH63" s="105"/>
+      <c r="AI63" s="105"/>
+      <c r="AJ63" s="105"/>
+      <c r="AK63" s="105"/>
+      <c r="AL63" s="105"/>
+      <c r="AM63" s="105"/>
+      <c r="AN63" s="105"/>
+      <c r="AO63" s="105"/>
+      <c r="AP63" s="105"/>
+      <c r="AQ63" s="105"/>
+      <c r="AR63" s="105"/>
+      <c r="AS63" s="105"/>
+      <c r="AT63" s="105"/>
+      <c r="AU63" s="105"/>
+      <c r="AV63" s="105"/>
+      <c r="AW63" s="105"/>
+      <c r="AX63" s="105"/>
+      <c r="AY63" s="106"/>
       <c r="AZ63" s="5"/>
       <c r="BA63" s="6"/>
       <c r="BH63" s="4"/>
-      <c r="BI63" s="109">
+      <c r="BI63" s="44">
         <v>44142</v>
       </c>
-      <c r="BJ63" s="95"/>
-      <c r="BK63" s="95"/>
-      <c r="BL63" s="95"/>
-      <c r="BM63" s="96"/>
-      <c r="BN63" s="61"/>
-      <c r="BO63" s="62"/>
-      <c r="BP63" s="62"/>
-      <c r="BQ63" s="62"/>
-      <c r="BR63" s="63"/>
-      <c r="BS63" s="61"/>
-      <c r="BT63" s="62"/>
-      <c r="BU63" s="62"/>
-      <c r="BV63" s="62"/>
-      <c r="BW63" s="63"/>
-      <c r="BX63" s="61"/>
-      <c r="BY63" s="62"/>
-      <c r="BZ63" s="62"/>
-      <c r="CA63" s="62"/>
-      <c r="CB63" s="107"/>
+      <c r="BJ63" s="45"/>
+      <c r="BK63" s="45"/>
+      <c r="BL63" s="45"/>
+      <c r="BM63" s="46"/>
+      <c r="BN63" s="47"/>
+      <c r="BO63" s="48"/>
+      <c r="BP63" s="48"/>
+      <c r="BQ63" s="48"/>
+      <c r="BR63" s="49"/>
+      <c r="BS63" s="47"/>
+      <c r="BT63" s="48"/>
+      <c r="BU63" s="48"/>
+      <c r="BV63" s="48"/>
+      <c r="BW63" s="49"/>
+      <c r="BX63" s="47"/>
+      <c r="BY63" s="48"/>
+      <c r="BZ63" s="48"/>
+      <c r="CA63" s="48"/>
+      <c r="CB63" s="50"/>
       <c r="CC63" s="5"/>
-      <c r="CD63" s="109">
+      <c r="CD63" s="44">
         <v>44157</v>
       </c>
-      <c r="CE63" s="95"/>
-      <c r="CF63" s="95"/>
-      <c r="CG63" s="95"/>
-      <c r="CH63" s="96"/>
-      <c r="CI63" s="61"/>
-      <c r="CJ63" s="62"/>
-      <c r="CK63" s="62"/>
-      <c r="CL63" s="62"/>
-      <c r="CM63" s="63"/>
-      <c r="CN63" s="61"/>
-      <c r="CO63" s="62"/>
-      <c r="CP63" s="62"/>
-      <c r="CQ63" s="62"/>
-      <c r="CR63" s="63"/>
-      <c r="CS63" s="61"/>
-      <c r="CT63" s="62"/>
-      <c r="CU63" s="62"/>
-      <c r="CV63" s="62"/>
-      <c r="CW63" s="107"/>
+      <c r="CE63" s="45"/>
+      <c r="CF63" s="45"/>
+      <c r="CG63" s="45"/>
+      <c r="CH63" s="46"/>
+      <c r="CI63" s="47"/>
+      <c r="CJ63" s="48"/>
+      <c r="CK63" s="48"/>
+      <c r="CL63" s="48"/>
+      <c r="CM63" s="49"/>
+      <c r="CN63" s="47"/>
+      <c r="CO63" s="48"/>
+      <c r="CP63" s="48"/>
+      <c r="CQ63" s="48"/>
+      <c r="CR63" s="49"/>
+      <c r="CS63" s="47"/>
+      <c r="CT63" s="48"/>
+      <c r="CU63" s="48"/>
+      <c r="CV63" s="48"/>
+      <c r="CW63" s="50"/>
       <c r="CX63" s="6"/>
     </row>
     <row r="64" spans="9:102" x14ac:dyDescent="0.25">
@@ -6703,76 +7551,76 @@
       <c r="AA64" s="5"/>
       <c r="AB64" s="5"/>
       <c r="AC64" s="5"/>
-      <c r="AD64" s="54"/>
-      <c r="AE64" s="55"/>
-      <c r="AF64" s="55"/>
-      <c r="AG64" s="55"/>
-      <c r="AH64" s="55"/>
-      <c r="AI64" s="55"/>
-      <c r="AJ64" s="55"/>
-      <c r="AK64" s="55"/>
-      <c r="AL64" s="55"/>
-      <c r="AM64" s="55"/>
-      <c r="AN64" s="55"/>
-      <c r="AO64" s="55"/>
-      <c r="AP64" s="55"/>
-      <c r="AQ64" s="55"/>
-      <c r="AR64" s="55"/>
-      <c r="AS64" s="55"/>
-      <c r="AT64" s="55"/>
-      <c r="AU64" s="55"/>
-      <c r="AV64" s="55"/>
-      <c r="AW64" s="55"/>
-      <c r="AX64" s="55"/>
-      <c r="AY64" s="56"/>
+      <c r="AD64" s="104"/>
+      <c r="AE64" s="105"/>
+      <c r="AF64" s="105"/>
+      <c r="AG64" s="105"/>
+      <c r="AH64" s="105"/>
+      <c r="AI64" s="105"/>
+      <c r="AJ64" s="105"/>
+      <c r="AK64" s="105"/>
+      <c r="AL64" s="105"/>
+      <c r="AM64" s="105"/>
+      <c r="AN64" s="105"/>
+      <c r="AO64" s="105"/>
+      <c r="AP64" s="105"/>
+      <c r="AQ64" s="105"/>
+      <c r="AR64" s="105"/>
+      <c r="AS64" s="105"/>
+      <c r="AT64" s="105"/>
+      <c r="AU64" s="105"/>
+      <c r="AV64" s="105"/>
+      <c r="AW64" s="105"/>
+      <c r="AX64" s="105"/>
+      <c r="AY64" s="106"/>
       <c r="AZ64" s="5"/>
       <c r="BA64" s="6"/>
       <c r="BH64" s="4"/>
-      <c r="BI64" s="109">
+      <c r="BI64" s="44">
         <v>44143</v>
       </c>
-      <c r="BJ64" s="95"/>
-      <c r="BK64" s="95"/>
-      <c r="BL64" s="95"/>
-      <c r="BM64" s="96"/>
-      <c r="BN64" s="97"/>
-      <c r="BO64" s="95"/>
-      <c r="BP64" s="95"/>
-      <c r="BQ64" s="95"/>
-      <c r="BR64" s="96"/>
-      <c r="BS64" s="97"/>
-      <c r="BT64" s="95"/>
-      <c r="BU64" s="95"/>
-      <c r="BV64" s="95"/>
-      <c r="BW64" s="96"/>
-      <c r="BX64" s="97"/>
-      <c r="BY64" s="95"/>
-      <c r="BZ64" s="95"/>
-      <c r="CA64" s="95"/>
-      <c r="CB64" s="108"/>
+      <c r="BJ64" s="45"/>
+      <c r="BK64" s="45"/>
+      <c r="BL64" s="45"/>
+      <c r="BM64" s="46"/>
+      <c r="BN64" s="51"/>
+      <c r="BO64" s="45"/>
+      <c r="BP64" s="45"/>
+      <c r="BQ64" s="45"/>
+      <c r="BR64" s="46"/>
+      <c r="BS64" s="51"/>
+      <c r="BT64" s="45"/>
+      <c r="BU64" s="45"/>
+      <c r="BV64" s="45"/>
+      <c r="BW64" s="46"/>
+      <c r="BX64" s="51"/>
+      <c r="BY64" s="45"/>
+      <c r="BZ64" s="45"/>
+      <c r="CA64" s="45"/>
+      <c r="CB64" s="52"/>
       <c r="CC64" s="5"/>
-      <c r="CD64" s="109">
+      <c r="CD64" s="44">
         <v>44158</v>
       </c>
-      <c r="CE64" s="95"/>
-      <c r="CF64" s="95"/>
-      <c r="CG64" s="95"/>
-      <c r="CH64" s="96"/>
-      <c r="CI64" s="97"/>
-      <c r="CJ64" s="95"/>
-      <c r="CK64" s="95"/>
-      <c r="CL64" s="95"/>
-      <c r="CM64" s="96"/>
-      <c r="CN64" s="97"/>
-      <c r="CO64" s="95"/>
-      <c r="CP64" s="95"/>
-      <c r="CQ64" s="95"/>
-      <c r="CR64" s="96"/>
-      <c r="CS64" s="97"/>
-      <c r="CT64" s="95"/>
-      <c r="CU64" s="95"/>
-      <c r="CV64" s="95"/>
-      <c r="CW64" s="108"/>
+      <c r="CE64" s="45"/>
+      <c r="CF64" s="45"/>
+      <c r="CG64" s="45"/>
+      <c r="CH64" s="46"/>
+      <c r="CI64" s="51"/>
+      <c r="CJ64" s="45"/>
+      <c r="CK64" s="45"/>
+      <c r="CL64" s="45"/>
+      <c r="CM64" s="46"/>
+      <c r="CN64" s="51"/>
+      <c r="CO64" s="45"/>
+      <c r="CP64" s="45"/>
+      <c r="CQ64" s="45"/>
+      <c r="CR64" s="46"/>
+      <c r="CS64" s="51"/>
+      <c r="CT64" s="45"/>
+      <c r="CU64" s="45"/>
+      <c r="CV64" s="45"/>
+      <c r="CW64" s="52"/>
       <c r="CX64" s="6"/>
     </row>
     <row r="65" spans="9:102" x14ac:dyDescent="0.25">
@@ -6797,76 +7645,76 @@
       <c r="AA65" s="5"/>
       <c r="AB65" s="5"/>
       <c r="AC65" s="5"/>
-      <c r="AD65" s="54"/>
-      <c r="AE65" s="55"/>
-      <c r="AF65" s="55"/>
-      <c r="AG65" s="55"/>
-      <c r="AH65" s="55"/>
-      <c r="AI65" s="55"/>
-      <c r="AJ65" s="55"/>
-      <c r="AK65" s="55"/>
-      <c r="AL65" s="55"/>
-      <c r="AM65" s="55"/>
-      <c r="AN65" s="55"/>
-      <c r="AO65" s="55"/>
-      <c r="AP65" s="55"/>
-      <c r="AQ65" s="55"/>
-      <c r="AR65" s="55"/>
-      <c r="AS65" s="55"/>
-      <c r="AT65" s="55"/>
-      <c r="AU65" s="55"/>
-      <c r="AV65" s="55"/>
-      <c r="AW65" s="55"/>
-      <c r="AX65" s="55"/>
-      <c r="AY65" s="56"/>
+      <c r="AD65" s="104"/>
+      <c r="AE65" s="105"/>
+      <c r="AF65" s="105"/>
+      <c r="AG65" s="105"/>
+      <c r="AH65" s="105"/>
+      <c r="AI65" s="105"/>
+      <c r="AJ65" s="105"/>
+      <c r="AK65" s="105"/>
+      <c r="AL65" s="105"/>
+      <c r="AM65" s="105"/>
+      <c r="AN65" s="105"/>
+      <c r="AO65" s="105"/>
+      <c r="AP65" s="105"/>
+      <c r="AQ65" s="105"/>
+      <c r="AR65" s="105"/>
+      <c r="AS65" s="105"/>
+      <c r="AT65" s="105"/>
+      <c r="AU65" s="105"/>
+      <c r="AV65" s="105"/>
+      <c r="AW65" s="105"/>
+      <c r="AX65" s="105"/>
+      <c r="AY65" s="106"/>
       <c r="AZ65" s="5"/>
       <c r="BA65" s="6"/>
       <c r="BH65" s="4"/>
-      <c r="BI65" s="109">
+      <c r="BI65" s="44">
         <v>44144</v>
       </c>
-      <c r="BJ65" s="95"/>
-      <c r="BK65" s="95"/>
-      <c r="BL65" s="95"/>
-      <c r="BM65" s="96"/>
-      <c r="BN65" s="61"/>
-      <c r="BO65" s="62"/>
-      <c r="BP65" s="62"/>
-      <c r="BQ65" s="62"/>
-      <c r="BR65" s="63"/>
-      <c r="BS65" s="61"/>
-      <c r="BT65" s="62"/>
-      <c r="BU65" s="62"/>
-      <c r="BV65" s="62"/>
-      <c r="BW65" s="63"/>
-      <c r="BX65" s="61"/>
-      <c r="BY65" s="62"/>
-      <c r="BZ65" s="62"/>
-      <c r="CA65" s="62"/>
-      <c r="CB65" s="107"/>
+      <c r="BJ65" s="45"/>
+      <c r="BK65" s="45"/>
+      <c r="BL65" s="45"/>
+      <c r="BM65" s="46"/>
+      <c r="BN65" s="47"/>
+      <c r="BO65" s="48"/>
+      <c r="BP65" s="48"/>
+      <c r="BQ65" s="48"/>
+      <c r="BR65" s="49"/>
+      <c r="BS65" s="47"/>
+      <c r="BT65" s="48"/>
+      <c r="BU65" s="48"/>
+      <c r="BV65" s="48"/>
+      <c r="BW65" s="49"/>
+      <c r="BX65" s="47"/>
+      <c r="BY65" s="48"/>
+      <c r="BZ65" s="48"/>
+      <c r="CA65" s="48"/>
+      <c r="CB65" s="50"/>
       <c r="CC65" s="5"/>
-      <c r="CD65" s="109">
+      <c r="CD65" s="44">
         <v>44159</v>
       </c>
-      <c r="CE65" s="95"/>
-      <c r="CF65" s="95"/>
-      <c r="CG65" s="95"/>
-      <c r="CH65" s="96"/>
-      <c r="CI65" s="61"/>
-      <c r="CJ65" s="62"/>
-      <c r="CK65" s="62"/>
-      <c r="CL65" s="62"/>
-      <c r="CM65" s="63"/>
-      <c r="CN65" s="61"/>
-      <c r="CO65" s="62"/>
-      <c r="CP65" s="62"/>
-      <c r="CQ65" s="62"/>
-      <c r="CR65" s="63"/>
-      <c r="CS65" s="61"/>
-      <c r="CT65" s="62"/>
-      <c r="CU65" s="62"/>
-      <c r="CV65" s="62"/>
-      <c r="CW65" s="107"/>
+      <c r="CE65" s="45"/>
+      <c r="CF65" s="45"/>
+      <c r="CG65" s="45"/>
+      <c r="CH65" s="46"/>
+      <c r="CI65" s="47"/>
+      <c r="CJ65" s="48"/>
+      <c r="CK65" s="48"/>
+      <c r="CL65" s="48"/>
+      <c r="CM65" s="49"/>
+      <c r="CN65" s="47"/>
+      <c r="CO65" s="48"/>
+      <c r="CP65" s="48"/>
+      <c r="CQ65" s="48"/>
+      <c r="CR65" s="49"/>
+      <c r="CS65" s="47"/>
+      <c r="CT65" s="48"/>
+      <c r="CU65" s="48"/>
+      <c r="CV65" s="48"/>
+      <c r="CW65" s="50"/>
       <c r="CX65" s="6"/>
     </row>
     <row r="66" spans="9:102" x14ac:dyDescent="0.25">
@@ -6890,76 +7738,76 @@
       <c r="AA66" s="13"/>
       <c r="AB66" s="13"/>
       <c r="AC66" s="13"/>
-      <c r="AD66" s="54"/>
-      <c r="AE66" s="55"/>
-      <c r="AF66" s="55"/>
-      <c r="AG66" s="55"/>
-      <c r="AH66" s="55"/>
-      <c r="AI66" s="55"/>
-      <c r="AJ66" s="55"/>
-      <c r="AK66" s="55"/>
-      <c r="AL66" s="55"/>
-      <c r="AM66" s="55"/>
-      <c r="AN66" s="55"/>
-      <c r="AO66" s="55"/>
-      <c r="AP66" s="55"/>
-      <c r="AQ66" s="55"/>
-      <c r="AR66" s="55"/>
-      <c r="AS66" s="55"/>
-      <c r="AT66" s="55"/>
-      <c r="AU66" s="55"/>
-      <c r="AV66" s="55"/>
-      <c r="AW66" s="55"/>
-      <c r="AX66" s="55"/>
-      <c r="AY66" s="56"/>
+      <c r="AD66" s="104"/>
+      <c r="AE66" s="105"/>
+      <c r="AF66" s="105"/>
+      <c r="AG66" s="105"/>
+      <c r="AH66" s="105"/>
+      <c r="AI66" s="105"/>
+      <c r="AJ66" s="105"/>
+      <c r="AK66" s="105"/>
+      <c r="AL66" s="105"/>
+      <c r="AM66" s="105"/>
+      <c r="AN66" s="105"/>
+      <c r="AO66" s="105"/>
+      <c r="AP66" s="105"/>
+      <c r="AQ66" s="105"/>
+      <c r="AR66" s="105"/>
+      <c r="AS66" s="105"/>
+      <c r="AT66" s="105"/>
+      <c r="AU66" s="105"/>
+      <c r="AV66" s="105"/>
+      <c r="AW66" s="105"/>
+      <c r="AX66" s="105"/>
+      <c r="AY66" s="106"/>
       <c r="AZ66" s="5"/>
       <c r="BA66" s="6"/>
       <c r="BH66" s="4"/>
-      <c r="BI66" s="109">
+      <c r="BI66" s="44">
         <v>44145</v>
       </c>
-      <c r="BJ66" s="95"/>
-      <c r="BK66" s="95"/>
-      <c r="BL66" s="95"/>
-      <c r="BM66" s="96"/>
-      <c r="BN66" s="97"/>
-      <c r="BO66" s="95"/>
-      <c r="BP66" s="95"/>
-      <c r="BQ66" s="95"/>
-      <c r="BR66" s="96"/>
-      <c r="BS66" s="97"/>
-      <c r="BT66" s="95"/>
-      <c r="BU66" s="95"/>
-      <c r="BV66" s="95"/>
-      <c r="BW66" s="96"/>
-      <c r="BX66" s="97"/>
-      <c r="BY66" s="95"/>
-      <c r="BZ66" s="95"/>
-      <c r="CA66" s="95"/>
-      <c r="CB66" s="108"/>
+      <c r="BJ66" s="45"/>
+      <c r="BK66" s="45"/>
+      <c r="BL66" s="45"/>
+      <c r="BM66" s="46"/>
+      <c r="BN66" s="51"/>
+      <c r="BO66" s="45"/>
+      <c r="BP66" s="45"/>
+      <c r="BQ66" s="45"/>
+      <c r="BR66" s="46"/>
+      <c r="BS66" s="51"/>
+      <c r="BT66" s="45"/>
+      <c r="BU66" s="45"/>
+      <c r="BV66" s="45"/>
+      <c r="BW66" s="46"/>
+      <c r="BX66" s="51"/>
+      <c r="BY66" s="45"/>
+      <c r="BZ66" s="45"/>
+      <c r="CA66" s="45"/>
+      <c r="CB66" s="52"/>
       <c r="CC66" s="5"/>
-      <c r="CD66" s="109">
+      <c r="CD66" s="44">
         <v>44160</v>
       </c>
-      <c r="CE66" s="95"/>
-      <c r="CF66" s="95"/>
-      <c r="CG66" s="95"/>
-      <c r="CH66" s="96"/>
-      <c r="CI66" s="97"/>
-      <c r="CJ66" s="95"/>
-      <c r="CK66" s="95"/>
-      <c r="CL66" s="95"/>
-      <c r="CM66" s="96"/>
-      <c r="CN66" s="97"/>
-      <c r="CO66" s="95"/>
-      <c r="CP66" s="95"/>
-      <c r="CQ66" s="95"/>
-      <c r="CR66" s="96"/>
-      <c r="CS66" s="97"/>
-      <c r="CT66" s="95"/>
-      <c r="CU66" s="95"/>
-      <c r="CV66" s="95"/>
-      <c r="CW66" s="108"/>
+      <c r="CE66" s="45"/>
+      <c r="CF66" s="45"/>
+      <c r="CG66" s="45"/>
+      <c r="CH66" s="46"/>
+      <c r="CI66" s="51"/>
+      <c r="CJ66" s="45"/>
+      <c r="CK66" s="45"/>
+      <c r="CL66" s="45"/>
+      <c r="CM66" s="46"/>
+      <c r="CN66" s="51"/>
+      <c r="CO66" s="45"/>
+      <c r="CP66" s="45"/>
+      <c r="CQ66" s="45"/>
+      <c r="CR66" s="46"/>
+      <c r="CS66" s="51"/>
+      <c r="CT66" s="45"/>
+      <c r="CU66" s="45"/>
+      <c r="CV66" s="45"/>
+      <c r="CW66" s="52"/>
       <c r="CX66" s="6"/>
     </row>
     <row r="67" spans="9:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -6984,76 +7832,76 @@
       <c r="AA67" s="13"/>
       <c r="AB67" s="13"/>
       <c r="AC67" s="13"/>
-      <c r="AD67" s="57"/>
-      <c r="AE67" s="58"/>
-      <c r="AF67" s="58"/>
-      <c r="AG67" s="58"/>
-      <c r="AH67" s="58"/>
-      <c r="AI67" s="58"/>
-      <c r="AJ67" s="58"/>
-      <c r="AK67" s="58"/>
-      <c r="AL67" s="58"/>
-      <c r="AM67" s="58"/>
-      <c r="AN67" s="58"/>
-      <c r="AO67" s="58"/>
-      <c r="AP67" s="58"/>
-      <c r="AQ67" s="58"/>
-      <c r="AR67" s="58"/>
-      <c r="AS67" s="58"/>
-      <c r="AT67" s="58"/>
-      <c r="AU67" s="58"/>
-      <c r="AV67" s="58"/>
-      <c r="AW67" s="58"/>
-      <c r="AX67" s="58"/>
-      <c r="AY67" s="59"/>
+      <c r="AD67" s="107"/>
+      <c r="AE67" s="108"/>
+      <c r="AF67" s="108"/>
+      <c r="AG67" s="108"/>
+      <c r="AH67" s="108"/>
+      <c r="AI67" s="108"/>
+      <c r="AJ67" s="108"/>
+      <c r="AK67" s="108"/>
+      <c r="AL67" s="108"/>
+      <c r="AM67" s="108"/>
+      <c r="AN67" s="108"/>
+      <c r="AO67" s="108"/>
+      <c r="AP67" s="108"/>
+      <c r="AQ67" s="108"/>
+      <c r="AR67" s="108"/>
+      <c r="AS67" s="108"/>
+      <c r="AT67" s="108"/>
+      <c r="AU67" s="108"/>
+      <c r="AV67" s="108"/>
+      <c r="AW67" s="108"/>
+      <c r="AX67" s="108"/>
+      <c r="AY67" s="109"/>
       <c r="AZ67" s="5"/>
       <c r="BA67" s="6"/>
       <c r="BH67" s="4"/>
-      <c r="BI67" s="109">
+      <c r="BI67" s="44">
         <v>44146</v>
       </c>
-      <c r="BJ67" s="95"/>
-      <c r="BK67" s="95"/>
-      <c r="BL67" s="95"/>
-      <c r="BM67" s="96"/>
-      <c r="BN67" s="61"/>
-      <c r="BO67" s="62"/>
-      <c r="BP67" s="62"/>
-      <c r="BQ67" s="62"/>
-      <c r="BR67" s="63"/>
-      <c r="BS67" s="61"/>
-      <c r="BT67" s="62"/>
-      <c r="BU67" s="62"/>
-      <c r="BV67" s="62"/>
-      <c r="BW67" s="63"/>
-      <c r="BX67" s="61"/>
-      <c r="BY67" s="62"/>
-      <c r="BZ67" s="62"/>
-      <c r="CA67" s="62"/>
-      <c r="CB67" s="107"/>
+      <c r="BJ67" s="45"/>
+      <c r="BK67" s="45"/>
+      <c r="BL67" s="45"/>
+      <c r="BM67" s="46"/>
+      <c r="BN67" s="47"/>
+      <c r="BO67" s="48"/>
+      <c r="BP67" s="48"/>
+      <c r="BQ67" s="48"/>
+      <c r="BR67" s="49"/>
+      <c r="BS67" s="47"/>
+      <c r="BT67" s="48"/>
+      <c r="BU67" s="48"/>
+      <c r="BV67" s="48"/>
+      <c r="BW67" s="49"/>
+      <c r="BX67" s="47"/>
+      <c r="BY67" s="48"/>
+      <c r="BZ67" s="48"/>
+      <c r="CA67" s="48"/>
+      <c r="CB67" s="50"/>
       <c r="CC67" s="5"/>
-      <c r="CD67" s="109">
+      <c r="CD67" s="44">
         <v>44161</v>
       </c>
-      <c r="CE67" s="95"/>
-      <c r="CF67" s="95"/>
-      <c r="CG67" s="95"/>
-      <c r="CH67" s="96"/>
-      <c r="CI67" s="61"/>
-      <c r="CJ67" s="62"/>
-      <c r="CK67" s="62"/>
-      <c r="CL67" s="62"/>
-      <c r="CM67" s="63"/>
-      <c r="CN67" s="61"/>
-      <c r="CO67" s="62"/>
-      <c r="CP67" s="62"/>
-      <c r="CQ67" s="62"/>
-      <c r="CR67" s="63"/>
-      <c r="CS67" s="61"/>
-      <c r="CT67" s="62"/>
-      <c r="CU67" s="62"/>
-      <c r="CV67" s="62"/>
-      <c r="CW67" s="107"/>
+      <c r="CE67" s="45"/>
+      <c r="CF67" s="45"/>
+      <c r="CG67" s="45"/>
+      <c r="CH67" s="46"/>
+      <c r="CI67" s="47"/>
+      <c r="CJ67" s="48"/>
+      <c r="CK67" s="48"/>
+      <c r="CL67" s="48"/>
+      <c r="CM67" s="49"/>
+      <c r="CN67" s="47"/>
+      <c r="CO67" s="48"/>
+      <c r="CP67" s="48"/>
+      <c r="CQ67" s="48"/>
+      <c r="CR67" s="49"/>
+      <c r="CS67" s="47"/>
+      <c r="CT67" s="48"/>
+      <c r="CU67" s="48"/>
+      <c r="CV67" s="48"/>
+      <c r="CW67" s="50"/>
       <c r="CX67" s="6"/>
     </row>
     <row r="68" spans="9:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7095,145 +7943,145 @@
       <c r="AZ68" s="5"/>
       <c r="BA68" s="6"/>
       <c r="BH68" s="4"/>
-      <c r="BI68" s="109">
+      <c r="BI68" s="44">
         <v>44147</v>
       </c>
-      <c r="BJ68" s="95"/>
-      <c r="BK68" s="95"/>
-      <c r="BL68" s="95"/>
-      <c r="BM68" s="96"/>
-      <c r="BN68" s="97"/>
-      <c r="BO68" s="95"/>
-      <c r="BP68" s="95"/>
-      <c r="BQ68" s="95"/>
-      <c r="BR68" s="96"/>
-      <c r="BS68" s="97"/>
-      <c r="BT68" s="95"/>
-      <c r="BU68" s="95"/>
-      <c r="BV68" s="95"/>
-      <c r="BW68" s="96"/>
-      <c r="BX68" s="97"/>
-      <c r="BY68" s="95"/>
-      <c r="BZ68" s="95"/>
-      <c r="CA68" s="95"/>
-      <c r="CB68" s="108"/>
+      <c r="BJ68" s="45"/>
+      <c r="BK68" s="45"/>
+      <c r="BL68" s="45"/>
+      <c r="BM68" s="46"/>
+      <c r="BN68" s="51"/>
+      <c r="BO68" s="45"/>
+      <c r="BP68" s="45"/>
+      <c r="BQ68" s="45"/>
+      <c r="BR68" s="46"/>
+      <c r="BS68" s="51"/>
+      <c r="BT68" s="45"/>
+      <c r="BU68" s="45"/>
+      <c r="BV68" s="45"/>
+      <c r="BW68" s="46"/>
+      <c r="BX68" s="51"/>
+      <c r="BY68" s="45"/>
+      <c r="BZ68" s="45"/>
+      <c r="CA68" s="45"/>
+      <c r="CB68" s="52"/>
       <c r="CC68" s="5"/>
-      <c r="CD68" s="109">
+      <c r="CD68" s="44">
         <v>44162</v>
       </c>
-      <c r="CE68" s="95"/>
-      <c r="CF68" s="95"/>
-      <c r="CG68" s="95"/>
-      <c r="CH68" s="96"/>
-      <c r="CI68" s="97"/>
-      <c r="CJ68" s="95"/>
-      <c r="CK68" s="95"/>
-      <c r="CL68" s="95"/>
-      <c r="CM68" s="96"/>
-      <c r="CN68" s="97"/>
-      <c r="CO68" s="95"/>
-      <c r="CP68" s="95"/>
-      <c r="CQ68" s="95"/>
-      <c r="CR68" s="96"/>
-      <c r="CS68" s="97"/>
-      <c r="CT68" s="95"/>
-      <c r="CU68" s="95"/>
-      <c r="CV68" s="95"/>
-      <c r="CW68" s="108"/>
+      <c r="CE68" s="45"/>
+      <c r="CF68" s="45"/>
+      <c r="CG68" s="45"/>
+      <c r="CH68" s="46"/>
+      <c r="CI68" s="51"/>
+      <c r="CJ68" s="45"/>
+      <c r="CK68" s="45"/>
+      <c r="CL68" s="45"/>
+      <c r="CM68" s="46"/>
+      <c r="CN68" s="51"/>
+      <c r="CO68" s="45"/>
+      <c r="CP68" s="45"/>
+      <c r="CQ68" s="45"/>
+      <c r="CR68" s="46"/>
+      <c r="CS68" s="51"/>
+      <c r="CT68" s="45"/>
+      <c r="CU68" s="45"/>
+      <c r="CV68" s="45"/>
+      <c r="CW68" s="52"/>
       <c r="CX68" s="6"/>
     </row>
     <row r="69" spans="9:102" x14ac:dyDescent="0.25">
       <c r="I69" s="4"/>
       <c r="J69" s="5"/>
       <c r="K69" s="5"/>
-      <c r="L69" s="50" t="s">
+      <c r="L69" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="M69" s="50"/>
-      <c r="N69" s="50"/>
-      <c r="O69" s="50"/>
-      <c r="P69" s="50"/>
-      <c r="Q69" s="50"/>
-      <c r="R69" s="50"/>
-      <c r="S69" s="50"/>
-      <c r="T69" s="50"/>
-      <c r="U69" s="50"/>
-      <c r="V69" s="50"/>
-      <c r="W69" s="50"/>
-      <c r="X69" s="50"/>
-      <c r="Y69" s="50"/>
-      <c r="Z69" s="50"/>
-      <c r="AA69" s="50"/>
-      <c r="AB69" s="50"/>
-      <c r="AC69" s="50"/>
-      <c r="AD69" s="50"/>
-      <c r="AE69" s="50"/>
-      <c r="AF69" s="50"/>
-      <c r="AG69" s="50"/>
-      <c r="AH69" s="50"/>
-      <c r="AI69" s="50"/>
-      <c r="AJ69" s="50"/>
-      <c r="AK69" s="50"/>
-      <c r="AL69" s="50"/>
-      <c r="AM69" s="50"/>
+      <c r="M69" s="86"/>
+      <c r="N69" s="86"/>
+      <c r="O69" s="86"/>
+      <c r="P69" s="86"/>
+      <c r="Q69" s="86"/>
+      <c r="R69" s="86"/>
+      <c r="S69" s="86"/>
+      <c r="T69" s="86"/>
+      <c r="U69" s="86"/>
+      <c r="V69" s="86"/>
+      <c r="W69" s="86"/>
+      <c r="X69" s="86"/>
+      <c r="Y69" s="86"/>
+      <c r="Z69" s="86"/>
+      <c r="AA69" s="86"/>
+      <c r="AB69" s="86"/>
+      <c r="AC69" s="86"/>
+      <c r="AD69" s="86"/>
+      <c r="AE69" s="86"/>
+      <c r="AF69" s="86"/>
+      <c r="AG69" s="86"/>
+      <c r="AH69" s="86"/>
+      <c r="AI69" s="86"/>
+      <c r="AJ69" s="86"/>
+      <c r="AK69" s="86"/>
+      <c r="AL69" s="86"/>
+      <c r="AM69" s="86"/>
       <c r="AN69" s="5"/>
-      <c r="AR69" s="43" t="s">
+      <c r="AR69" s="94" t="s">
         <v>39</v>
       </c>
-      <c r="AS69" s="44"/>
-      <c r="AT69" s="44"/>
-      <c r="AU69" s="44"/>
-      <c r="AV69" s="44"/>
-      <c r="AW69" s="44"/>
-      <c r="AX69" s="44"/>
-      <c r="AY69" s="45"/>
+      <c r="AS69" s="95"/>
+      <c r="AT69" s="95"/>
+      <c r="AU69" s="95"/>
+      <c r="AV69" s="95"/>
+      <c r="AW69" s="95"/>
+      <c r="AX69" s="95"/>
+      <c r="AY69" s="96"/>
       <c r="BA69" s="6"/>
       <c r="BH69" s="4"/>
-      <c r="BI69" s="109">
+      <c r="BI69" s="44">
         <v>44148</v>
       </c>
-      <c r="BJ69" s="95"/>
-      <c r="BK69" s="95"/>
-      <c r="BL69" s="95"/>
-      <c r="BM69" s="96"/>
-      <c r="BN69" s="61"/>
-      <c r="BO69" s="62"/>
-      <c r="BP69" s="62"/>
-      <c r="BQ69" s="62"/>
-      <c r="BR69" s="63"/>
-      <c r="BS69" s="61"/>
-      <c r="BT69" s="62"/>
-      <c r="BU69" s="62"/>
-      <c r="BV69" s="62"/>
-      <c r="BW69" s="63"/>
-      <c r="BX69" s="61"/>
-      <c r="BY69" s="62"/>
-      <c r="BZ69" s="62"/>
-      <c r="CA69" s="62"/>
-      <c r="CB69" s="107"/>
+      <c r="BJ69" s="45"/>
+      <c r="BK69" s="45"/>
+      <c r="BL69" s="45"/>
+      <c r="BM69" s="46"/>
+      <c r="BN69" s="47"/>
+      <c r="BO69" s="48"/>
+      <c r="BP69" s="48"/>
+      <c r="BQ69" s="48"/>
+      <c r="BR69" s="49"/>
+      <c r="BS69" s="47"/>
+      <c r="BT69" s="48"/>
+      <c r="BU69" s="48"/>
+      <c r="BV69" s="48"/>
+      <c r="BW69" s="49"/>
+      <c r="BX69" s="47"/>
+      <c r="BY69" s="48"/>
+      <c r="BZ69" s="48"/>
+      <c r="CA69" s="48"/>
+      <c r="CB69" s="50"/>
       <c r="CC69" s="5"/>
-      <c r="CD69" s="109">
+      <c r="CD69" s="44">
         <v>44163</v>
       </c>
-      <c r="CE69" s="95"/>
-      <c r="CF69" s="95"/>
-      <c r="CG69" s="95"/>
-      <c r="CH69" s="96"/>
-      <c r="CI69" s="61"/>
-      <c r="CJ69" s="62"/>
-      <c r="CK69" s="62"/>
-      <c r="CL69" s="62"/>
-      <c r="CM69" s="63"/>
-      <c r="CN69" s="61"/>
-      <c r="CO69" s="62"/>
-      <c r="CP69" s="62"/>
-      <c r="CQ69" s="62"/>
-      <c r="CR69" s="63"/>
-      <c r="CS69" s="61"/>
-      <c r="CT69" s="62"/>
-      <c r="CU69" s="62"/>
-      <c r="CV69" s="62"/>
-      <c r="CW69" s="107"/>
+      <c r="CE69" s="45"/>
+      <c r="CF69" s="45"/>
+      <c r="CG69" s="45"/>
+      <c r="CH69" s="46"/>
+      <c r="CI69" s="47"/>
+      <c r="CJ69" s="48"/>
+      <c r="CK69" s="48"/>
+      <c r="CL69" s="48"/>
+      <c r="CM69" s="49"/>
+      <c r="CN69" s="47"/>
+      <c r="CO69" s="48"/>
+      <c r="CP69" s="48"/>
+      <c r="CQ69" s="48"/>
+      <c r="CR69" s="49"/>
+      <c r="CS69" s="47"/>
+      <c r="CT69" s="48"/>
+      <c r="CU69" s="48"/>
+      <c r="CV69" s="48"/>
+      <c r="CW69" s="50"/>
       <c r="CX69" s="6"/>
     </row>
     <row r="70" spans="9:102" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -7261,14 +8109,14 @@
       <c r="AL70" s="5"/>
       <c r="AM70" s="5"/>
       <c r="AN70" s="5"/>
-      <c r="AR70" s="46"/>
-      <c r="AS70" s="47"/>
-      <c r="AT70" s="47"/>
-      <c r="AU70" s="47"/>
-      <c r="AV70" s="47"/>
-      <c r="AW70" s="47"/>
-      <c r="AX70" s="47"/>
-      <c r="AY70" s="48"/>
+      <c r="AR70" s="97"/>
+      <c r="AS70" s="98"/>
+      <c r="AT70" s="98"/>
+      <c r="AU70" s="98"/>
+      <c r="AV70" s="98"/>
+      <c r="AW70" s="98"/>
+      <c r="AX70" s="98"/>
+      <c r="AY70" s="99"/>
       <c r="BA70" s="6"/>
       <c r="BH70" s="4"/>
       <c r="BI70" s="4"/>
@@ -8028,113 +8876,91 @@
     </row>
   </sheetData>
   <mergeCells count="218">
-    <mergeCell ref="BI60:BQ60"/>
-    <mergeCell ref="CD60:CL60"/>
-    <mergeCell ref="CD67:CH67"/>
-    <mergeCell ref="CI67:CM67"/>
-    <mergeCell ref="CN67:CR67"/>
-    <mergeCell ref="CS67:CW67"/>
-    <mergeCell ref="CD68:CH68"/>
-    <mergeCell ref="CI68:CM68"/>
-    <mergeCell ref="CN68:CR68"/>
-    <mergeCell ref="CS68:CW68"/>
-    <mergeCell ref="CD69:CH69"/>
-    <mergeCell ref="CI69:CM69"/>
-    <mergeCell ref="CN69:CR69"/>
-    <mergeCell ref="CS69:CW69"/>
-    <mergeCell ref="CD64:CH64"/>
-    <mergeCell ref="CI64:CM64"/>
-    <mergeCell ref="CN64:CR64"/>
-    <mergeCell ref="CS64:CW64"/>
-    <mergeCell ref="CD65:CH65"/>
-    <mergeCell ref="CI65:CM65"/>
-    <mergeCell ref="CN65:CR65"/>
-    <mergeCell ref="CS65:CW65"/>
-    <mergeCell ref="CD66:CH66"/>
-    <mergeCell ref="CI66:CM66"/>
-    <mergeCell ref="CN66:CR66"/>
-    <mergeCell ref="CS66:CW66"/>
-    <mergeCell ref="BI67:BM67"/>
-    <mergeCell ref="BN67:BR67"/>
-    <mergeCell ref="BS67:BW67"/>
-    <mergeCell ref="BX67:CB67"/>
-    <mergeCell ref="BI68:BM68"/>
-    <mergeCell ref="BN68:BR68"/>
-    <mergeCell ref="BS68:BW68"/>
-    <mergeCell ref="BX68:CB68"/>
-    <mergeCell ref="BI69:BM69"/>
-    <mergeCell ref="BN69:BR69"/>
-    <mergeCell ref="BS69:BW69"/>
-    <mergeCell ref="BX69:CB69"/>
-    <mergeCell ref="BI64:BM64"/>
-    <mergeCell ref="BN64:BR64"/>
-    <mergeCell ref="BS64:BW64"/>
-    <mergeCell ref="BX64:CB64"/>
-    <mergeCell ref="BI65:BM65"/>
-    <mergeCell ref="BN65:BR65"/>
-    <mergeCell ref="BS65:BW65"/>
-    <mergeCell ref="BX65:CB65"/>
-    <mergeCell ref="BI66:BM66"/>
-    <mergeCell ref="BN66:BR66"/>
-    <mergeCell ref="BS66:BW66"/>
-    <mergeCell ref="BX66:CB66"/>
-    <mergeCell ref="BI63:BM63"/>
-    <mergeCell ref="BN63:BR63"/>
-    <mergeCell ref="BS63:BW63"/>
-    <mergeCell ref="BX63:CB63"/>
-    <mergeCell ref="CD62:CH62"/>
-    <mergeCell ref="CI62:CM62"/>
-    <mergeCell ref="CN62:CR62"/>
-    <mergeCell ref="CS62:CW62"/>
-    <mergeCell ref="CD63:CH63"/>
-    <mergeCell ref="CI63:CM63"/>
-    <mergeCell ref="CN63:CR63"/>
-    <mergeCell ref="CS63:CW63"/>
-    <mergeCell ref="BI61:BM61"/>
-    <mergeCell ref="BN61:BR61"/>
-    <mergeCell ref="BS61:BW61"/>
-    <mergeCell ref="BX61:CB61"/>
-    <mergeCell ref="CD61:CH61"/>
-    <mergeCell ref="CI61:CM61"/>
-    <mergeCell ref="CN61:CR61"/>
-    <mergeCell ref="CS61:CW61"/>
-    <mergeCell ref="BX62:CB62"/>
-    <mergeCell ref="BS62:BW62"/>
-    <mergeCell ref="BN62:BR62"/>
-    <mergeCell ref="BI62:BM62"/>
-    <mergeCell ref="AY45:BA45"/>
-    <mergeCell ref="AY40:BA40"/>
-    <mergeCell ref="AY41:BA41"/>
-    <mergeCell ref="AY42:BA42"/>
-    <mergeCell ref="AY43:BA43"/>
-    <mergeCell ref="AY44:BA44"/>
-    <mergeCell ref="AY35:BA35"/>
-    <mergeCell ref="AY36:BA36"/>
-    <mergeCell ref="AY37:BA37"/>
-    <mergeCell ref="AY38:BA38"/>
-    <mergeCell ref="AY39:BA39"/>
-    <mergeCell ref="K32:Q32"/>
-    <mergeCell ref="AP42:AX42"/>
-    <mergeCell ref="AP43:AX43"/>
-    <mergeCell ref="AP44:AX44"/>
-    <mergeCell ref="AP45:AX45"/>
-    <mergeCell ref="AH44:AO44"/>
-    <mergeCell ref="AH45:AO45"/>
-    <mergeCell ref="AP28:AX28"/>
-    <mergeCell ref="AP29:AX29"/>
-    <mergeCell ref="AP30:AX30"/>
-    <mergeCell ref="AP31:AX31"/>
-    <mergeCell ref="AP32:AX32"/>
-    <mergeCell ref="AP33:AX33"/>
-    <mergeCell ref="AP34:AX34"/>
-    <mergeCell ref="AP35:AX35"/>
-    <mergeCell ref="AP36:AX36"/>
-    <mergeCell ref="AP37:AX37"/>
-    <mergeCell ref="AP38:AX38"/>
-    <mergeCell ref="AP39:AX39"/>
-    <mergeCell ref="AP40:AX40"/>
-    <mergeCell ref="AP41:AX41"/>
-    <mergeCell ref="K39:Q39"/>
+    <mergeCell ref="AR69:AY70"/>
+    <mergeCell ref="M63:U63"/>
+    <mergeCell ref="L69:AM69"/>
+    <mergeCell ref="AD62:AY67"/>
+    <mergeCell ref="J54:R54"/>
+    <mergeCell ref="S54:AB54"/>
+    <mergeCell ref="BJ28:BQ32"/>
+    <mergeCell ref="BI36:BR36"/>
+    <mergeCell ref="L57:V57"/>
+    <mergeCell ref="M58:U58"/>
+    <mergeCell ref="Z57:AJ57"/>
+    <mergeCell ref="AA58:AI58"/>
+    <mergeCell ref="AN57:AX57"/>
+    <mergeCell ref="AO58:AW58"/>
+    <mergeCell ref="R32:AG32"/>
+    <mergeCell ref="K33:Q33"/>
+    <mergeCell ref="R33:AG33"/>
+    <mergeCell ref="K30:Q30"/>
+    <mergeCell ref="R30:AG30"/>
+    <mergeCell ref="K31:Q31"/>
+    <mergeCell ref="R31:AG31"/>
+    <mergeCell ref="R28:AG28"/>
+    <mergeCell ref="K28:Q28"/>
+    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="BT27:CB27"/>
+    <mergeCell ref="BT29:CB29"/>
+    <mergeCell ref="BT31:CB31"/>
+    <mergeCell ref="BT33:CB33"/>
+    <mergeCell ref="BT35:CB35"/>
+    <mergeCell ref="BI51:BP52"/>
+    <mergeCell ref="BR51:BY52"/>
+    <mergeCell ref="CE51:CL52"/>
+    <mergeCell ref="BH38:BM38"/>
+    <mergeCell ref="BJ43:CL49"/>
+    <mergeCell ref="F15:K15"/>
+    <mergeCell ref="L17:Z17"/>
+    <mergeCell ref="L15:Z15"/>
+    <mergeCell ref="L13:Z13"/>
+    <mergeCell ref="K26:L27"/>
+    <mergeCell ref="M26:N27"/>
+    <mergeCell ref="Q26:R27"/>
+    <mergeCell ref="S26:T27"/>
+    <mergeCell ref="AW26:BB26"/>
+    <mergeCell ref="AJ26:AV26"/>
+    <mergeCell ref="O26:P27"/>
+    <mergeCell ref="AQ14:AY14"/>
+    <mergeCell ref="AQ15:AY15"/>
+    <mergeCell ref="AQ16:AY16"/>
+    <mergeCell ref="M5:U5"/>
+    <mergeCell ref="V5:AA5"/>
+    <mergeCell ref="F6:AA11"/>
+    <mergeCell ref="AH3:CM3"/>
+    <mergeCell ref="AH4:AN4"/>
+    <mergeCell ref="AJ6:AR6"/>
+    <mergeCell ref="AJ5:AR5"/>
+    <mergeCell ref="AO4:AV4"/>
+    <mergeCell ref="F13:K13"/>
+    <mergeCell ref="AJ8:AR8"/>
+    <mergeCell ref="AO13:AV13"/>
+    <mergeCell ref="AW4:BD4"/>
+    <mergeCell ref="AW13:BD13"/>
+    <mergeCell ref="AJ7:AR7"/>
+    <mergeCell ref="AH12:CM12"/>
+    <mergeCell ref="AH13:AN13"/>
+    <mergeCell ref="K43:Q43"/>
+    <mergeCell ref="R43:AG43"/>
+    <mergeCell ref="AH42:AO42"/>
+    <mergeCell ref="AH43:AO43"/>
+    <mergeCell ref="K40:Q40"/>
+    <mergeCell ref="R40:AG40"/>
+    <mergeCell ref="K41:Q41"/>
+    <mergeCell ref="R41:AG41"/>
+    <mergeCell ref="AH40:AO40"/>
+    <mergeCell ref="AH41:AO41"/>
+    <mergeCell ref="AH28:AO28"/>
+    <mergeCell ref="AH29:AO29"/>
+    <mergeCell ref="AH30:AO30"/>
+    <mergeCell ref="AH31:AO31"/>
+    <mergeCell ref="AH32:AO32"/>
+    <mergeCell ref="AH33:AO33"/>
+    <mergeCell ref="AH34:AO34"/>
+    <mergeCell ref="K42:Q42"/>
+    <mergeCell ref="R42:AG42"/>
+    <mergeCell ref="K38:Q38"/>
+    <mergeCell ref="R38:AG38"/>
     <mergeCell ref="AY28:BA28"/>
     <mergeCell ref="AY29:BA29"/>
     <mergeCell ref="AY30:BA30"/>
@@ -8159,96 +8985,136 @@
     <mergeCell ref="R35:AG35"/>
     <mergeCell ref="AH35:AO35"/>
     <mergeCell ref="R29:AG29"/>
+    <mergeCell ref="K32:Q32"/>
+    <mergeCell ref="AP42:AX42"/>
+    <mergeCell ref="AP43:AX43"/>
+    <mergeCell ref="AP44:AX44"/>
+    <mergeCell ref="AP45:AX45"/>
+    <mergeCell ref="AH44:AO44"/>
+    <mergeCell ref="AH45:AO45"/>
+    <mergeCell ref="AP28:AX28"/>
+    <mergeCell ref="AP29:AX29"/>
+    <mergeCell ref="AP30:AX30"/>
+    <mergeCell ref="AP31:AX31"/>
+    <mergeCell ref="AP32:AX32"/>
+    <mergeCell ref="AP33:AX33"/>
+    <mergeCell ref="AP34:AX34"/>
+    <mergeCell ref="AP35:AX35"/>
+    <mergeCell ref="AP36:AX36"/>
+    <mergeCell ref="AP37:AX37"/>
+    <mergeCell ref="AP38:AX38"/>
+    <mergeCell ref="AP39:AX39"/>
+    <mergeCell ref="AP40:AX40"/>
+    <mergeCell ref="AP41:AX41"/>
+    <mergeCell ref="K39:Q39"/>
     <mergeCell ref="K45:Q45"/>
     <mergeCell ref="R45:AG45"/>
-    <mergeCell ref="AH28:AO28"/>
-    <mergeCell ref="AH29:AO29"/>
-    <mergeCell ref="AH30:AO30"/>
-    <mergeCell ref="AH31:AO31"/>
-    <mergeCell ref="AH32:AO32"/>
-    <mergeCell ref="AH33:AO33"/>
-    <mergeCell ref="AH34:AO34"/>
-    <mergeCell ref="K42:Q42"/>
-    <mergeCell ref="R42:AG42"/>
-    <mergeCell ref="K43:Q43"/>
-    <mergeCell ref="R43:AG43"/>
-    <mergeCell ref="AH42:AO42"/>
-    <mergeCell ref="AH43:AO43"/>
-    <mergeCell ref="K40:Q40"/>
-    <mergeCell ref="R40:AG40"/>
-    <mergeCell ref="K41:Q41"/>
-    <mergeCell ref="R41:AG41"/>
-    <mergeCell ref="AH40:AO40"/>
-    <mergeCell ref="AH41:AO41"/>
-    <mergeCell ref="K38:Q38"/>
-    <mergeCell ref="R38:AG38"/>
-    <mergeCell ref="M5:U5"/>
-    <mergeCell ref="V5:AA5"/>
-    <mergeCell ref="F6:AA11"/>
-    <mergeCell ref="AH3:CM3"/>
-    <mergeCell ref="AH4:AN4"/>
-    <mergeCell ref="AJ6:AR6"/>
-    <mergeCell ref="AJ5:AR5"/>
-    <mergeCell ref="AO4:AV4"/>
-    <mergeCell ref="F13:K13"/>
-    <mergeCell ref="AJ8:AR8"/>
-    <mergeCell ref="AO13:AV13"/>
-    <mergeCell ref="AW4:BD4"/>
-    <mergeCell ref="AW13:BD13"/>
-    <mergeCell ref="AJ7:AR7"/>
-    <mergeCell ref="AH12:CM12"/>
-    <mergeCell ref="AH13:AN13"/>
-    <mergeCell ref="F15:K15"/>
-    <mergeCell ref="L17:Z17"/>
-    <mergeCell ref="L15:Z15"/>
-    <mergeCell ref="L13:Z13"/>
-    <mergeCell ref="K26:L27"/>
-    <mergeCell ref="M26:N27"/>
-    <mergeCell ref="Q26:R27"/>
-    <mergeCell ref="S26:T27"/>
-    <mergeCell ref="AW26:BB26"/>
-    <mergeCell ref="AJ26:AV26"/>
-    <mergeCell ref="O26:P27"/>
-    <mergeCell ref="AQ14:AY14"/>
-    <mergeCell ref="AQ15:AY15"/>
-    <mergeCell ref="AQ16:AY16"/>
-    <mergeCell ref="BT27:CB27"/>
-    <mergeCell ref="BT29:CB29"/>
-    <mergeCell ref="BT31:CB31"/>
-    <mergeCell ref="BT33:CB33"/>
-    <mergeCell ref="BT35:CB35"/>
-    <mergeCell ref="BI51:BP52"/>
-    <mergeCell ref="BR51:BY52"/>
-    <mergeCell ref="CE51:CL52"/>
-    <mergeCell ref="BH38:BM38"/>
-    <mergeCell ref="BJ43:CL49"/>
-    <mergeCell ref="AR69:AY70"/>
-    <mergeCell ref="M63:U63"/>
-    <mergeCell ref="L69:AM69"/>
-    <mergeCell ref="AD62:AY67"/>
-    <mergeCell ref="J54:R54"/>
-    <mergeCell ref="S54:AB54"/>
-    <mergeCell ref="BJ28:BQ32"/>
-    <mergeCell ref="BI36:BR36"/>
-    <mergeCell ref="L57:V57"/>
-    <mergeCell ref="M58:U58"/>
-    <mergeCell ref="Z57:AJ57"/>
-    <mergeCell ref="AA58:AI58"/>
-    <mergeCell ref="AN57:AX57"/>
-    <mergeCell ref="AO58:AW58"/>
-    <mergeCell ref="R32:AG32"/>
-    <mergeCell ref="K33:Q33"/>
-    <mergeCell ref="R33:AG33"/>
-    <mergeCell ref="K30:Q30"/>
-    <mergeCell ref="R30:AG30"/>
-    <mergeCell ref="K31:Q31"/>
-    <mergeCell ref="R31:AG31"/>
-    <mergeCell ref="R28:AG28"/>
-    <mergeCell ref="K28:Q28"/>
-    <mergeCell ref="K29:Q29"/>
+    <mergeCell ref="AY45:BA45"/>
+    <mergeCell ref="AY40:BA40"/>
+    <mergeCell ref="AY41:BA41"/>
+    <mergeCell ref="AY42:BA42"/>
+    <mergeCell ref="AY43:BA43"/>
+    <mergeCell ref="AY44:BA44"/>
+    <mergeCell ref="AY35:BA35"/>
+    <mergeCell ref="AY36:BA36"/>
+    <mergeCell ref="AY37:BA37"/>
+    <mergeCell ref="AY38:BA38"/>
+    <mergeCell ref="AY39:BA39"/>
+    <mergeCell ref="CN62:CR62"/>
+    <mergeCell ref="CS62:CW62"/>
+    <mergeCell ref="CD63:CH63"/>
+    <mergeCell ref="CI63:CM63"/>
+    <mergeCell ref="CN63:CR63"/>
+    <mergeCell ref="CS63:CW63"/>
+    <mergeCell ref="BI61:BM61"/>
+    <mergeCell ref="BN61:BR61"/>
+    <mergeCell ref="BS61:BW61"/>
+    <mergeCell ref="BX61:CB61"/>
+    <mergeCell ref="CD61:CH61"/>
+    <mergeCell ref="CI61:CM61"/>
+    <mergeCell ref="CN61:CR61"/>
+    <mergeCell ref="CS61:CW61"/>
+    <mergeCell ref="BX62:CB62"/>
+    <mergeCell ref="BS62:BW62"/>
+    <mergeCell ref="BN62:BR62"/>
+    <mergeCell ref="BI62:BM62"/>
+    <mergeCell ref="BI69:BM69"/>
+    <mergeCell ref="BN69:BR69"/>
+    <mergeCell ref="BS69:BW69"/>
+    <mergeCell ref="BX69:CB69"/>
+    <mergeCell ref="BI64:BM64"/>
+    <mergeCell ref="BN64:BR64"/>
+    <mergeCell ref="BS64:BW64"/>
+    <mergeCell ref="BX64:CB64"/>
+    <mergeCell ref="BI65:BM65"/>
+    <mergeCell ref="BN65:BR65"/>
+    <mergeCell ref="BS65:BW65"/>
+    <mergeCell ref="BX65:CB65"/>
+    <mergeCell ref="BI66:BM66"/>
+    <mergeCell ref="BN66:BR66"/>
+    <mergeCell ref="BS66:BW66"/>
+    <mergeCell ref="BX66:CB66"/>
+    <mergeCell ref="CD69:CH69"/>
+    <mergeCell ref="CI69:CM69"/>
+    <mergeCell ref="CN69:CR69"/>
+    <mergeCell ref="CS69:CW69"/>
+    <mergeCell ref="CD64:CH64"/>
+    <mergeCell ref="CI64:CM64"/>
+    <mergeCell ref="CN64:CR64"/>
+    <mergeCell ref="CS64:CW64"/>
+    <mergeCell ref="CD65:CH65"/>
+    <mergeCell ref="CI65:CM65"/>
+    <mergeCell ref="CN65:CR65"/>
+    <mergeCell ref="CS65:CW65"/>
+    <mergeCell ref="CD66:CH66"/>
+    <mergeCell ref="CI66:CM66"/>
+    <mergeCell ref="CN66:CR66"/>
+    <mergeCell ref="CS66:CW66"/>
+    <mergeCell ref="BI60:BQ60"/>
+    <mergeCell ref="CD60:CL60"/>
+    <mergeCell ref="CD67:CH67"/>
+    <mergeCell ref="CI67:CM67"/>
+    <mergeCell ref="CN67:CR67"/>
+    <mergeCell ref="CS67:CW67"/>
+    <mergeCell ref="CD68:CH68"/>
+    <mergeCell ref="CI68:CM68"/>
+    <mergeCell ref="CN68:CR68"/>
+    <mergeCell ref="CS68:CW68"/>
+    <mergeCell ref="BI67:BM67"/>
+    <mergeCell ref="BN67:BR67"/>
+    <mergeCell ref="BS67:BW67"/>
+    <mergeCell ref="BX67:CB67"/>
+    <mergeCell ref="BI68:BM68"/>
+    <mergeCell ref="BN68:BR68"/>
+    <mergeCell ref="BS68:BW68"/>
+    <mergeCell ref="BX68:CB68"/>
+    <mergeCell ref="BI63:BM63"/>
+    <mergeCell ref="BN63:BR63"/>
+    <mergeCell ref="BS63:BW63"/>
+    <mergeCell ref="BX63:CB63"/>
+    <mergeCell ref="CD62:CH62"/>
+    <mergeCell ref="CI62:CM62"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="AY26" sqref="AY26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="2.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="16384" width="2.7109375" style="111"/>
+  </cols>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>